--- a/Listado Mis Comprobantes 2.0.xlsx
+++ b/Listado Mis Comprobantes 2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin Bustos\Desktop\Descarga MC Nuevo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin Bustos\Desktop\Descarga_MC_AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7ACAE7-1B92-43B7-9095-E6490F00293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D4F5F-2020-4BDB-AF66-24BDF67AFE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$W$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$Y$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="28">
   <si>
     <t>Nro</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Clave</t>
+  </si>
+  <si>
+    <t>Raiz</t>
+  </si>
+  <si>
+    <t>Ubicación Descarga</t>
   </si>
 </sst>
 </file>
@@ -213,7 +219,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Control"/>
@@ -603,7 +609,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -2212,11 +2218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W69"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,17 +2232,17 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" customWidth="1"/>
-    <col min="10" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.5703125" customWidth="1"/>
+    <col min="12" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2259,55 +2265,61 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -2329,70 +2341,72 @@
         <v>44866</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="2" t="str">
-        <f t="shared" ref="H2:H33" si="1">TEXT(F2,"DD/MM/AAAA")</f>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="str">
+        <f t="shared" ref="J2:J33" si="1">TEXT(F2,"DD/MM/AAAA")</f>
         <v>01/11/2022</v>
       </c>
-      <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I33" si="2">TEXT(L2,"DD/MM/AAAA")</f>
+      <c r="K2" s="2" t="str">
+        <f t="shared" ref="K2:K33" si="2">TEXT(N2,"DD/MM/AAAA")</f>
         <v>30/11/2022</v>
       </c>
-      <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:J33" si="3">CONCATENATE(TEXT(A2,"0")," - ","MCE - ",TEXT(H2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="L2" s="2" t="str">
+        <f t="shared" ref="L2:L33" si="3">CONCATENATE(TEXT(A2,"0")," - ","MCE - ",TEXT(J2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - MCE - 202211 - 20000000000 - Cliente</v>
       </c>
-      <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K33" si="4">CONCATENATE(TEXT(A2,"0")," - ","MCR - ",TEXT(H2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="M2" s="2" t="str">
+        <f t="shared" ref="M2:M33" si="4">CONCATENATE(TEXT(A2,"0")," - ","MCR - ",TEXT(J2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - MCR - 202211 - 20000000000 - Cliente</v>
       </c>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:L33" si="5">EOMONTH(F2,0)</f>
+      <c r="N2" s="2">
+        <f t="shared" ref="N2:N33" si="5">EOMONTH(F2,0)</f>
         <v>44895</v>
       </c>
-      <c r="M2" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;T2,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O2" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;V2,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N2" s="5" t="str">
-        <f t="shared" ref="N2:N33" si="6">TEXT(Q2+R2/96400,"hh:mm:ss")</f>
+      <c r="P2" s="5" t="str">
+        <f t="shared" ref="P2:P33" si="6">TEXT(S2+T2/96400,"hh:mm:ss")</f>
         <v>00:00:03</v>
       </c>
-      <c r="O2" s="5" t="e">
+      <c r="Q2" s="5" t="e">
         <f>VLOOKUP(C2,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P2" s="6" t="e">
-        <f t="shared" ref="P2:P33" si="7">IF(EXACT(O2,E2),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="6" t="e">
+        <f t="shared" ref="R2:R33" si="7">IF(EXACT(Q2,E2),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2" s="5">
-        <f t="shared" ref="S2:S33" si="8">ROW(A2)</f>
-        <v>2</v>
-      </c>
-      <c r="T2" s="5" t="str">
-        <f t="shared" ref="T2:T33" si="9">TEXT(H2,"AAAAMM")</f>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2" s="5">
+        <f t="shared" ref="U2:U33" si="8">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="V2" s="5" t="str">
+        <f t="shared" ref="V2:V33" si="9">TEXT(J2,"AAAAMM")</f>
         <v>202211</v>
       </c>
-      <c r="U2" s="5">
-        <f t="shared" ref="U2" si="10">IF(C2=C1,1,0)</f>
+      <c r="W2" s="5">
+        <f t="shared" ref="W2" si="10">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V2" s="5">
-        <f t="shared" ref="V2" si="11">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <f t="shared" ref="W2:W33" si="12">SUM(U2:V2)</f>
+      <c r="X2" s="5">
+        <f t="shared" ref="X2" si="11">IF(C2=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:Y33" si="12">SUM(W2:X2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2414,70 +2428,72 @@
         <v>44866</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="K3" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="L3" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 20000000000 - Cliente</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="M3" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 20000000000 - Cliente</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M3" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;T3,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O3" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;V3,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N3" s="5" t="str">
+      <c r="P3" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O3" s="5" t="e">
+      <c r="Q3" s="5" t="e">
         <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P3" s="6" t="e">
+      <c r="R3" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3" s="5">
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3" s="5">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="T3" s="5" t="str">
+      <c r="V3" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U3" s="5">
+      <c r="W3" s="5">
         <f>IF(C3=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="V3" s="5">
+      <c r="X3" s="5">
         <f>IF(C3=C4,1,0)</f>
         <v>1</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2498,70 +2514,72 @@
         <v>44866</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="K4" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="L4" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="M4" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M4" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;T4,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O4" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;V4,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N4" s="5" t="str">
+      <c r="P4" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O4" s="5" t="e">
+      <c r="Q4" s="5" t="e">
         <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P4" s="6" t="e">
+      <c r="R4" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4" s="5">
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4" s="5">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="T4" s="5" t="str">
+      <c r="V4" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U4" s="5">
-        <f t="shared" ref="U4:U67" si="13">IF(C4=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V4" s="5">
-        <f t="shared" ref="V4:V67" si="14">IF(C4=C5,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W4">
+      <c r="W4" s="5">
+        <f t="shared" ref="W4:W67" si="13">IF(C4=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" ref="X4:X67" si="14">IF(C4=C5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2582,70 +2600,72 @@
         <v>44866</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="K5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="L5" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="M5" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M5" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;T5,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O5" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;V5,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N5" s="5" t="str">
+      <c r="P5" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O5" s="5" t="e">
+      <c r="Q5" s="5" t="e">
         <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P5" s="6" t="e">
+      <c r="R5" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5" s="5">
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5" s="5">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="T5" s="5" t="str">
+      <c r="V5" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U5" s="5">
+      <c r="W5" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V5" s="5">
+      <c r="X5" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2666,70 +2686,72 @@
         <v>44866</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="K6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="L6" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="M6" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M6" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;T6,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O6" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;V6,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N6" s="5" t="str">
+      <c r="P6" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O6" s="5" t="e">
+      <c r="Q6" s="5" t="e">
         <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P6" s="6" t="e">
+      <c r="R6" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6" s="5">
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6" s="5">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="T6" s="5" t="str">
+      <c r="V6" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U6" s="5">
+      <c r="W6" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V6" s="5">
+      <c r="X6" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2750,70 +2772,72 @@
         <v>44866</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="K7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="L7" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="M7" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M7" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;T7,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O7" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;V7,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N7" s="5" t="str">
+      <c r="P7" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O7" s="5" t="e">
+      <c r="Q7" s="5" t="e">
         <f>VLOOKUP(C7,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P7" s="6" t="e">
+      <c r="R7" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7" s="5">
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7" s="5">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="T7" s="5" t="str">
+      <c r="V7" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U7" s="5">
+      <c r="W7" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V7" s="5">
+      <c r="X7" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2834,70 +2858,72 @@
         <v>44866</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="2" t="str">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="K8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="L8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="M8" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M8" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;T8,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O8" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;V8,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N8" s="5" t="str">
+      <c r="P8" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O8" s="5" t="e">
+      <c r="Q8" s="5" t="e">
         <f>VLOOKUP(C8,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P8" s="6" t="e">
+      <c r="R8" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8" s="5">
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8" s="5">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="T8" s="5" t="str">
+      <c r="V8" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U8" s="5">
+      <c r="W8" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V8" s="5">
+      <c r="X8" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2918,70 +2944,72 @@
         <v>44866</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="K9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="M9" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M9" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;T9,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O9" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;V9,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N9" s="5" t="str">
+      <c r="P9" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O9" s="5" t="e">
+      <c r="Q9" s="5" t="e">
         <f>VLOOKUP(C9,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P9" s="6" t="e">
+      <c r="R9" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9" s="5">
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9" s="5">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="T9" s="5" t="str">
+      <c r="V9" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U9" s="5">
+      <c r="W9" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V9" s="5">
+      <c r="X9" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3002,70 +3030,72 @@
         <v>44866</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="K10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="L10" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="M10" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M10" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;T10,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O10" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;V10,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N10" s="5" t="str">
+      <c r="P10" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O10" s="5" t="e">
+      <c r="Q10" s="5" t="e">
         <f>VLOOKUP(C10,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P10" s="6" t="e">
+      <c r="R10" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10" s="5">
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="T10" s="5" t="str">
+      <c r="V10" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U10" s="5">
+      <c r="W10" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V10" s="5">
+      <c r="X10" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3086,70 +3116,72 @@
         <v>44866</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="K11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="L11" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="M11" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M11" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;T11,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O11" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;V11,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N11" s="5" t="str">
+      <c r="P11" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O11" s="5" t="e">
+      <c r="Q11" s="5" t="e">
         <f>VLOOKUP(C11,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P11" s="6" t="e">
+      <c r="R11" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11" s="5">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="T11" s="5" t="str">
+      <c r="V11" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U11" s="5">
+      <c r="W11" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V11" s="5">
+      <c r="X11" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3170,70 +3202,72 @@
         <v>44866</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="K12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="L12" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="M12" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M12" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;T12,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O12" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;V12,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N12" s="5" t="str">
+      <c r="P12" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O12" s="5" t="e">
+      <c r="Q12" s="5" t="e">
         <f>VLOOKUP(C12,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P12" s="6" t="e">
+      <c r="R12" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="S12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12" s="5">
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12" s="5">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="T12" s="5" t="str">
+      <c r="V12" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U12" s="5">
+      <c r="W12" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V12" s="5">
+      <c r="X12" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3254,70 +3288,72 @@
         <v>44866</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="2" t="str">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I13" s="2" t="str">
+      <c r="K13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="L13" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="M13" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M13" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;T13,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O13" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;V13,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N13" s="5" t="str">
+      <c r="P13" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O13" s="5" t="e">
+      <c r="Q13" s="5" t="e">
         <f>VLOOKUP(C13,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P13" s="6" t="e">
+      <c r="R13" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13" s="5">
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13" s="5">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="T13" s="5" t="str">
+      <c r="V13" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U13" s="5">
+      <c r="W13" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V13" s="5">
+      <c r="X13" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3338,70 +3374,72 @@
         <v>44866</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="K14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="L14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="M14" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M14" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;T14,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O14" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;V14,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N14" s="5" t="str">
+      <c r="P14" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O14" s="5" t="e">
+      <c r="Q14" s="5" t="e">
         <f>VLOOKUP(C14,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="6" t="e">
+      <c r="R14" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14" s="5">
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14" s="5">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="T14" s="5" t="str">
+      <c r="V14" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U14" s="5">
+      <c r="W14" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V14" s="5">
+      <c r="X14" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3422,70 +3460,72 @@
         <v>44866</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="K15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="L15" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="M15" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M15" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;T15,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O15" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;V15,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N15" s="5" t="str">
+      <c r="P15" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O15" s="5" t="e">
+      <c r="Q15" s="5" t="e">
         <f>VLOOKUP(C15,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P15" s="6" t="e">
+      <c r="R15" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15" s="5">
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15" s="5">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="T15" s="5" t="str">
+      <c r="V15" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U15" s="5">
+      <c r="W15" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V15" s="5">
+      <c r="X15" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3506,70 +3546,72 @@
         <v>44866</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="2" t="str">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I16" s="2" t="str">
+      <c r="K16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J16" s="2" t="str">
+      <c r="L16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="M16" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L16" s="2">
+      <c r="N16" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M16" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;T16,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O16" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;V16,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N16" s="5" t="str">
+      <c r="P16" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O16" s="5" t="e">
+      <c r="Q16" s="5" t="e">
         <f>VLOOKUP(C16,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="6" t="e">
+      <c r="R16" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="S16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16" s="5">
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16" s="5">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="T16" s="5" t="str">
+      <c r="V16" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U16" s="5">
+      <c r="W16" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V16" s="5">
+      <c r="X16" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3590,70 +3632,72 @@
         <v>44866</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="2" t="str">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I17" s="2" t="str">
+      <c r="K17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J17" s="2" t="str">
+      <c r="L17" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K17" s="2" t="str">
+      <c r="M17" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L17" s="2">
+      <c r="N17" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M17" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;T17,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O17" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;V17,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N17" s="5" t="str">
+      <c r="P17" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O17" s="5" t="e">
+      <c r="Q17" s="5" t="e">
         <f>VLOOKUP(C17,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P17" s="6" t="e">
+      <c r="R17" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17" s="5">
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17" s="5">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="T17" s="5" t="str">
+      <c r="V17" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U17" s="5">
+      <c r="W17" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V17" s="5">
+      <c r="X17" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3674,70 +3718,72 @@
         <v>44866</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="2" t="str">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I18" s="2" t="str">
+      <c r="K18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J18" s="2" t="str">
+      <c r="L18" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K18" s="2" t="str">
+      <c r="M18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L18" s="2">
+      <c r="N18" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M18" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;T18,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O18" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;V18,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N18" s="5" t="str">
+      <c r="P18" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O18" s="5" t="e">
+      <c r="Q18" s="5" t="e">
         <f>VLOOKUP(C18,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P18" s="6" t="e">
+      <c r="R18" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="S18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18" s="5">
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18" s="5">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="T18" s="5" t="str">
+      <c r="V18" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U18" s="5">
+      <c r="W18" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V18" s="5">
+      <c r="X18" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3758,70 +3804,72 @@
         <v>44866</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="2" t="str">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I19" s="2" t="str">
+      <c r="K19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J19" s="2" t="str">
+      <c r="L19" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K19" s="2" t="str">
+      <c r="M19" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L19" s="2">
+      <c r="N19" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M19" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;T19,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O19" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;V19,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N19" s="5" t="str">
+      <c r="P19" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O19" s="5" t="e">
+      <c r="Q19" s="5" t="e">
         <f>VLOOKUP(C19,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P19" s="6" t="e">
+      <c r="R19" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="S19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R19">
-        <v>2</v>
-      </c>
-      <c r="S19" s="5">
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19" s="5">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="T19" s="5" t="str">
+      <c r="V19" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U19" s="5">
+      <c r="W19" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V19" s="5">
+      <c r="X19" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3842,70 +3890,72 @@
         <v>44866</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="2" t="str">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I20" s="2" t="str">
+      <c r="K20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J20" s="2" t="str">
+      <c r="L20" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="M20" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L20" s="2">
+      <c r="N20" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M20" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;T20,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O20" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;V20,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N20" s="5" t="str">
+      <c r="P20" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O20" s="5" t="e">
+      <c r="Q20" s="5" t="e">
         <f>VLOOKUP(C20,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="6" t="e">
+      <c r="R20" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="S20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20" s="5">
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20" s="5">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="T20" s="5" t="str">
+      <c r="V20" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U20" s="5">
+      <c r="W20" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V20" s="5">
+      <c r="X20" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3926,70 +3976,72 @@
         <v>44866</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="2" t="str">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I21" s="2" t="str">
+      <c r="K21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J21" s="2" t="str">
+      <c r="L21" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K21" s="2" t="str">
+      <c r="M21" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L21" s="2">
+      <c r="N21" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M21" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;T21,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O21" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;V21,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N21" s="5" t="str">
+      <c r="P21" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O21" s="5" t="e">
+      <c r="Q21" s="5" t="e">
         <f>VLOOKUP(C21,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P21" s="6" t="e">
+      <c r="R21" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="S21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21" s="5">
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21" s="5">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="T21" s="5" t="str">
+      <c r="V21" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U21" s="5">
+      <c r="W21" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V21" s="5">
+      <c r="X21" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4010,70 +4062,72 @@
         <v>44866</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="2" t="str">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I22" s="2" t="str">
+      <c r="K22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J22" s="2" t="str">
+      <c r="L22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K22" s="2" t="str">
+      <c r="M22" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L22" s="2">
+      <c r="N22" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M22" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;T22,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O22" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;V22,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N22" s="5" t="str">
+      <c r="P22" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O22" s="5" t="e">
+      <c r="Q22" s="5" t="e">
         <f>VLOOKUP(C22,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P22" s="6" t="e">
+      <c r="R22" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="S22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22" s="5">
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22" s="5">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="T22" s="5" t="str">
+      <c r="V22" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U22" s="5">
+      <c r="W22" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V22" s="5">
+      <c r="X22" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4094,70 +4148,72 @@
         <v>44866</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="2" t="str">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I23" s="2" t="str">
+      <c r="K23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J23" s="2" t="str">
+      <c r="L23" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K23" s="2" t="str">
+      <c r="M23" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L23" s="2">
+      <c r="N23" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M23" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;T23,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O23" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;V23,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N23" s="5" t="str">
+      <c r="P23" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O23" s="5" t="e">
+      <c r="Q23" s="5" t="e">
         <f>VLOOKUP(C23,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P23" s="6" t="e">
+      <c r="R23" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="S23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23" s="5">
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23" s="5">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="T23" s="5" t="str">
+      <c r="V23" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U23" s="5">
+      <c r="W23" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V23" s="5">
+      <c r="X23" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4178,70 +4234,72 @@
         <v>44866</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="2" t="str">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I24" s="2" t="str">
+      <c r="K24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J24" s="2" t="str">
+      <c r="L24" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K24" s="2" t="str">
+      <c r="M24" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L24" s="2">
+      <c r="N24" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M24" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;T24,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O24" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;V24,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N24" s="5" t="str">
+      <c r="P24" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O24" s="5" t="e">
+      <c r="Q24" s="5" t="e">
         <f>VLOOKUP(C24,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P24" s="6" t="e">
+      <c r="R24" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="S24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R24">
-        <v>2</v>
-      </c>
-      <c r="S24" s="5">
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24" s="5">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="T24" s="5" t="str">
+      <c r="V24" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U24" s="5">
+      <c r="W24" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V24" s="5">
+      <c r="X24" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4262,70 +4320,72 @@
         <v>44866</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="2" t="str">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I25" s="2" t="str">
+      <c r="K25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J25" s="2" t="str">
+      <c r="L25" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="M25" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L25" s="2">
+      <c r="N25" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M25" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;T25,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O25" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;V25,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N25" s="5" t="str">
+      <c r="P25" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O25" s="5" t="e">
+      <c r="Q25" s="5" t="e">
         <f>VLOOKUP(C25,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="6" t="e">
+      <c r="R25" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="S25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25" s="5">
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25" s="5">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="T25" s="5" t="str">
+      <c r="V25" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U25" s="5">
+      <c r="W25" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V25" s="5">
+      <c r="X25" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4346,70 +4406,72 @@
         <v>44866</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="2" t="str">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I26" s="2" t="str">
+      <c r="K26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J26" s="2" t="str">
+      <c r="L26" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="M26" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L26" s="2">
+      <c r="N26" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M26" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;T26,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O26" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;V26,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N26" s="5" t="str">
+      <c r="P26" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O26" s="5" t="e">
+      <c r="Q26" s="5" t="e">
         <f>VLOOKUP(C26,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P26" s="6" t="e">
+      <c r="R26" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="S26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R26">
-        <v>2</v>
-      </c>
-      <c r="S26" s="5">
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26" s="5">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="T26" s="5" t="str">
+      <c r="V26" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U26" s="5">
+      <c r="W26" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V26" s="5">
+      <c r="X26" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4430,70 +4492,72 @@
         <v>44866</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="2" t="str">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I27" s="2" t="str">
+      <c r="K27" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J27" s="2" t="str">
+      <c r="L27" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="M27" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L27" s="2">
+      <c r="N27" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M27" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;T27,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O27" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;V27,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N27" s="5" t="str">
+      <c r="P27" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O27" s="5" t="e">
+      <c r="Q27" s="5" t="e">
         <f>VLOOKUP(C27,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P27" s="6" t="e">
+      <c r="R27" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="S27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R27">
-        <v>2</v>
-      </c>
-      <c r="S27" s="5">
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27" s="5">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="T27" s="5" t="str">
+      <c r="V27" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U27" s="5">
+      <c r="W27" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V27" s="5">
+      <c r="X27" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4514,70 +4578,72 @@
         <v>44866</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="2" t="str">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I28" s="2" t="str">
+      <c r="K28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J28" s="2" t="str">
+      <c r="L28" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="M28" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L28" s="2">
+      <c r="N28" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M28" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;T28,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O28" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;V28,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N28" s="5" t="str">
+      <c r="P28" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O28" s="5" t="e">
+      <c r="Q28" s="5" t="e">
         <f>VLOOKUP(C28,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P28" s="6" t="e">
+      <c r="R28" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="S28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
-      <c r="S28" s="5">
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28" s="5">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="T28" s="5" t="str">
+      <c r="V28" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U28" s="5">
+      <c r="W28" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V28" s="5">
+      <c r="X28" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4598,70 +4664,72 @@
         <v>44866</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="2" t="str">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I29" s="2" t="str">
+      <c r="K29" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J29" s="2" t="str">
+      <c r="L29" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="M29" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L29" s="2">
+      <c r="N29" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M29" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;T29,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O29" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;V29,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N29" s="5" t="str">
+      <c r="P29" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O29" s="5" t="e">
+      <c r="Q29" s="5" t="e">
         <f>VLOOKUP(C29,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P29" s="6" t="e">
+      <c r="R29" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="S29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R29">
-        <v>2</v>
-      </c>
-      <c r="S29" s="5">
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29" s="5">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="T29" s="5" t="str">
+      <c r="V29" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U29" s="5">
+      <c r="W29" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V29" s="5">
+      <c r="X29" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4682,70 +4750,72 @@
         <v>44866</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="2" t="str">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I30" s="2" t="str">
+      <c r="K30" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J30" s="2" t="str">
+      <c r="L30" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K30" s="2" t="str">
+      <c r="M30" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L30" s="2">
+      <c r="N30" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M30" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;T30,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O30" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;V30,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N30" s="5" t="str">
+      <c r="P30" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O30" s="5" t="e">
+      <c r="Q30" s="5" t="e">
         <f>VLOOKUP(C30,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P30" s="6" t="e">
+      <c r="R30" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="S30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30" s="5">
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30" s="5">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="T30" s="5" t="str">
+      <c r="V30" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U30" s="5">
+      <c r="W30" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V30" s="5">
+      <c r="X30" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4766,70 +4836,72 @@
         <v>44866</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="2" t="str">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I31" s="2" t="str">
+      <c r="K31" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J31" s="2" t="str">
+      <c r="L31" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K31" s="2" t="str">
+      <c r="M31" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L31" s="2">
+      <c r="N31" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M31" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;T31,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O31" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;V31,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N31" s="5" t="str">
+      <c r="P31" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O31" s="5" t="e">
+      <c r="Q31" s="5" t="e">
         <f>VLOOKUP(C31,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P31" s="6" t="e">
+      <c r="R31" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="S31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31" s="5">
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31" s="5">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="T31" s="5" t="str">
+      <c r="V31" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U31" s="5">
+      <c r="W31" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V31" s="5">
+      <c r="X31" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4850,70 +4922,72 @@
         <v>44866</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="2" t="str">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I32" s="2" t="str">
+      <c r="K32" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J32" s="2" t="str">
+      <c r="L32" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K32" s="2" t="str">
+      <c r="M32" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L32" s="2">
+      <c r="N32" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M32" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;T32,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O32" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;V32,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N32" s="5" t="str">
+      <c r="P32" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O32" s="5" t="e">
+      <c r="Q32" s="5" t="e">
         <f>VLOOKUP(C32,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P32" s="6" t="e">
+      <c r="R32" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="S32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32" s="5">
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32" s="5">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="T32" s="5" t="str">
+      <c r="V32" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U32" s="5">
+      <c r="W32" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V32" s="5">
+      <c r="X32" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4934,70 +5008,72 @@
         <v>44866</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="2" t="str">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I33" s="2" t="str">
+      <c r="K33" s="2" t="str">
         <f t="shared" si="2"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J33" s="2" t="str">
+      <c r="L33" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K33" s="2" t="str">
+      <c r="M33" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L33" s="2">
+      <c r="N33" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="M33" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;T33,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O33" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;V33,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N33" s="5" t="str">
+      <c r="P33" s="5" t="str">
         <f t="shared" si="6"/>
         <v>00:00:03</v>
       </c>
-      <c r="O33" s="5" t="e">
+      <c r="Q33" s="5" t="e">
         <f>VLOOKUP(C33,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P33" s="6" t="e">
+      <c r="R33" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="S33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R33">
-        <v>2</v>
-      </c>
-      <c r="S33" s="5">
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33" s="5">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="T33" s="5" t="str">
+      <c r="V33" s="5" t="str">
         <f t="shared" si="9"/>
         <v>202211</v>
       </c>
-      <c r="U33" s="5">
+      <c r="W33" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V33" s="5">
+      <c r="X33" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W33">
+      <c r="Y33">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f t="shared" ref="A34:A69" si="15">RIGHT(D34,1)</f>
         <v>0</v>
@@ -5018,70 +5094,72 @@
         <v>44866</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="2" t="str">
-        <f t="shared" ref="H34:H69" si="16">TEXT(F34,"DD/MM/AAAA")</f>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="2" t="str">
+        <f t="shared" ref="J34:J69" si="16">TEXT(F34,"DD/MM/AAAA")</f>
         <v>01/11/2022</v>
       </c>
-      <c r="I34" s="2" t="str">
-        <f t="shared" ref="I34:I69" si="17">TEXT(L34,"DD/MM/AAAA")</f>
+      <c r="K34" s="2" t="str">
+        <f t="shared" ref="K34:K69" si="17">TEXT(N34,"DD/MM/AAAA")</f>
         <v>30/11/2022</v>
       </c>
-      <c r="J34" s="2" t="str">
-        <f t="shared" ref="J34:J69" si="18">CONCATENATE(TEXT(A34,"0")," - ","MCE - ",TEXT(H34,"AAAAMM")," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
+      <c r="L34" s="2" t="str">
+        <f t="shared" ref="L34:L69" si="18">CONCATENATE(TEXT(A34,"0")," - ","MCE - ",TEXT(J34,"AAAAMM")," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K34" s="2" t="str">
-        <f t="shared" ref="K34:K69" si="19">CONCATENATE(TEXT(A34,"0")," - ","MCR - ",TEXT(H34,"AAAAMM")," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
+      <c r="M34" s="2" t="str">
+        <f t="shared" ref="M34:M69" si="19">CONCATENATE(TEXT(A34,"0")," - ","MCR - ",TEXT(J34,"AAAAMM")," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L34" s="2">
-        <f t="shared" ref="L34:L69" si="20">EOMONTH(F34,0)</f>
+      <c r="N34" s="2">
+        <f t="shared" ref="N34:N69" si="20">EOMONTH(F34,0)</f>
         <v>44895</v>
       </c>
-      <c r="M34" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;T34,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O34" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;V34,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N34" s="5" t="str">
-        <f t="shared" ref="N34:N69" si="21">TEXT(Q34+R34/96400,"hh:mm:ss")</f>
+      <c r="P34" s="5" t="str">
+        <f t="shared" ref="P34:P69" si="21">TEXT(S34+T34/96400,"hh:mm:ss")</f>
         <v>00:00:03</v>
       </c>
-      <c r="O34" s="5" t="e">
+      <c r="Q34" s="5" t="e">
         <f>VLOOKUP(C34,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P34" s="6" t="e">
-        <f t="shared" ref="P34:P65" si="22">IF(EXACT(O34,E34),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" s="4" t="s">
+      <c r="R34" s="6" t="e">
+        <f t="shared" ref="R34:R65" si="22">IF(EXACT(Q34,E34),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R34">
-        <v>2</v>
-      </c>
-      <c r="S34" s="5">
-        <f t="shared" ref="S34:S69" si="23">ROW(A34)</f>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34" s="5">
+        <f t="shared" ref="U34:U69" si="23">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="T34" s="5" t="str">
-        <f t="shared" ref="T34:T69" si="24">TEXT(H34,"AAAAMM")</f>
+      <c r="V34" s="5" t="str">
+        <f t="shared" ref="V34:V69" si="24">TEXT(J34,"AAAAMM")</f>
         <v>202211</v>
       </c>
-      <c r="U34" s="5">
+      <c r="W34" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V34" s="5">
+      <c r="X34" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W34">
-        <f t="shared" ref="W34:W65" si="25">SUM(U34:V34)</f>
+      <c r="Y34">
+        <f t="shared" ref="Y34:Y65" si="25">SUM(W34:X34)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -5102,70 +5180,72 @@
         <v>44866</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="2" t="str">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I35" s="2" t="str">
+      <c r="K35" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J35" s="2" t="str">
+      <c r="L35" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K35" s="2" t="str">
+      <c r="M35" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L35" s="2">
+      <c r="N35" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M35" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;T35,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O35" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;V35,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N35" s="5" t="str">
+      <c r="P35" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O35" s="5" t="e">
+      <c r="Q35" s="5" t="e">
         <f>VLOOKUP(C35,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P35" s="6" t="e">
+      <c r="R35" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="S35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35" s="5">
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35" s="5">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="T35" s="5" t="str">
+      <c r="V35" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U35" s="5">
+      <c r="W35" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V35" s="5">
+      <c r="X35" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W35">
+      <c r="Y35">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -5186,70 +5266,72 @@
         <v>44866</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="2" t="str">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I36" s="2" t="str">
+      <c r="K36" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J36" s="2" t="str">
+      <c r="L36" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K36" s="2" t="str">
+      <c r="M36" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L36" s="2">
+      <c r="N36" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M36" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;T36,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O36" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;V36,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N36" s="5" t="str">
+      <c r="P36" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O36" s="5" t="e">
+      <c r="Q36" s="5" t="e">
         <f>VLOOKUP(C36,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P36" s="6" t="e">
+      <c r="R36" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="S36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
-      <c r="S36" s="5">
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36" s="5">
         <f t="shared" si="23"/>
         <v>36</v>
       </c>
-      <c r="T36" s="5" t="str">
+      <c r="V36" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U36" s="5">
+      <c r="W36" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V36" s="5">
+      <c r="X36" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W36">
+      <c r="Y36">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -5270,70 +5352,72 @@
         <v>44866</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="2" t="str">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I37" s="2" t="str">
+      <c r="K37" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J37" s="2" t="str">
+      <c r="L37" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K37" s="2" t="str">
+      <c r="M37" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L37" s="2">
+      <c r="N37" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M37" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;T37,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O37" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;V37,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N37" s="5" t="str">
+      <c r="P37" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O37" s="5" t="e">
+      <c r="Q37" s="5" t="e">
         <f>VLOOKUP(C37,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P37" s="6" t="e">
+      <c r="R37" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="S37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R37">
-        <v>2</v>
-      </c>
-      <c r="S37" s="5">
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37" s="5">
         <f t="shared" si="23"/>
         <v>37</v>
       </c>
-      <c r="T37" s="5" t="str">
+      <c r="V37" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U37" s="5">
+      <c r="W37" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V37" s="5">
+      <c r="X37" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W37">
+      <c r="Y37">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -5354,70 +5438,72 @@
         <v>44866</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="2" t="str">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I38" s="2" t="str">
+      <c r="K38" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J38" s="2" t="str">
+      <c r="L38" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K38" s="2" t="str">
+      <c r="M38" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M38" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;T38,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O38" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;V38,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N38" s="5" t="str">
+      <c r="P38" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O38" s="5" t="e">
+      <c r="Q38" s="5" t="e">
         <f>VLOOKUP(C38,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P38" s="6" t="e">
+      <c r="R38" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="S38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38" s="5">
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38" s="5">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
-      <c r="T38" s="5" t="str">
+      <c r="V38" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U38" s="5">
+      <c r="W38" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V38" s="5">
+      <c r="X38" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W38" s="5">
+      <c r="Y38" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -5438,70 +5524,72 @@
         <v>44866</v>
       </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="2" t="str">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I39" s="2" t="str">
+      <c r="K39" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J39" s="2" t="str">
+      <c r="L39" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K39" s="2" t="str">
+      <c r="M39" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L39" s="2">
+      <c r="N39" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M39" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;T39,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O39" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;V39,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N39" s="5" t="str">
+      <c r="P39" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O39" s="5" t="e">
+      <c r="Q39" s="5" t="e">
         <f>VLOOKUP(C39,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P39" s="6" t="e">
+      <c r="R39" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="S39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R39">
-        <v>2</v>
-      </c>
-      <c r="S39" s="5">
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39" s="5">
         <f t="shared" si="23"/>
         <v>39</v>
       </c>
-      <c r="T39" s="5" t="str">
+      <c r="V39" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U39" s="5">
+      <c r="W39" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V39" s="5">
+      <c r="X39" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W39" s="5">
+      <c r="Y39" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -5522,70 +5610,72 @@
         <v>44866</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="2" t="str">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I40" s="2" t="str">
+      <c r="K40" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J40" s="2" t="str">
+      <c r="L40" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K40" s="2" t="str">
+      <c r="M40" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L40" s="2">
+      <c r="N40" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M40" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;T40,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O40" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;V40,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N40" s="5" t="str">
+      <c r="P40" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O40" s="5" t="e">
+      <c r="Q40" s="5" t="e">
         <f>VLOOKUP(C40,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P40" s="6" t="e">
+      <c r="R40" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="S40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R40">
-        <v>2</v>
-      </c>
-      <c r="S40" s="5">
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40" s="5">
         <f t="shared" si="23"/>
         <v>40</v>
       </c>
-      <c r="T40" s="5" t="str">
+      <c r="V40" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U40" s="5">
+      <c r="W40" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V40" s="5">
+      <c r="X40" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W40" s="5">
+      <c r="Y40" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -5606,70 +5696,72 @@
         <v>44866</v>
       </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="2" t="str">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I41" s="2" t="str">
+      <c r="K41" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J41" s="2" t="str">
+      <c r="L41" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K41" s="2" t="str">
+      <c r="M41" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L41" s="2">
+      <c r="N41" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M41" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;T41,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O41" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;V41,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N41" s="5" t="str">
+      <c r="P41" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O41" s="5" t="e">
+      <c r="Q41" s="5" t="e">
         <f>VLOOKUP(C41,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P41" s="6" t="e">
+      <c r="R41" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="S41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41" s="5">
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41" s="5">
         <f t="shared" si="23"/>
         <v>41</v>
       </c>
-      <c r="T41" s="5" t="str">
+      <c r="V41" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U41" s="5">
+      <c r="W41" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V41" s="5">
+      <c r="X41" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W41" s="5">
+      <c r="Y41" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -5690,70 +5782,72 @@
         <v>44866</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="2" t="str">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I42" s="2" t="str">
+      <c r="K42" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J42" s="2" t="str">
+      <c r="L42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K42" s="2" t="str">
+      <c r="M42" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L42" s="2">
+      <c r="N42" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M42" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;T42,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O42" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;V42,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N42" s="5" t="str">
+      <c r="P42" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O42" s="5" t="e">
+      <c r="Q42" s="5" t="e">
         <f>VLOOKUP(C42,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P42" s="6" t="e">
+      <c r="R42" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="S42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="S42" s="5">
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42" s="5">
         <f t="shared" si="23"/>
         <v>42</v>
       </c>
-      <c r="T42" s="5" t="str">
+      <c r="V42" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U42" s="5">
+      <c r="W42" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V42" s="5">
+      <c r="X42" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W42" s="5">
+      <c r="Y42" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -5774,70 +5868,72 @@
         <v>44866</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="2" t="str">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I43" s="2" t="str">
+      <c r="K43" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J43" s="2" t="str">
+      <c r="L43" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K43" s="2" t="str">
+      <c r="M43" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L43" s="2">
+      <c r="N43" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M43" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;T43,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O43" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;V43,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N43" s="5" t="str">
+      <c r="P43" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O43" s="5" t="e">
+      <c r="Q43" s="5" t="e">
         <f>VLOOKUP(C43,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P43" s="6" t="e">
+      <c r="R43" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="S43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R43">
-        <v>2</v>
-      </c>
-      <c r="S43" s="5">
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43" s="5">
         <f t="shared" si="23"/>
         <v>43</v>
       </c>
-      <c r="T43" s="5" t="str">
+      <c r="V43" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U43" s="5">
+      <c r="W43" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V43" s="5">
+      <c r="X43" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W43" s="5">
+      <c r="Y43" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -5858,70 +5954,72 @@
         <v>44866</v>
       </c>
       <c r="G44" s="3"/>
-      <c r="H44" s="2" t="str">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I44" s="2" t="str">
+      <c r="K44" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J44" s="2" t="str">
+      <c r="L44" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K44" s="2" t="str">
+      <c r="M44" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L44" s="2">
+      <c r="N44" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M44" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;T44,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O44" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;V44,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N44" s="5" t="str">
+      <c r="P44" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O44" s="5" t="e">
+      <c r="Q44" s="5" t="e">
         <f>VLOOKUP(C44,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P44" s="6" t="e">
+      <c r="R44" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="S44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R44">
-        <v>2</v>
-      </c>
-      <c r="S44" s="5">
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44" s="5">
         <f t="shared" si="23"/>
         <v>44</v>
       </c>
-      <c r="T44" s="5" t="str">
+      <c r="V44" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U44" s="5">
+      <c r="W44" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V44" s="5">
+      <c r="X44" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W44" s="5">
+      <c r="Y44" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -5942,70 +6040,72 @@
         <v>44866</v>
       </c>
       <c r="G45" s="3"/>
-      <c r="H45" s="2" t="str">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I45" s="2" t="str">
+      <c r="K45" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J45" s="2" t="str">
+      <c r="L45" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K45" s="2" t="str">
+      <c r="M45" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L45" s="2">
+      <c r="N45" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M45" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;T45,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O45" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;V45,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N45" s="5" t="str">
+      <c r="P45" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O45" s="5" t="e">
+      <c r="Q45" s="5" t="e">
         <f>VLOOKUP(C45,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P45" s="6" t="e">
+      <c r="R45" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="S45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R45">
-        <v>2</v>
-      </c>
-      <c r="S45" s="5">
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45" s="5">
         <f t="shared" si="23"/>
         <v>45</v>
       </c>
-      <c r="T45" s="5" t="str">
+      <c r="V45" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U45" s="5">
+      <c r="W45" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V45" s="5">
+      <c r="X45" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W45" s="5">
+      <c r="Y45" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6026,70 +6126,72 @@
         <v>44866</v>
       </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="2" t="str">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I46" s="2" t="str">
+      <c r="K46" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J46" s="2" t="str">
+      <c r="L46" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K46" s="2" t="str">
+      <c r="M46" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L46" s="2">
+      <c r="N46" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M46" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;T46,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O46" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;V46,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N46" s="5" t="str">
+      <c r="P46" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O46" s="5" t="e">
+      <c r="Q46" s="5" t="e">
         <f>VLOOKUP(C46,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P46" s="6" t="e">
+      <c r="R46" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q46" s="4" t="s">
+      <c r="S46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R46">
-        <v>2</v>
-      </c>
-      <c r="S46" s="5">
+      <c r="T46">
+        <v>2</v>
+      </c>
+      <c r="U46" s="5">
         <f t="shared" si="23"/>
         <v>46</v>
       </c>
-      <c r="T46" s="5" t="str">
+      <c r="V46" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U46" s="5">
+      <c r="W46" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V46" s="5">
+      <c r="X46" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W46" s="5">
+      <c r="Y46" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6110,70 +6212,72 @@
         <v>44866</v>
       </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="2" t="str">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I47" s="2" t="str">
+      <c r="K47" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J47" s="2" t="str">
+      <c r="L47" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K47" s="2" t="str">
+      <c r="M47" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L47" s="2">
+      <c r="N47" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M47" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;T47,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O47" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;V47,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N47" s="5" t="str">
+      <c r="P47" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O47" s="5" t="e">
+      <c r="Q47" s="5" t="e">
         <f>VLOOKUP(C47,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P47" s="6" t="e">
+      <c r="R47" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="S47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R47">
-        <v>2</v>
-      </c>
-      <c r="S47" s="5">
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47" s="5">
         <f t="shared" si="23"/>
         <v>47</v>
       </c>
-      <c r="T47" s="5" t="str">
+      <c r="V47" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U47" s="5">
+      <c r="W47" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V47" s="5">
+      <c r="X47" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W47" s="5">
+      <c r="Y47" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6194,70 +6298,72 @@
         <v>44866</v>
       </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="2" t="str">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I48" s="2" t="str">
+      <c r="K48" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J48" s="2" t="str">
+      <c r="L48" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K48" s="2" t="str">
+      <c r="M48" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L48" s="2">
+      <c r="N48" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M48" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;T48,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O48" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;V48,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N48" s="5" t="str">
+      <c r="P48" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O48" s="5" t="e">
+      <c r="Q48" s="5" t="e">
         <f>VLOOKUP(C48,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P48" s="6" t="e">
+      <c r="R48" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="S48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R48">
-        <v>2</v>
-      </c>
-      <c r="S48" s="5">
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48" s="5">
         <f t="shared" si="23"/>
         <v>48</v>
       </c>
-      <c r="T48" s="5" t="str">
+      <c r="V48" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U48" s="5">
+      <c r="W48" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V48" s="5">
+      <c r="X48" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W48" s="5">
+      <c r="Y48" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6278,70 +6384,72 @@
         <v>44866</v>
       </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="2" t="str">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I49" s="2" t="str">
+      <c r="K49" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J49" s="2" t="str">
+      <c r="L49" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K49" s="2" t="str">
+      <c r="M49" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L49" s="2">
+      <c r="N49" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M49" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;T49,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O49" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;V49,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N49" s="5" t="str">
+      <c r="P49" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O49" s="5" t="e">
+      <c r="Q49" s="5" t="e">
         <f>VLOOKUP(C49,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P49" s="6" t="e">
+      <c r="R49" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q49" s="4" t="s">
+      <c r="S49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R49">
-        <v>2</v>
-      </c>
-      <c r="S49" s="5">
+      <c r="T49">
+        <v>2</v>
+      </c>
+      <c r="U49" s="5">
         <f t="shared" si="23"/>
         <v>49</v>
       </c>
-      <c r="T49" s="5" t="str">
+      <c r="V49" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U49" s="5">
+      <c r="W49" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V49" s="5">
+      <c r="X49" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W49" s="5">
+      <c r="Y49" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6362,70 +6470,72 @@
         <v>44866</v>
       </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="2" t="str">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I50" s="2" t="str">
+      <c r="K50" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J50" s="2" t="str">
+      <c r="L50" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K50" s="2" t="str">
+      <c r="M50" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L50" s="2">
+      <c r="N50" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M50" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;T50,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O50" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;V50,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N50" s="5" t="str">
+      <c r="P50" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O50" s="5" t="e">
+      <c r="Q50" s="5" t="e">
         <f>VLOOKUP(C50,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P50" s="6" t="e">
+      <c r="R50" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q50" s="4" t="s">
+      <c r="S50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R50">
-        <v>2</v>
-      </c>
-      <c r="S50" s="5">
+      <c r="T50">
+        <v>2</v>
+      </c>
+      <c r="U50" s="5">
         <f t="shared" si="23"/>
         <v>50</v>
       </c>
-      <c r="T50" s="5" t="str">
+      <c r="V50" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U50" s="5">
+      <c r="W50" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V50" s="5">
+      <c r="X50" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W50" s="5">
+      <c r="Y50" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6446,70 +6556,72 @@
         <v>44866</v>
       </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="2" t="str">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I51" s="2" t="str">
+      <c r="K51" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J51" s="2" t="str">
+      <c r="L51" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K51" s="2" t="str">
+      <c r="M51" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L51" s="2">
+      <c r="N51" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M51" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;T51,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O51" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;V51,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N51" s="5" t="str">
+      <c r="P51" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O51" s="5" t="e">
+      <c r="Q51" s="5" t="e">
         <f>VLOOKUP(C51,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P51" s="6" t="e">
+      <c r="R51" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="S51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R51">
-        <v>2</v>
-      </c>
-      <c r="S51" s="5">
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51" s="5">
         <f t="shared" si="23"/>
         <v>51</v>
       </c>
-      <c r="T51" s="5" t="str">
+      <c r="V51" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U51" s="5">
+      <c r="W51" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V51" s="5">
+      <c r="X51" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W51" s="5">
+      <c r="Y51" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6530,70 +6642,72 @@
         <v>44866</v>
       </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="2" t="str">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I52" s="2" t="str">
+      <c r="K52" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J52" s="2" t="str">
+      <c r="L52" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K52" s="2" t="str">
+      <c r="M52" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L52" s="2">
+      <c r="N52" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M52" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;T52,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O52" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;V52,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N52" s="5" t="str">
+      <c r="P52" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O52" s="5" t="e">
+      <c r="Q52" s="5" t="e">
         <f>VLOOKUP(C52,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P52" s="6" t="e">
+      <c r="R52" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="S52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R52">
-        <v>2</v>
-      </c>
-      <c r="S52" s="5">
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52" s="5">
         <f t="shared" si="23"/>
         <v>52</v>
       </c>
-      <c r="T52" s="5" t="str">
+      <c r="V52" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6614,70 +6728,72 @@
         <v>44866</v>
       </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="2" t="str">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I53" s="2" t="str">
+      <c r="K53" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J53" s="2" t="str">
+      <c r="L53" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K53" s="2" t="str">
+      <c r="M53" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L53" s="2">
+      <c r="N53" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M53" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;T53,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O53" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;V53,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N53" s="5" t="str">
+      <c r="P53" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O53" s="5" t="e">
+      <c r="Q53" s="5" t="e">
         <f>VLOOKUP(C53,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P53" s="6" t="e">
+      <c r="R53" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="S53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R53">
-        <v>2</v>
-      </c>
-      <c r="S53" s="5">
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53" s="5">
         <f t="shared" si="23"/>
         <v>53</v>
       </c>
-      <c r="T53" s="5" t="str">
+      <c r="V53" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U53" s="5">
+      <c r="W53" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V53" s="5">
+      <c r="X53" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W53" s="5">
+      <c r="Y53" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6698,70 +6814,72 @@
         <v>44866</v>
       </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="2" t="str">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I54" s="2" t="str">
+      <c r="K54" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J54" s="2" t="str">
+      <c r="L54" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K54" s="2" t="str">
+      <c r="M54" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L54" s="2">
+      <c r="N54" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M54" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;T54,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O54" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;V54,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N54" s="5" t="str">
+      <c r="P54" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O54" s="5" t="e">
+      <c r="Q54" s="5" t="e">
         <f>VLOOKUP(C54,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P54" s="6" t="e">
+      <c r="R54" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q54" s="4" t="s">
+      <c r="S54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R54">
-        <v>2</v>
-      </c>
-      <c r="S54" s="5">
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54" s="5">
         <f t="shared" si="23"/>
         <v>54</v>
       </c>
-      <c r="T54" s="5" t="str">
+      <c r="V54" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U54" s="5">
+      <c r="W54" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V54" s="5">
+      <c r="X54" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W54" s="5">
+      <c r="Y54" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6782,70 +6900,72 @@
         <v>44866</v>
       </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="2" t="str">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I55" s="2" t="str">
+      <c r="K55" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J55" s="2" t="str">
+      <c r="L55" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K55" s="2" t="str">
+      <c r="M55" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L55" s="2">
+      <c r="N55" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M55" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;T55,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O55" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;V55,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N55" s="5" t="str">
+      <c r="P55" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O55" s="5" t="e">
+      <c r="Q55" s="5" t="e">
         <f>VLOOKUP(C55,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P55" s="6" t="e">
+      <c r="R55" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="S55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R55">
-        <v>2</v>
-      </c>
-      <c r="S55" s="5">
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55" s="5">
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
-      <c r="T55" s="5" t="str">
+      <c r="V55" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U55" s="5">
+      <c r="W55" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V55" s="5">
+      <c r="X55" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W55" s="5">
+      <c r="Y55" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6866,70 +6986,72 @@
         <v>44866</v>
       </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="2" t="str">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I56" s="2" t="str">
+      <c r="K56" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J56" s="2" t="str">
+      <c r="L56" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K56" s="2" t="str">
+      <c r="M56" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L56" s="2">
+      <c r="N56" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M56" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;T56,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O56" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;V56,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N56" s="5" t="str">
+      <c r="P56" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O56" s="5" t="e">
+      <c r="Q56" s="5" t="e">
         <f>VLOOKUP(C56,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P56" s="6" t="e">
+      <c r="R56" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q56" s="4" t="s">
+      <c r="S56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R56">
-        <v>2</v>
-      </c>
-      <c r="S56" s="5">
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56" s="5">
         <f t="shared" si="23"/>
         <v>56</v>
       </c>
-      <c r="T56" s="5" t="str">
+      <c r="V56" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U56" s="5">
+      <c r="W56" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V56" s="5">
+      <c r="X56" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W56" s="5">
+      <c r="Y56" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6950,70 +7072,72 @@
         <v>44866</v>
       </c>
       <c r="G57" s="3"/>
-      <c r="H57" s="2" t="str">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I57" s="2" t="str">
+      <c r="K57" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J57" s="2" t="str">
+      <c r="L57" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K57" s="2" t="str">
+      <c r="M57" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L57" s="2">
+      <c r="N57" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M57" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;T57,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O57" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;V57,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N57" s="5" t="str">
+      <c r="P57" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O57" s="5" t="e">
+      <c r="Q57" s="5" t="e">
         <f>VLOOKUP(C57,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P57" s="6" t="e">
+      <c r="R57" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q57" s="4" t="s">
+      <c r="S57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R57">
-        <v>2</v>
-      </c>
-      <c r="S57" s="5">
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57" s="5">
         <f t="shared" si="23"/>
         <v>57</v>
       </c>
-      <c r="T57" s="5" t="str">
+      <c r="V57" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U57" s="5">
+      <c r="W57" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V57" s="5">
+      <c r="X57" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W57" s="5">
+      <c r="Y57" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7034,70 +7158,72 @@
         <v>44866</v>
       </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="2" t="str">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I58" s="2" t="str">
+      <c r="K58" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J58" s="2" t="str">
+      <c r="L58" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K58" s="2" t="str">
+      <c r="M58" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L58" s="2">
+      <c r="N58" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M58" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;T58,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O58" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;V58,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N58" s="5" t="str">
+      <c r="P58" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O58" s="5" t="e">
+      <c r="Q58" s="5" t="e">
         <f>VLOOKUP(C58,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P58" s="6" t="e">
+      <c r="R58" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q58" s="4" t="s">
+      <c r="S58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R58">
-        <v>2</v>
-      </c>
-      <c r="S58" s="5">
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58" s="5">
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-      <c r="T58" s="5" t="str">
+      <c r="V58" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U58" s="5">
+      <c r="W58" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V58" s="5">
+      <c r="X58" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W58" s="5">
+      <c r="Y58" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7118,70 +7244,72 @@
         <v>44866</v>
       </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="2" t="str">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I59" s="2" t="str">
+      <c r="K59" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J59" s="2" t="str">
+      <c r="L59" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K59" s="2" t="str">
+      <c r="M59" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L59" s="2">
+      <c r="N59" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M59" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;T59,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O59" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;V59,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N59" s="5" t="str">
+      <c r="P59" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O59" s="5" t="e">
+      <c r="Q59" s="5" t="e">
         <f>VLOOKUP(C59,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P59" s="6" t="e">
+      <c r="R59" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q59" s="4" t="s">
+      <c r="S59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R59">
-        <v>2</v>
-      </c>
-      <c r="S59" s="5">
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59" s="5">
         <f t="shared" si="23"/>
         <v>59</v>
       </c>
-      <c r="T59" s="5" t="str">
+      <c r="V59" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U59" s="5">
+      <c r="W59" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V59" s="5">
+      <c r="X59" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W59" s="5">
+      <c r="Y59" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7202,70 +7330,72 @@
         <v>44866</v>
       </c>
       <c r="G60" s="3"/>
-      <c r="H60" s="2" t="str">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I60" s="2" t="str">
+      <c r="K60" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J60" s="2" t="str">
+      <c r="L60" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K60" s="2" t="str">
+      <c r="M60" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L60" s="2">
+      <c r="N60" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M60" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;T60,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O60" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;V60,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N60" s="5" t="str">
+      <c r="P60" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O60" s="5" t="e">
+      <c r="Q60" s="5" t="e">
         <f>VLOOKUP(C60,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P60" s="6" t="e">
+      <c r="R60" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q60" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
-      <c r="S60" s="5">
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60" s="5">
         <f t="shared" si="23"/>
         <v>60</v>
       </c>
-      <c r="T60" s="5" t="str">
+      <c r="V60" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U60" s="5">
+      <c r="W60" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V60" s="5">
+      <c r="X60" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W60" s="5">
+      <c r="Y60" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7286,70 +7416,72 @@
         <v>44866</v>
       </c>
       <c r="G61" s="3"/>
-      <c r="H61" s="2" t="str">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I61" s="2" t="str">
+      <c r="K61" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J61" s="2" t="str">
+      <c r="L61" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K61" s="2" t="str">
+      <c r="M61" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L61" s="2">
+      <c r="N61" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M61" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;T61,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O61" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;V61,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N61" s="5" t="str">
+      <c r="P61" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O61" s="5" t="e">
+      <c r="Q61" s="5" t="e">
         <f>VLOOKUP(C61,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P61" s="6" t="e">
+      <c r="R61" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q61" s="4" t="s">
+      <c r="S61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
-      <c r="S61" s="5">
+      <c r="T61">
+        <v>2</v>
+      </c>
+      <c r="U61" s="5">
         <f t="shared" si="23"/>
         <v>61</v>
       </c>
-      <c r="T61" s="5" t="str">
+      <c r="V61" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U61" s="5">
+      <c r="W61" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V61" s="5">
+      <c r="X61" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W61" s="5">
+      <c r="Y61" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7370,70 +7502,72 @@
         <v>44866</v>
       </c>
       <c r="G62" s="3"/>
-      <c r="H62" s="2" t="str">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I62" s="2" t="str">
+      <c r="K62" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J62" s="2" t="str">
+      <c r="L62" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K62" s="2" t="str">
+      <c r="M62" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L62" s="2">
+      <c r="N62" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M62" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;T62,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O62" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;V62,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N62" s="5" t="str">
+      <c r="P62" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O62" s="5" t="e">
+      <c r="Q62" s="5" t="e">
         <f>VLOOKUP(C62,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P62" s="6" t="e">
+      <c r="R62" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q62" s="4" t="s">
+      <c r="S62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R62">
-        <v>2</v>
-      </c>
-      <c r="S62" s="5">
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62" s="5">
         <f t="shared" si="23"/>
         <v>62</v>
       </c>
-      <c r="T62" s="5" t="str">
+      <c r="V62" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U62" s="5">
+      <c r="W62" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V62" s="5">
+      <c r="X62" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W62" s="5">
+      <c r="Y62" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7454,70 +7588,72 @@
         <v>44866</v>
       </c>
       <c r="G63" s="3"/>
-      <c r="H63" s="2" t="str">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I63" s="2" t="str">
+      <c r="K63" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J63" s="2" t="str">
+      <c r="L63" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K63" s="2" t="str">
+      <c r="M63" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L63" s="2">
+      <c r="N63" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M63" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;T63,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O63" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;V63,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N63" s="5" t="str">
+      <c r="P63" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O63" s="5" t="e">
+      <c r="Q63" s="5" t="e">
         <f>VLOOKUP(C63,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P63" s="6" t="e">
+      <c r="R63" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q63" s="4" t="s">
+      <c r="S63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R63">
-        <v>2</v>
-      </c>
-      <c r="S63" s="5">
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63" s="5">
         <f t="shared" si="23"/>
         <v>63</v>
       </c>
-      <c r="T63" s="5" t="str">
+      <c r="V63" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U63" s="5">
+      <c r="W63" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V63" s="5">
+      <c r="X63" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W63" s="5">
+      <c r="Y63" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7538,70 +7674,72 @@
         <v>44866</v>
       </c>
       <c r="G64" s="3"/>
-      <c r="H64" s="2" t="str">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I64" s="2" t="str">
+      <c r="K64" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J64" s="2" t="str">
+      <c r="L64" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K64" s="2" t="str">
+      <c r="M64" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L64" s="2">
+      <c r="N64" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M64" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;T64,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O64" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;V64,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N64" s="5" t="str">
+      <c r="P64" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O64" s="5" t="e">
+      <c r="Q64" s="5" t="e">
         <f>VLOOKUP(C64,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P64" s="6" t="e">
+      <c r="R64" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q64" s="4" t="s">
+      <c r="S64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R64">
-        <v>2</v>
-      </c>
-      <c r="S64" s="5">
+      <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="U64" s="5">
         <f t="shared" si="23"/>
         <v>64</v>
       </c>
-      <c r="T64" s="5" t="str">
+      <c r="V64" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U64" s="5">
+      <c r="W64" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V64" s="5">
+      <c r="X64" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W64" s="5">
+      <c r="Y64" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7622,70 +7760,72 @@
         <v>44866</v>
       </c>
       <c r="G65" s="3"/>
-      <c r="H65" s="2" t="str">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I65" s="2" t="str">
+      <c r="K65" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J65" s="2" t="str">
+      <c r="L65" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K65" s="2" t="str">
+      <c r="M65" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L65" s="2">
+      <c r="N65" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M65" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;T65,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O65" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;V65,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N65" s="5" t="str">
+      <c r="P65" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O65" s="5" t="e">
+      <c r="Q65" s="5" t="e">
         <f>VLOOKUP(C65,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P65" s="6" t="e">
+      <c r="R65" s="6" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="Q65" s="4" t="s">
+      <c r="S65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R65">
-        <v>2</v>
-      </c>
-      <c r="S65" s="5">
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65" s="5">
         <f t="shared" si="23"/>
         <v>65</v>
       </c>
-      <c r="T65" s="5" t="str">
+      <c r="V65" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U65" s="5">
+      <c r="W65" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V65" s="5">
+      <c r="X65" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W65" s="5">
+      <c r="Y65" s="5">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7706,70 +7846,72 @@
         <v>44866</v>
       </c>
       <c r="G66" s="3"/>
-      <c r="H66" s="2" t="str">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I66" s="2" t="str">
+      <c r="K66" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J66" s="2" t="str">
+      <c r="L66" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K66" s="2" t="str">
+      <c r="M66" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L66" s="2">
+      <c r="N66" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M66" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;T66,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O66" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;V66,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N66" s="5" t="str">
+      <c r="P66" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O66" s="5" t="e">
+      <c r="Q66" s="5" t="e">
         <f>VLOOKUP(C66,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P66" s="6" t="e">
-        <f t="shared" ref="P66:P69" si="26">IF(EXACT(O66,E66),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q66" s="4" t="s">
+      <c r="R66" s="6" t="e">
+        <f t="shared" ref="R66:R69" si="26">IF(EXACT(Q66,E66),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R66">
-        <v>2</v>
-      </c>
-      <c r="S66" s="5">
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66" s="5">
         <f t="shared" si="23"/>
         <v>66</v>
       </c>
-      <c r="T66" s="5" t="str">
+      <c r="V66" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U66" s="5">
+      <c r="W66" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V66" s="5">
+      <c r="X66" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W66" s="5">
-        <f t="shared" ref="W66:W69" si="27">SUM(U66:V66)</f>
+      <c r="Y66" s="5">
+        <f t="shared" ref="Y66:Y69" si="27">SUM(W66:X66)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7790,70 +7932,72 @@
         <v>44866</v>
       </c>
       <c r="G67" s="3"/>
-      <c r="H67" s="2" t="str">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I67" s="2" t="str">
+      <c r="K67" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J67" s="2" t="str">
+      <c r="L67" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K67" s="2" t="str">
+      <c r="M67" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L67" s="2">
+      <c r="N67" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M67" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;T67,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O67" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;V67,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N67" s="5" t="str">
+      <c r="P67" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O67" s="5" t="e">
+      <c r="Q67" s="5" t="e">
         <f>VLOOKUP(C67,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P67" s="6" t="e">
+      <c r="R67" s="6" t="e">
         <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
-      <c r="Q67" s="4" t="s">
+      <c r="S67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R67">
-        <v>2</v>
-      </c>
-      <c r="S67" s="5">
+      <c r="T67">
+        <v>2</v>
+      </c>
+      <c r="U67" s="5">
         <f t="shared" si="23"/>
         <v>67</v>
       </c>
-      <c r="T67" s="5" t="str">
+      <c r="V67" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U67" s="5">
+      <c r="W67" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V67" s="5">
+      <c r="X67" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W67" s="5">
+      <c r="Y67" s="5">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7874,70 +8018,72 @@
         <v>44866</v>
       </c>
       <c r="G68" s="3"/>
-      <c r="H68" s="2" t="str">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I68" s="2" t="str">
+      <c r="K68" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J68" s="2" t="str">
+      <c r="L68" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K68" s="2" t="str">
+      <c r="M68" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L68" s="2">
+      <c r="N68" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M68" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;T68,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O68" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;V68,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N68" s="5" t="str">
+      <c r="P68" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O68" s="5" t="e">
+      <c r="Q68" s="5" t="e">
         <f>VLOOKUP(C68,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P68" s="6" t="e">
+      <c r="R68" s="6" t="e">
         <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
-      <c r="Q68" s="4" t="s">
+      <c r="S68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R68">
-        <v>2</v>
-      </c>
-      <c r="S68" s="5">
+      <c r="T68">
+        <v>2</v>
+      </c>
+      <c r="U68" s="5">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
-      <c r="T68" s="5" t="str">
+      <c r="V68" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U68" s="5">
-        <f t="shared" ref="U68:U69" si="28">IF(C68=C67,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V68" s="5">
-        <f t="shared" ref="V68:V69" si="29">IF(C68=C69,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="W68" s="5">
+        <f t="shared" ref="W68:W69" si="28">IF(C68=C67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X68" s="5">
+        <f t="shared" ref="X68:X69" si="29">IF(C68=C69,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y68" s="5">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7958,72 +8104,74 @@
         <v>44866</v>
       </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="2" t="str">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="2" t="str">
         <f t="shared" si="16"/>
         <v>01/11/2022</v>
       </c>
-      <c r="I69" s="2" t="str">
+      <c r="K69" s="2" t="str">
         <f t="shared" si="17"/>
         <v>30/11/2022</v>
       </c>
-      <c r="J69" s="2" t="str">
+      <c r="L69" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="K69" s="2" t="str">
+      <c r="M69" s="2" t="str">
         <f t="shared" si="19"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="L69" s="2">
+      <c r="N69" s="2">
         <f t="shared" si="20"/>
         <v>44895</v>
       </c>
-      <c r="M69" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;T69,[1]Control!$D:$E,2,0),"")</f>
+      <c r="O69" s="6" t="str">
+        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;V69,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N69" s="5" t="str">
+      <c r="P69" s="5" t="str">
         <f t="shared" si="21"/>
         <v>00:00:03</v>
       </c>
-      <c r="O69" s="5" t="e">
+      <c r="Q69" s="5" t="e">
         <f>VLOOKUP(C69,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P69" s="6" t="e">
+      <c r="R69" s="6" t="e">
         <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
-      <c r="Q69" s="4" t="s">
+      <c r="S69" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R69">
-        <v>2</v>
-      </c>
-      <c r="S69" s="5">
+      <c r="T69">
+        <v>2</v>
+      </c>
+      <c r="U69" s="5">
         <f t="shared" si="23"/>
         <v>69</v>
       </c>
-      <c r="T69" s="5" t="str">
+      <c r="V69" s="5" t="str">
         <f t="shared" si="24"/>
         <v>202211</v>
       </c>
-      <c r="U69" s="5">
+      <c r="W69" s="5">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="V69" s="5">
+      <c r="X69" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="W69" s="5">
+      <c r="Y69" s="5">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T69">
+  <autoFilter ref="A1:Y69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>

--- a/Listado Mis Comprobantes 2.0.xlsx
+++ b/Listado Mis Comprobantes 2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin Bustos\Desktop\Descarga_MC_AFIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga_MC_AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D4F5F-2020-4BDB-AF66-24BDF67AFE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8090BF95-1CC3-41B5-92D7-C921734F0A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$Y$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$U$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="23">
   <si>
     <t>Nro</t>
   </si>
@@ -67,34 +67,19 @@
     <t>Desde (No Formula)</t>
   </si>
   <si>
-    <t>Hasta (No Formula)</t>
-  </si>
-  <si>
     <t>Importar</t>
   </si>
   <si>
     <t>Importado</t>
   </si>
   <si>
-    <t>Delay</t>
-  </si>
-  <si>
     <t>CLAVE AFIP</t>
-  </si>
-  <si>
-    <t>00:00:01</t>
   </si>
   <si>
     <t>CUIT AFIP</t>
   </si>
   <si>
     <t>CUIT en pagina</t>
-  </si>
-  <si>
-    <t>seg a agregar</t>
-  </si>
-  <si>
-    <t>Delay inicial</t>
   </si>
   <si>
     <t>Control de contraseña</t>
@@ -192,12 +177,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -2218,11 +2202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,16 +2217,14 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2250,10 +2232,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2262,13 +2244,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -2283,44 +2265,32 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="str">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
       </c>
@@ -2335,7 +2305,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3">
         <v>44866</v>
@@ -2343,71 +2313,57 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:J33" si="1">TEXT(F2,"DD/MM/AAAA")</f>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K33" si="2">TEXT(N2,"DD/MM/AAAA")</f>
-        <v>30/11/2022</v>
+      <c r="J2" s="2">
+        <f>F2</f>
+        <v>44866</v>
+      </c>
+      <c r="K2" s="2">
+        <f>EOMONTH(F2,0)</f>
+        <v>44895</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f t="shared" ref="L2:L33" si="3">CONCATENATE(TEXT(A2,"0")," - ","MCE - ",TEXT(J2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <f t="shared" ref="L2:L33" si="1">CONCATENATE(TEXT(A2,"0")," - ","MCE - ",TEXT(J2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - MCE - 202211 - 20000000000 - Cliente</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f t="shared" ref="M2:M33" si="4">CONCATENATE(TEXT(A2,"0")," - ","MCR - ",TEXT(J2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <f t="shared" ref="M2:M33" si="2">CONCATENATE(TEXT(A2,"0")," - ","MCR - ",TEXT(J2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - MCR - 202211 - 20000000000 - Cliente</v>
       </c>
-      <c r="N2" s="2">
-        <f t="shared" ref="N2:N33" si="5">EOMONTH(F2,0)</f>
-        <v>44895</v>
-      </c>
-      <c r="O2" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;V2,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;R2,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P2" s="5" t="str">
-        <f t="shared" ref="P2:P33" si="6">TEXT(S2+T2/96400,"hh:mm:ss")</f>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q2" s="5" t="e">
+      <c r="O2" s="4" t="e">
         <f>VLOOKUP(C2,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R2" s="6" t="e">
-        <f t="shared" ref="R2:R33" si="7">IF(EXACT(Q2,E2),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2">
+      <c r="P2" s="5" t="e">
+        <f>IF(EXACT(O2,E2),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="U2" s="5">
-        <f t="shared" ref="U2:U33" si="8">ROW(A2)</f>
-        <v>2</v>
-      </c>
-      <c r="V2" s="5" t="str">
-        <f t="shared" ref="V2:V33" si="9">TEXT(J2,"AAAAMM")</f>
+      <c r="R2" s="4" t="str">
+        <f>TEXT(J2,"AAAAMM")</f>
         <v>202211</v>
       </c>
-      <c r="W2" s="5">
-        <f t="shared" ref="W2" si="10">IF(C2=C1,1,0)</f>
+      <c r="S2" s="4">
+        <f>IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="X2" s="5">
-        <f t="shared" ref="X2" si="11">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2:Y33" si="12">SUM(W2:X2)</f>
+      <c r="T2" s="4">
+        <f>IF(C2=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" ref="U2:U33" si="3">SUM(S2:T2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="str">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2422,7 +2378,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3">
         <v>44866</v>
@@ -2430,71 +2386,57 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J66" si="4">F3</f>
+        <v>44866</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K66" si="5">EOMONTH(F3,0)</f>
+        <v>44895</v>
+      </c>
+      <c r="L3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K3" s="2" t="str">
+        <v>0 - MCE - 202211 - 20000000000 - Cliente</v>
+      </c>
+      <c r="M3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L3" s="2" t="str">
+        <v>0 - MCR - 202211 - 20000000000 - Cliente</v>
+      </c>
+      <c r="N3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;R3,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O3" s="4" t="e">
+        <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P3" s="5" t="e">
+        <f>IF(EXACT(O3,E3),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>ROW(A3)</f>
+        <v>3</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f>TEXT(J3,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S3" s="4">
+        <f>IF(C3=C2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
+        <f>IF(C3=C4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="4">
         <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 20000000000 - Cliente</v>
-      </c>
-      <c r="M3" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 20000000000 - Cliente</v>
-      </c>
-      <c r="N3" s="2">
-        <f t="shared" si="5"/>
-        <v>44895</v>
-      </c>
-      <c r="O3" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;V3,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="P3" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q3" s="5" t="e">
-        <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R3" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3">
         <v>2</v>
       </c>
-      <c r="U3" s="5">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="V3" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W3" s="5">
-        <f>IF(C3=C2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X3" s="5">
-        <f>IF(C3=C4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2505,10 +2447,10 @@
         <v>20000000000</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3">
         <v>44866</v>
@@ -2516,71 +2458,57 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K4" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L4" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M4" s="2" t="str">
+      <c r="J4" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N4" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O4" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;V4,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;R4,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P4" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q4" s="5" t="e">
+      <c r="O4" s="4" t="e">
         <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R4" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4">
+      <c r="P4" s="5" t="e">
+        <f>IF(EXACT(O4,E4),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>ROW(A4)</f>
+        <v>4</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f>TEXT(J4,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S4" s="4">
+        <f>IF(C4=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
+        <f>IF(C4=C5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U4" s="5">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="V4" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W4" s="5">
-        <f t="shared" ref="W4:W67" si="13">IF(C4=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X4" s="5">
-        <f t="shared" ref="X4:X67" si="14">IF(C4=C5,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="str">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2591,10 +2519,10 @@
         <v>20000000000</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
         <v>44866</v>
@@ -2602,71 +2530,57 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L5" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M5" s="2" t="str">
+      <c r="J5" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N5" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O5" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;V5,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;R5,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q5" s="5" t="e">
+      <c r="O5" s="4" t="e">
         <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R5" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5">
+      <c r="P5" s="5" t="e">
+        <f>IF(EXACT(O5,E5),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>ROW(A5)</f>
+        <v>5</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f>TEXT(J5,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S5" s="4">
+        <f>IF(C5=C4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <f>IF(C5=C6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U5" s="5">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="V5" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W5" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X5" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="str">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2677,10 +2591,10 @@
         <v>20000000000</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3">
         <v>44866</v>
@@ -2688,71 +2602,57 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L6" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M6" s="2" t="str">
+      <c r="J6" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N6" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O6" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;V6,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;R6,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P6" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q6" s="5" t="e">
+      <c r="O6" s="4" t="e">
         <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R6" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6">
+      <c r="P6" s="5" t="e">
+        <f>IF(EXACT(O6,E6),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>ROW(A6)</f>
+        <v>6</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f>TEXT(J6,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S6" s="4">
+        <f>IF(C6=C5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <f>IF(C6=C7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U6" s="5">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="V6" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W6" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X6" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="str">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2763,10 +2663,10 @@
         <v>20000000000</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3">
         <v>44866</v>
@@ -2774,71 +2674,57 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L7" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M7" s="2" t="str">
+      <c r="J7" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N7" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O7" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;V7,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;R7,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P7" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q7" s="5" t="e">
+      <c r="O7" s="4" t="e">
         <f>VLOOKUP(C7,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R7" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T7">
+      <c r="P7" s="5" t="e">
+        <f>IF(EXACT(O7,E7),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>ROW(A7)</f>
+        <v>7</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f>TEXT(J7,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S7" s="4">
+        <f>IF(C7=C6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <f>IF(C7=C8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U7" s="5">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="V7" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W7" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="str">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2849,10 +2735,10 @@
         <v>20000000000</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3">
         <v>44866</v>
@@ -2860,71 +2746,57 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L8" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M8" s="2" t="str">
+      <c r="J8" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N8" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O8" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;V8,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;R8,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P8" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q8" s="5" t="e">
+      <c r="O8" s="4" t="e">
         <f>VLOOKUP(C8,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R8" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8">
+      <c r="P8" s="5" t="e">
+        <f>IF(EXACT(O8,E8),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>ROW(A8)</f>
+        <v>8</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f>TEXT(J8,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S8" s="4">
+        <f>IF(C8=C7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <f>IF(C8=C9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U8" s="5">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="V8" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W8" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X8" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="str">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2935,10 +2807,10 @@
         <v>20000000000</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3">
         <v>44866</v>
@@ -2946,71 +2818,57 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L9" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M9" s="2" t="str">
+      <c r="J9" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N9" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O9" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;V9,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;R9,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P9" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q9" s="5" t="e">
+      <c r="O9" s="4" t="e">
         <f>VLOOKUP(C9,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R9" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T9">
+      <c r="P9" s="5" t="e">
+        <f>IF(EXACT(O9,E9),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>ROW(A9)</f>
+        <v>9</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f>TEXT(J9,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S9" s="4">
+        <f>IF(C9=C8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <f>IF(C9=C10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U9" s="5">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="V9" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W9" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X9" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="str">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3021,10 +2879,10 @@
         <v>20000000000</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3">
         <v>44866</v>
@@ -3032,71 +2890,57 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L10" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M10" s="2" t="str">
+      <c r="J10" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N10" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O10" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;V10,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;R10,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P10" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q10" s="5" t="e">
+      <c r="O10" s="4" t="e">
         <f>VLOOKUP(C10,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R10" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T10">
+      <c r="P10" s="5" t="e">
+        <f>IF(EXACT(O10,E10),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>ROW(A10)</f>
+        <v>10</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f>TEXT(J10,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S10" s="4">
+        <f>IF(C10=C9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
+        <f>IF(C10=C11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U10" s="5">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="V10" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W10" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X10" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="str">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3107,10 +2951,10 @@
         <v>20000000000</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3">
         <v>44866</v>
@@ -3118,71 +2962,57 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L11" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M11" s="2" t="str">
+      <c r="J11" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N11" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O11" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;V11,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;R11,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P11" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q11" s="5" t="e">
+      <c r="O11" s="4" t="e">
         <f>VLOOKUP(C11,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R11" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T11">
+      <c r="P11" s="5" t="e">
+        <f>IF(EXACT(O11,E11),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>ROW(A11)</f>
+        <v>11</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <f>TEXT(J11,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S11" s="4">
+        <f>IF(C11=C10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
+        <f>IF(C11=C12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U11" s="5">
-        <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="V11" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W11" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="str">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3193,10 +3023,10 @@
         <v>20000000000</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3">
         <v>44866</v>
@@ -3204,71 +3034,57 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L12" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M12" s="2" t="str">
+      <c r="J12" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N12" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O12" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;V12,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;R12,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P12" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q12" s="5" t="e">
+      <c r="O12" s="4" t="e">
         <f>VLOOKUP(C12,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R12" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T12">
+      <c r="P12" s="5" t="e">
+        <f>IF(EXACT(O12,E12),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>ROW(A12)</f>
+        <v>12</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <f>TEXT(J12,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S12" s="4">
+        <f>IF(C12=C11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <f>IF(C12=C13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U12" s="5">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="V12" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W12" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3279,10 +3095,10 @@
         <v>20000000000</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3">
         <v>44866</v>
@@ -3290,71 +3106,57 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L13" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M13" s="2" t="str">
+      <c r="J13" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N13" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O13" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;V13,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;R13,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P13" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q13" s="5" t="e">
+      <c r="O13" s="4" t="e">
         <f>VLOOKUP(C13,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R13" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S13" s="4" t="s">
+      <c r="P13" s="5" t="e">
+        <f>IF(EXACT(O13,E13),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>ROW(A13)</f>
         <v>13</v>
       </c>
-      <c r="T13">
+      <c r="R13" s="4" t="str">
+        <f>TEXT(J13,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S13" s="4">
+        <f>IF(C13=C12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <f>IF(C13=C14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U13" s="5">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="V13" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W13" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="str">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3365,10 +3167,10 @@
         <v>20000000000</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3">
         <v>44866</v>
@@ -3376,71 +3178,57 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L14" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M14" s="2" t="str">
+      <c r="J14" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N14" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O14" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;V14,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;R14,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P14" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q14" s="5" t="e">
+      <c r="O14" s="4" t="e">
         <f>VLOOKUP(C14,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R14" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T14">
+      <c r="P14" s="5" t="e">
+        <f>IF(EXACT(O14,E14),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>ROW(A14)</f>
+        <v>14</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <f>TEXT(J14,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S14" s="4">
+        <f>IF(C14=C13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <f>IF(C14=C15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U14" s="5">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="V14" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W14" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X14" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="str">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3451,10 +3239,10 @@
         <v>20000000000</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3">
         <v>44866</v>
@@ -3462,71 +3250,57 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L15" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M15" s="2" t="str">
+      <c r="J15" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N15" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O15" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;V15,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;R15,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P15" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q15" s="5" t="e">
+      <c r="O15" s="4" t="e">
         <f>VLOOKUP(C15,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R15" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T15">
+      <c r="P15" s="5" t="e">
+        <f>IF(EXACT(O15,E15),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>ROW(A15)</f>
+        <v>15</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <f>TEXT(J15,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S15" s="4">
+        <f>IF(C15=C14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
+        <f>IF(C15=C16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U15" s="5">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="V15" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W15" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X15" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="str">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3537,10 +3311,10 @@
         <v>20000000000</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3">
         <v>44866</v>
@@ -3548,71 +3322,57 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L16" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M16" s="2" t="str">
+      <c r="J16" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N16" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O16" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;V16,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;R16,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P16" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q16" s="5" t="e">
+      <c r="O16" s="4" t="e">
         <f>VLOOKUP(C16,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T16">
+      <c r="P16" s="5" t="e">
+        <f>IF(EXACT(O16,E16),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>ROW(A16)</f>
+        <v>16</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f>TEXT(J16,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S16" s="4">
+        <f>IF(C16=C15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <f>IF(C16=C17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U16" s="5">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="V16" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W16" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X16" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="str">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3623,10 +3383,10 @@
         <v>20000000000</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3">
         <v>44866</v>
@@ -3634,71 +3394,57 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L17" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M17" s="2" t="str">
+      <c r="J17" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N17" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O17" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;V17,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;R17,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P17" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q17" s="5" t="e">
+      <c r="O17" s="4" t="e">
         <f>VLOOKUP(C17,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R17" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T17">
+      <c r="P17" s="5" t="e">
+        <f>IF(EXACT(O17,E17),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>ROW(A17)</f>
+        <v>17</v>
+      </c>
+      <c r="R17" s="4" t="str">
+        <f>TEXT(J17,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S17" s="4">
+        <f>IF(C17=C16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
+        <f>IF(C17=C18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U17" s="5">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="V17" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W17" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X17" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="str">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3709,10 +3455,10 @@
         <v>20000000000</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F18" s="3">
         <v>44866</v>
@@ -3720,71 +3466,57 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L18" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M18" s="2" t="str">
+      <c r="J18" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N18" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O18" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;V18,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;R18,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P18" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q18" s="5" t="e">
+      <c r="O18" s="4" t="e">
         <f>VLOOKUP(C18,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R18" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T18">
+      <c r="P18" s="5" t="e">
+        <f>IF(EXACT(O18,E18),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>ROW(A18)</f>
+        <v>18</v>
+      </c>
+      <c r="R18" s="4" t="str">
+        <f>TEXT(J18,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S18" s="4">
+        <f>IF(C18=C17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <f>IF(C18=C19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U18" s="5">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="V18" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W18" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X18" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="str">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3795,10 +3527,10 @@
         <v>20000000000</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3">
         <v>44866</v>
@@ -3806,71 +3538,57 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L19" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M19" s="2" t="str">
+      <c r="J19" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N19" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O19" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;V19,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;R19,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P19" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q19" s="5" t="e">
+      <c r="O19" s="4" t="e">
         <f>VLOOKUP(C19,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R19" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T19">
+      <c r="P19" s="5" t="e">
+        <f>IF(EXACT(O19,E19),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>ROW(A19)</f>
+        <v>19</v>
+      </c>
+      <c r="R19" s="4" t="str">
+        <f>TEXT(J19,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S19" s="4">
+        <f>IF(C19=C18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <f>IF(C19=C20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U19" s="5">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="V19" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W19" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X19" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="str">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3881,10 +3599,10 @@
         <v>20000000000</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F20" s="3">
         <v>44866</v>
@@ -3892,71 +3610,57 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L20" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M20" s="2" t="str">
+      <c r="J20" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N20" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O20" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;V20,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;R20,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P20" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q20" s="5" t="e">
+      <c r="O20" s="4" t="e">
         <f>VLOOKUP(C20,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R20" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T20">
+      <c r="P20" s="5" t="e">
+        <f>IF(EXACT(O20,E20),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>ROW(A20)</f>
+        <v>20</v>
+      </c>
+      <c r="R20" s="4" t="str">
+        <f>TEXT(J20,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S20" s="4">
+        <f>IF(C20=C19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
+        <f>IF(C20=C21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U20" s="5">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="V20" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W20" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X20" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="str">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3967,10 +3671,10 @@
         <v>20000000000</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3">
         <v>44866</v>
@@ -3978,71 +3682,57 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L21" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M21" s="2" t="str">
+      <c r="J21" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N21" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O21" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;V21,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;R21,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P21" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q21" s="5" t="e">
+      <c r="O21" s="4" t="e">
         <f>VLOOKUP(C21,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R21" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T21">
+      <c r="P21" s="5" t="e">
+        <f>IF(EXACT(O21,E21),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>ROW(A21)</f>
+        <v>21</v>
+      </c>
+      <c r="R21" s="4" t="str">
+        <f>TEXT(J21,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S21" s="4">
+        <f>IF(C21=C20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
+        <f>IF(C21=C22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U21" s="5">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="V21" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W21" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X21" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="str">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4053,10 +3743,10 @@
         <v>20000000000</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F22" s="3">
         <v>44866</v>
@@ -4064,71 +3754,57 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L22" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M22" s="2" t="str">
+      <c r="J22" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N22" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O22" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;V22,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;R22,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P22" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q22" s="5" t="e">
+      <c r="O22" s="4" t="e">
         <f>VLOOKUP(C22,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R22" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T22">
+      <c r="P22" s="5" t="e">
+        <f>IF(EXACT(O22,E22),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>ROW(A22)</f>
+        <v>22</v>
+      </c>
+      <c r="R22" s="4" t="str">
+        <f>TEXT(J22,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S22" s="4">
+        <f>IF(C22=C21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
+        <f>IF(C22=C23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U22" s="5">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="V22" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W22" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X22" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="str">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4139,10 +3815,10 @@
         <v>20000000000</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F23" s="3">
         <v>44866</v>
@@ -4150,71 +3826,57 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L23" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M23" s="2" t="str">
+      <c r="J23" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N23" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O23" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;V23,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;R23,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P23" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q23" s="5" t="e">
+      <c r="O23" s="4" t="e">
         <f>VLOOKUP(C23,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R23" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T23">
+      <c r="P23" s="5" t="e">
+        <f>IF(EXACT(O23,E23),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>ROW(A23)</f>
+        <v>23</v>
+      </c>
+      <c r="R23" s="4" t="str">
+        <f>TEXT(J23,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S23" s="4">
+        <f>IF(C23=C22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
+        <f>IF(C23=C24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U23" s="5">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="V23" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W23" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X23" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="str">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4225,10 +3887,10 @@
         <v>20000000000</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3">
         <v>44866</v>
@@ -4236,71 +3898,57 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L24" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M24" s="2" t="str">
+      <c r="J24" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N24" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K24" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O24" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;V24,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;R24,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P24" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q24" s="5" t="e">
+      <c r="O24" s="4" t="e">
         <f>VLOOKUP(C24,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R24" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T24">
+      <c r="P24" s="5" t="e">
+        <f>IF(EXACT(O24,E24),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>ROW(A24)</f>
+        <v>24</v>
+      </c>
+      <c r="R24" s="4" t="str">
+        <f>TEXT(J24,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S24" s="4">
+        <f>IF(C24=C23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T24" s="4">
+        <f>IF(C24=C25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U24" s="5">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="V24" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W24" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X24" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="str">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4311,10 +3959,10 @@
         <v>20000000000</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F25" s="3">
         <v>44866</v>
@@ -4322,71 +3970,57 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L25" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M25" s="2" t="str">
+      <c r="J25" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N25" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K25" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O25" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;V25,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;R25,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P25" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q25" s="5" t="e">
+      <c r="O25" s="4" t="e">
         <f>VLOOKUP(C25,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R25" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T25">
+      <c r="P25" s="5" t="e">
+        <f>IF(EXACT(O25,E25),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>ROW(A25)</f>
+        <v>25</v>
+      </c>
+      <c r="R25" s="4" t="str">
+        <f>TEXT(J25,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S25" s="4">
+        <f>IF(C25=C24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
+        <f>IF(C25=C26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U25" s="5">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="V25" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W25" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X25" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="str">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4397,10 +4031,10 @@
         <v>20000000000</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F26" s="3">
         <v>44866</v>
@@ -4408,71 +4042,57 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L26" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M26" s="2" t="str">
+      <c r="J26" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N26" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K26" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O26" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;V26,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;R26,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P26" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q26" s="5" t="e">
+      <c r="O26" s="4" t="e">
         <f>VLOOKUP(C26,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R26" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T26">
+      <c r="P26" s="5" t="e">
+        <f>IF(EXACT(O26,E26),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>ROW(A26)</f>
+        <v>26</v>
+      </c>
+      <c r="R26" s="4" t="str">
+        <f>TEXT(J26,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S26" s="4">
+        <f>IF(C26=C25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="4">
+        <f>IF(C26=C27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U26" s="5">
-        <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="V26" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W26" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X26" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="str">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4483,10 +4103,10 @@
         <v>20000000000</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F27" s="3">
         <v>44866</v>
@@ -4494,71 +4114,57 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L27" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M27" s="2" t="str">
+      <c r="J27" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N27" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K27" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O27" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;V27,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;R27,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P27" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q27" s="5" t="e">
+      <c r="O27" s="4" t="e">
         <f>VLOOKUP(C27,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R27" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T27">
+      <c r="P27" s="5" t="e">
+        <f>IF(EXACT(O27,E27),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>ROW(A27)</f>
+        <v>27</v>
+      </c>
+      <c r="R27" s="4" t="str">
+        <f>TEXT(J27,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S27" s="4">
+        <f>IF(C27=C26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
+        <f>IF(C27=C28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U27" s="5">
-        <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="V27" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W27" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X27" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="str">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4569,10 +4175,10 @@
         <v>20000000000</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F28" s="3">
         <v>44866</v>
@@ -4580,71 +4186,57 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L28" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M28" s="2" t="str">
+      <c r="J28" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N28" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K28" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O28" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;V28,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;R28,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P28" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q28" s="5" t="e">
+      <c r="O28" s="4" t="e">
         <f>VLOOKUP(C28,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R28" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T28">
+      <c r="P28" s="5" t="e">
+        <f>IF(EXACT(O28,E28),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>ROW(A28)</f>
+        <v>28</v>
+      </c>
+      <c r="R28" s="4" t="str">
+        <f>TEXT(J28,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S28" s="4">
+        <f>IF(C28=C27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
+        <f>IF(C28=C29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U28" s="5">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="V28" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W28" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X28" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="str">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4655,10 +4247,10 @@
         <v>20000000000</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F29" s="3">
         <v>44866</v>
@@ -4666,71 +4258,57 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L29" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M29" s="2" t="str">
+      <c r="J29" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N29" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K29" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O29" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;V29,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;R29,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P29" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q29" s="5" t="e">
+      <c r="O29" s="4" t="e">
         <f>VLOOKUP(C29,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R29" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T29">
+      <c r="P29" s="5" t="e">
+        <f>IF(EXACT(O29,E29),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>ROW(A29)</f>
+        <v>29</v>
+      </c>
+      <c r="R29" s="4" t="str">
+        <f>TEXT(J29,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S29" s="4">
+        <f>IF(C29=C28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
+        <f>IF(C29=C30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U29" s="5">
-        <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="V29" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W29" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X29" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="str">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4741,10 +4319,10 @@
         <v>20000000000</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="3">
         <v>44866</v>
@@ -4752,71 +4330,57 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L30" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M30" s="2" t="str">
+      <c r="J30" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N30" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O30" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;V30,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;R30,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P30" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q30" s="5" t="e">
+      <c r="O30" s="4" t="e">
         <f>VLOOKUP(C30,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R30" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T30">
+      <c r="P30" s="5" t="e">
+        <f>IF(EXACT(O30,E30),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>ROW(A30)</f>
+        <v>30</v>
+      </c>
+      <c r="R30" s="4" t="str">
+        <f>TEXT(J30,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S30" s="4">
+        <f>IF(C30=C29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
+        <f>IF(C30=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U30" s="5">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="V30" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W30" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X30" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="str">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4827,10 +4391,10 @@
         <v>20000000000</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3">
         <v>44866</v>
@@ -4838,71 +4402,57 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L31" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M31" s="2" t="str">
+      <c r="J31" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N31" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K31" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O31" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;V31,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;R31,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P31" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q31" s="5" t="e">
+      <c r="O31" s="4" t="e">
         <f>VLOOKUP(C31,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R31" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T31">
+      <c r="P31" s="5" t="e">
+        <f>IF(EXACT(O31,E31),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>ROW(A31)</f>
+        <v>31</v>
+      </c>
+      <c r="R31" s="4" t="str">
+        <f>TEXT(J31,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S31" s="4">
+        <f>IF(C31=C30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
+        <f>IF(C31=C32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U31" s="5">
-        <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="V31" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W31" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X31" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="str">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4913,10 +4463,10 @@
         <v>20000000000</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F32" s="3">
         <v>44866</v>
@@ -4924,71 +4474,57 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L32" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M32" s="2" t="str">
+      <c r="J32" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N32" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K32" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O32" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;V32,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;R32,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P32" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q32" s="5" t="e">
+      <c r="O32" s="4" t="e">
         <f>VLOOKUP(C32,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R32" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T32">
+      <c r="P32" s="5" t="e">
+        <f>IF(EXACT(O32,E32),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>ROW(A32)</f>
+        <v>32</v>
+      </c>
+      <c r="R32" s="4" t="str">
+        <f>TEXT(J32,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S32" s="4">
+        <f>IF(C32=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
+        <f>IF(C32=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U32" s="5">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="V32" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W32" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X32" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="str">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4999,10 +4535,10 @@
         <v>20000000000</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F33" s="3">
         <v>44866</v>
@@ -5010,72 +4546,58 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30/11/2022</v>
-      </c>
-      <c r="L33" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M33" s="2" t="str">
+      <c r="J33" s="2">
         <f t="shared" si="4"/>
-        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="N33" s="2">
+        <v>44866</v>
+      </c>
+      <c r="K33" s="2">
         <f t="shared" si="5"/>
         <v>44895</v>
       </c>
-      <c r="O33" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;V33,[1]Control!$D:$E,2,0),"")</f>
+      <c r="L33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;R33,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P33" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q33" s="5" t="e">
+      <c r="O33" s="4" t="e">
         <f>VLOOKUP(C33,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R33" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T33">
+      <c r="P33" s="5" t="e">
+        <f>IF(EXACT(O33,E33),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>ROW(A33)</f>
+        <v>33</v>
+      </c>
+      <c r="R33" s="4" t="str">
+        <f>TEXT(J33,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S33" s="4">
+        <f>IF(C33=C32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
+        <f>IF(C33=C34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U33" s="5">
-        <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-      <c r="V33" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>202211</v>
-      </c>
-      <c r="W33" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X33" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="str">
-        <f t="shared" ref="A34:A69" si="15">RIGHT(D34,1)</f>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f t="shared" ref="A34:A69" si="6">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="s">
@@ -5085,10 +4607,10 @@
         <v>20000000000</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F34" s="3">
         <v>44866</v>
@@ -5096,72 +4618,58 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="2" t="str">
-        <f t="shared" ref="J34:J69" si="16">TEXT(F34,"DD/MM/AAAA")</f>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K34" s="2" t="str">
-        <f t="shared" ref="K34:K69" si="17">TEXT(N34,"DD/MM/AAAA")</f>
-        <v>30/11/2022</v>
+      <c r="J34" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L34" s="2" t="str">
-        <f t="shared" ref="L34:L69" si="18">CONCATENATE(TEXT(A34,"0")," - ","MCE - ",TEXT(J34,"AAAAMM")," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
+        <f t="shared" ref="L34:L69" si="7">CONCATENATE(TEXT(A34,"0")," - ","MCE - ",TEXT(J34,"AAAAMM")," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M34" s="2" t="str">
-        <f t="shared" ref="M34:M69" si="19">CONCATENATE(TEXT(A34,"0")," - ","MCR - ",TEXT(J34,"AAAAMM")," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
+        <f t="shared" ref="M34:M69" si="8">CONCATENATE(TEXT(A34,"0")," - ","MCR - ",TEXT(J34,"AAAAMM")," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N34" s="2">
-        <f t="shared" ref="N34:N69" si="20">EOMONTH(F34,0)</f>
-        <v>44895</v>
-      </c>
-      <c r="O34" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;V34,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;R34,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P34" s="5" t="str">
-        <f t="shared" ref="P34:P69" si="21">TEXT(S34+T34/96400,"hh:mm:ss")</f>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q34" s="5" t="e">
+      <c r="O34" s="4" t="e">
         <f>VLOOKUP(C34,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R34" s="6" t="e">
-        <f t="shared" ref="R34:R65" si="22">IF(EXACT(Q34,E34),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T34">
+      <c r="P34" s="5" t="e">
+        <f>IF(EXACT(O34,E34),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>ROW(A34)</f>
+        <v>34</v>
+      </c>
+      <c r="R34" s="4" t="str">
+        <f>TEXT(J34,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S34" s="4">
+        <f>IF(C34=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T34" s="4">
+        <f>IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" ref="U34:U65" si="9">SUM(S34:T34)</f>
         <v>2</v>
       </c>
-      <c r="U34" s="5">
-        <f t="shared" ref="U34:U69" si="23">ROW(A34)</f>
-        <v>34</v>
-      </c>
-      <c r="V34" s="5" t="str">
-        <f t="shared" ref="V34:V69" si="24">TEXT(J34,"AAAAMM")</f>
-        <v>202211</v>
-      </c>
-      <c r="W34" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X34" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" ref="Y34:Y65" si="25">SUM(W34:X34)</f>
-        <v>2</v>
-      </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B35" t="s">
@@ -5171,10 +4679,10 @@
         <v>20000000000</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F35" s="3">
         <v>44866</v>
@@ -5182,72 +4690,58 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K35" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J35" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L35" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M35" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N35" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O35" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;V35,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;R35,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P35" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q35" s="5" t="e">
+      <c r="O35" s="4" t="e">
         <f>VLOOKUP(C35,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R35" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T35">
+      <c r="P35" s="5" t="e">
+        <f>IF(EXACT(O35,E35),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>ROW(A35)</f>
+        <v>35</v>
+      </c>
+      <c r="R35" s="4" t="str">
+        <f>TEXT(J35,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S35" s="4">
+        <f>IF(C35=C34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T35" s="4">
+        <f>IF(C35=C36,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U35" s="5">
-        <f t="shared" si="23"/>
-        <v>35</v>
-      </c>
-      <c r="V35" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W35" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X35" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B36" t="s">
@@ -5257,10 +4751,10 @@
         <v>20000000000</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F36" s="3">
         <v>44866</v>
@@ -5268,72 +4762,58 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K36" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J36" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L36" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M36" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N36" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O36" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;V36,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;R36,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P36" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q36" s="5" t="e">
+      <c r="O36" s="4" t="e">
         <f>VLOOKUP(C36,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R36" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T36">
+      <c r="P36" s="5" t="e">
+        <f>IF(EXACT(O36,E36),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>ROW(A36)</f>
+        <v>36</v>
+      </c>
+      <c r="R36" s="4" t="str">
+        <f>TEXT(J36,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S36" s="4">
+        <f>IF(C36=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T36" s="4">
+        <f>IF(C36=C37,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U36" s="5">
-        <f t="shared" si="23"/>
-        <v>36</v>
-      </c>
-      <c r="V36" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W36" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X36" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -5343,10 +4823,10 @@
         <v>20000000000</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F37" s="3">
         <v>44866</v>
@@ -5354,72 +4834,58 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K37" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J37" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L37" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M37" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N37" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O37" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;V37,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;R37,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P37" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q37" s="5" t="e">
+      <c r="O37" s="4" t="e">
         <f>VLOOKUP(C37,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R37" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T37">
+      <c r="P37" s="5" t="e">
+        <f>IF(EXACT(O37,E37),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>ROW(A37)</f>
+        <v>37</v>
+      </c>
+      <c r="R37" s="4" t="str">
+        <f>TEXT(J37,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S37" s="4">
+        <f>IF(C37=C36,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T37" s="4">
+        <f>IF(C37=C38,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U37" s="5">
-        <f t="shared" si="23"/>
-        <v>37</v>
-      </c>
-      <c r="V37" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W37" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X37" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B38" t="s">
@@ -5429,10 +4895,10 @@
         <v>20000000000</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F38" s="3">
         <v>44866</v>
@@ -5440,72 +4906,58 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K38" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J38" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L38" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M38" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N38" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O38" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;V38,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;R38,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P38" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q38" s="5" t="e">
+      <c r="O38" s="4" t="e">
         <f>VLOOKUP(C38,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R38" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T38">
+      <c r="P38" s="5" t="e">
+        <f>IF(EXACT(O38,E38),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>ROW(A38)</f>
+        <v>38</v>
+      </c>
+      <c r="R38" s="4" t="str">
+        <f>TEXT(J38,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S38" s="4">
+        <f>IF(C38=C37,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T38" s="4">
+        <f>IF(C38=C39,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U38" s="5">
-        <f t="shared" si="23"/>
-        <v>38</v>
-      </c>
-      <c r="V38" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W38" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X38" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y38" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B39" t="s">
@@ -5515,10 +4967,10 @@
         <v>20000000000</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F39" s="3">
         <v>44866</v>
@@ -5526,72 +4978,58 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K39" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J39" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L39" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M39" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N39" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O39" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;V39,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;R39,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P39" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q39" s="5" t="e">
+      <c r="O39" s="4" t="e">
         <f>VLOOKUP(C39,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R39" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T39">
+      <c r="P39" s="5" t="e">
+        <f>IF(EXACT(O39,E39),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>ROW(A39)</f>
+        <v>39</v>
+      </c>
+      <c r="R39" s="4" t="str">
+        <f>TEXT(J39,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S39" s="4">
+        <f>IF(C39=C38,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T39" s="4">
+        <f>IF(C39=C40,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U39" s="5">
-        <f t="shared" si="23"/>
-        <v>39</v>
-      </c>
-      <c r="V39" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W39" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X39" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y39" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -5601,10 +5039,10 @@
         <v>20000000000</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F40" s="3">
         <v>44866</v>
@@ -5612,72 +5050,58 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K40" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J40" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L40" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M40" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N40" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O40" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;V40,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;R40,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P40" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q40" s="5" t="e">
+      <c r="O40" s="4" t="e">
         <f>VLOOKUP(C40,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R40" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T40">
+      <c r="P40" s="5" t="e">
+        <f>IF(EXACT(O40,E40),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q40" s="4">
+        <f>ROW(A40)</f>
+        <v>40</v>
+      </c>
+      <c r="R40" s="4" t="str">
+        <f>TEXT(J40,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S40" s="4">
+        <f>IF(C40=C39,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T40" s="4">
+        <f>IF(C40=C41,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U40" s="5">
-        <f t="shared" si="23"/>
-        <v>40</v>
-      </c>
-      <c r="V40" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W40" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X40" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y40" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B41" t="s">
@@ -5687,10 +5111,10 @@
         <v>20000000000</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F41" s="3">
         <v>44866</v>
@@ -5698,72 +5122,58 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K41" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J41" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L41" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M41" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N41" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O41" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;V41,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;R41,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P41" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q41" s="5" t="e">
+      <c r="O41" s="4" t="e">
         <f>VLOOKUP(C41,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R41" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T41">
+      <c r="P41" s="5" t="e">
+        <f>IF(EXACT(O41,E41),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q41" s="4">
+        <f>ROW(A41)</f>
+        <v>41</v>
+      </c>
+      <c r="R41" s="4" t="str">
+        <f>TEXT(J41,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S41" s="4">
+        <f>IF(C41=C40,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
+        <f>IF(C41=C42,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U41" s="5">
-        <f t="shared" si="23"/>
-        <v>41</v>
-      </c>
-      <c r="V41" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W41" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X41" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y41" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -5773,10 +5183,10 @@
         <v>20000000000</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F42" s="3">
         <v>44866</v>
@@ -5784,72 +5194,58 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K42" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J42" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M42" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N42" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O42" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;V42,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;R42,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P42" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q42" s="5" t="e">
+      <c r="O42" s="4" t="e">
         <f>VLOOKUP(C42,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R42" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T42">
+      <c r="P42" s="5" t="e">
+        <f>IF(EXACT(O42,E42),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q42" s="4">
+        <f>ROW(A42)</f>
+        <v>42</v>
+      </c>
+      <c r="R42" s="4" t="str">
+        <f>TEXT(J42,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S42" s="4">
+        <f>IF(C42=C41,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T42" s="4">
+        <f>IF(C42=C43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U42" s="5">
-        <f t="shared" si="23"/>
-        <v>42</v>
-      </c>
-      <c r="V42" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W42" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X42" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y42" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -5859,10 +5255,10 @@
         <v>20000000000</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F43" s="3">
         <v>44866</v>
@@ -5870,72 +5266,58 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K43" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J43" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L43" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M43" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N43" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O43" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;V43,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;R43,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P43" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q43" s="5" t="e">
+      <c r="O43" s="4" t="e">
         <f>VLOOKUP(C43,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R43" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T43">
+      <c r="P43" s="5" t="e">
+        <f>IF(EXACT(O43,E43),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>ROW(A43)</f>
+        <v>43</v>
+      </c>
+      <c r="R43" s="4" t="str">
+        <f>TEXT(J43,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S43" s="4">
+        <f>IF(C43=C42,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T43" s="4">
+        <f>IF(C43=C44,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U43" s="5">
-        <f t="shared" si="23"/>
-        <v>43</v>
-      </c>
-      <c r="V43" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W43" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X43" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y43" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B44" t="s">
@@ -5945,10 +5327,10 @@
         <v>20000000000</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F44" s="3">
         <v>44866</v>
@@ -5956,72 +5338,58 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K44" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J44" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L44" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M44" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N44" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O44" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;V44,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;R44,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P44" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q44" s="5" t="e">
+      <c r="O44" s="4" t="e">
         <f>VLOOKUP(C44,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R44" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T44">
+      <c r="P44" s="5" t="e">
+        <f>IF(EXACT(O44,E44),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q44" s="4">
+        <f>ROW(A44)</f>
+        <v>44</v>
+      </c>
+      <c r="R44" s="4" t="str">
+        <f>TEXT(J44,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S44" s="4">
+        <f>IF(C44=C43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T44" s="4">
+        <f>IF(C44=C45,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U44" s="5">
-        <f t="shared" si="23"/>
-        <v>44</v>
-      </c>
-      <c r="V44" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W44" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X44" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y44" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B45" t="s">
@@ -6031,10 +5399,10 @@
         <v>20000000000</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F45" s="3">
         <v>44866</v>
@@ -6042,72 +5410,58 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K45" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J45" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L45" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M45" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N45" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O45" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;V45,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;R45,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P45" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q45" s="5" t="e">
+      <c r="O45" s="4" t="e">
         <f>VLOOKUP(C45,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R45" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T45">
+      <c r="P45" s="5" t="e">
+        <f>IF(EXACT(O45,E45),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q45" s="4">
+        <f>ROW(A45)</f>
+        <v>45</v>
+      </c>
+      <c r="R45" s="4" t="str">
+        <f>TEXT(J45,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S45" s="4">
+        <f>IF(C45=C44,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T45" s="4">
+        <f>IF(C45=C46,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U45" s="5">
-        <f t="shared" si="23"/>
-        <v>45</v>
-      </c>
-      <c r="V45" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W45" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X45" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y45" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B46" t="s">
@@ -6117,10 +5471,10 @@
         <v>20000000000</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F46" s="3">
         <v>44866</v>
@@ -6128,72 +5482,58 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K46" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J46" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L46" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M46" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N46" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O46" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;V46,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;R46,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P46" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q46" s="5" t="e">
+      <c r="O46" s="4" t="e">
         <f>VLOOKUP(C46,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R46" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T46">
+      <c r="P46" s="5" t="e">
+        <f>IF(EXACT(O46,E46),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q46" s="4">
+        <f>ROW(A46)</f>
+        <v>46</v>
+      </c>
+      <c r="R46" s="4" t="str">
+        <f>TEXT(J46,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S46" s="4">
+        <f>IF(C46=C45,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T46" s="4">
+        <f>IF(C46=C47,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U46" s="5">
-        <f t="shared" si="23"/>
-        <v>46</v>
-      </c>
-      <c r="V46" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W46" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X46" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y46" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B47" t="s">
@@ -6203,10 +5543,10 @@
         <v>20000000000</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F47" s="3">
         <v>44866</v>
@@ -6214,72 +5554,58 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K47" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J47" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L47" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M47" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N47" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O47" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;V47,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;R47,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P47" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q47" s="5" t="e">
+      <c r="O47" s="4" t="e">
         <f>VLOOKUP(C47,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R47" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T47">
+      <c r="P47" s="5" t="e">
+        <f>IF(EXACT(O47,E47),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q47" s="4">
+        <f>ROW(A47)</f>
+        <v>47</v>
+      </c>
+      <c r="R47" s="4" t="str">
+        <f>TEXT(J47,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S47" s="4">
+        <f>IF(C47=C46,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T47" s="4">
+        <f>IF(C47=C48,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U47" s="5">
-        <f t="shared" si="23"/>
-        <v>47</v>
-      </c>
-      <c r="V47" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W47" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X47" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y47" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -6289,10 +5615,10 @@
         <v>20000000000</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F48" s="3">
         <v>44866</v>
@@ -6300,72 +5626,58 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K48" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J48" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L48" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M48" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N48" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O48" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;V48,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;R48,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P48" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q48" s="5" t="e">
+      <c r="O48" s="4" t="e">
         <f>VLOOKUP(C48,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R48" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T48">
+      <c r="P48" s="5" t="e">
+        <f>IF(EXACT(O48,E48),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q48" s="4">
+        <f>ROW(A48)</f>
+        <v>48</v>
+      </c>
+      <c r="R48" s="4" t="str">
+        <f>TEXT(J48,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S48" s="4">
+        <f>IF(C48=C47,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T48" s="4">
+        <f>IF(C48=C49,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U48" s="5">
-        <f t="shared" si="23"/>
-        <v>48</v>
-      </c>
-      <c r="V48" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W48" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X48" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y48" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -6375,10 +5687,10 @@
         <v>20000000000</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F49" s="3">
         <v>44866</v>
@@ -6386,72 +5698,58 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K49" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J49" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L49" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M49" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N49" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O49" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;V49,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;R49,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P49" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q49" s="5" t="e">
+      <c r="O49" s="4" t="e">
         <f>VLOOKUP(C49,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R49" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T49">
+      <c r="P49" s="5" t="e">
+        <f>IF(EXACT(O49,E49),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q49" s="4">
+        <f>ROW(A49)</f>
+        <v>49</v>
+      </c>
+      <c r="R49" s="4" t="str">
+        <f>TEXT(J49,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S49" s="4">
+        <f>IF(C49=C48,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T49" s="4">
+        <f>IF(C49=C50,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U49" s="5">
-        <f t="shared" si="23"/>
-        <v>49</v>
-      </c>
-      <c r="V49" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W49" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X49" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y49" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -6461,10 +5759,10 @@
         <v>20000000000</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F50" s="3">
         <v>44866</v>
@@ -6472,72 +5770,58 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K50" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J50" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L50" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M50" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N50" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O50" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;V50,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;R50,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P50" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q50" s="5" t="e">
+      <c r="O50" s="4" t="e">
         <f>VLOOKUP(C50,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R50" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T50">
+      <c r="P50" s="5" t="e">
+        <f>IF(EXACT(O50,E50),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q50" s="4">
+        <f>ROW(A50)</f>
+        <v>50</v>
+      </c>
+      <c r="R50" s="4" t="str">
+        <f>TEXT(J50,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S50" s="4">
+        <f>IF(C50=C49,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T50" s="4">
+        <f>IF(C50=C51,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U50" s="5">
-        <f t="shared" si="23"/>
-        <v>50</v>
-      </c>
-      <c r="V50" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W50" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X50" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y50" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -6547,10 +5831,10 @@
         <v>20000000000</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F51" s="3">
         <v>44866</v>
@@ -6558,72 +5842,58 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K51" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J51" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L51" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M51" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N51" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O51" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;V51,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;R51,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P51" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q51" s="5" t="e">
+      <c r="O51" s="4" t="e">
         <f>VLOOKUP(C51,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R51" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T51">
+      <c r="P51" s="5" t="e">
+        <f>IF(EXACT(O51,E51),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q51" s="4">
+        <f>ROW(A51)</f>
+        <v>51</v>
+      </c>
+      <c r="R51" s="4" t="str">
+        <f>TEXT(J51,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S51" s="4">
+        <f>IF(C51=C50,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T51" s="4">
+        <f>IF(C51=C52,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U51" s="5">
-        <f t="shared" si="23"/>
-        <v>51</v>
-      </c>
-      <c r="V51" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W51" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X51" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y51" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B52" t="s">
@@ -6633,10 +5903,10 @@
         <v>20000000000</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F52" s="3">
         <v>44866</v>
@@ -6644,72 +5914,58 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K52" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J52" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L52" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M52" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N52" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O52" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;V52,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;R52,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P52" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q52" s="5" t="e">
+      <c r="O52" s="4" t="e">
         <f>VLOOKUP(C52,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R52" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T52">
+      <c r="P52" s="5" t="e">
+        <f>IF(EXACT(O52,E52),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q52" s="4">
+        <f>ROW(A52)</f>
+        <v>52</v>
+      </c>
+      <c r="R52" s="4" t="str">
+        <f>TEXT(J52,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S52" s="4">
+        <f>IF(C52=C51,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T52" s="4">
+        <f>IF(C52=C53,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U52" s="5">
-        <f t="shared" si="23"/>
-        <v>52</v>
-      </c>
-      <c r="V52" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W52" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X52" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y52" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -6719,10 +5975,10 @@
         <v>20000000000</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F53" s="3">
         <v>44866</v>
@@ -6730,72 +5986,58 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K53" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J53" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L53" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M53" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N53" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O53" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;V53,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;R53,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P53" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q53" s="5" t="e">
+      <c r="O53" s="4" t="e">
         <f>VLOOKUP(C53,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R53" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T53">
+      <c r="P53" s="5" t="e">
+        <f>IF(EXACT(O53,E53),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q53" s="4">
+        <f>ROW(A53)</f>
+        <v>53</v>
+      </c>
+      <c r="R53" s="4" t="str">
+        <f>TEXT(J53,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S53" s="4">
+        <f>IF(C53=C52,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T53" s="4">
+        <f>IF(C53=C54,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U53" s="5">
-        <f t="shared" si="23"/>
-        <v>53</v>
-      </c>
-      <c r="V53" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W53" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X53" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y53" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B54" t="s">
@@ -6805,10 +6047,10 @@
         <v>20000000000</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F54" s="3">
         <v>44866</v>
@@ -6816,72 +6058,58 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K54" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J54" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L54" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M54" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N54" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O54" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;V54,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;R54,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P54" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q54" s="5" t="e">
+      <c r="O54" s="4" t="e">
         <f>VLOOKUP(C54,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R54" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T54">
+      <c r="P54" s="5" t="e">
+        <f>IF(EXACT(O54,E54),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q54" s="4">
+        <f>ROW(A54)</f>
+        <v>54</v>
+      </c>
+      <c r="R54" s="4" t="str">
+        <f>TEXT(J54,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S54" s="4">
+        <f>IF(C54=C53,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T54" s="4">
+        <f>IF(C54=C55,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U54" s="5">
-        <f t="shared" si="23"/>
-        <v>54</v>
-      </c>
-      <c r="V54" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W54" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X54" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y54" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B55" t="s">
@@ -6891,10 +6119,10 @@
         <v>20000000000</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F55" s="3">
         <v>44866</v>
@@ -6902,72 +6130,58 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K55" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J55" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L55" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M55" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N55" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O55" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;V55,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;R55,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P55" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q55" s="5" t="e">
+      <c r="O55" s="4" t="e">
         <f>VLOOKUP(C55,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R55" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T55">
+      <c r="P55" s="5" t="e">
+        <f>IF(EXACT(O55,E55),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q55" s="4">
+        <f>ROW(A55)</f>
+        <v>55</v>
+      </c>
+      <c r="R55" s="4" t="str">
+        <f>TEXT(J55,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S55" s="4">
+        <f>IF(C55=C54,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T55" s="4">
+        <f>IF(C55=C56,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U55" s="5">
-        <f t="shared" si="23"/>
-        <v>55</v>
-      </c>
-      <c r="V55" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W55" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X55" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y55" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B56" t="s">
@@ -6977,10 +6191,10 @@
         <v>20000000000</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F56" s="3">
         <v>44866</v>
@@ -6988,72 +6202,58 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K56" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J56" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L56" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M56" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N56" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O56" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;V56,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;R56,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P56" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q56" s="5" t="e">
+      <c r="O56" s="4" t="e">
         <f>VLOOKUP(C56,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R56" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T56">
+      <c r="P56" s="5" t="e">
+        <f>IF(EXACT(O56,E56),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q56" s="4">
+        <f>ROW(A56)</f>
+        <v>56</v>
+      </c>
+      <c r="R56" s="4" t="str">
+        <f>TEXT(J56,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S56" s="4">
+        <f>IF(C56=C55,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T56" s="4">
+        <f>IF(C56=C57,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U56" s="5">
-        <f t="shared" si="23"/>
-        <v>56</v>
-      </c>
-      <c r="V56" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W56" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X56" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y56" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B57" t="s">
@@ -7063,10 +6263,10 @@
         <v>20000000000</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F57" s="3">
         <v>44866</v>
@@ -7074,72 +6274,58 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K57" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J57" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L57" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M57" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N57" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O57" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;V57,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;R57,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P57" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q57" s="5" t="e">
+      <c r="O57" s="4" t="e">
         <f>VLOOKUP(C57,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R57" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T57">
+      <c r="P57" s="5" t="e">
+        <f>IF(EXACT(O57,E57),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q57" s="4">
+        <f>ROW(A57)</f>
+        <v>57</v>
+      </c>
+      <c r="R57" s="4" t="str">
+        <f>TEXT(J57,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S57" s="4">
+        <f>IF(C57=C56,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T57" s="4">
+        <f>IF(C57=C58,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U57" s="5">
-        <f t="shared" si="23"/>
-        <v>57</v>
-      </c>
-      <c r="V57" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W57" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X57" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y57" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B58" t="s">
@@ -7149,10 +6335,10 @@
         <v>20000000000</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F58" s="3">
         <v>44866</v>
@@ -7160,72 +6346,58 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K58" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J58" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L58" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M58" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N58" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O58" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;V58,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;R58,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P58" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q58" s="5" t="e">
+      <c r="O58" s="4" t="e">
         <f>VLOOKUP(C58,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R58" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T58">
+      <c r="P58" s="5" t="e">
+        <f>IF(EXACT(O58,E58),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q58" s="4">
+        <f>ROW(A58)</f>
+        <v>58</v>
+      </c>
+      <c r="R58" s="4" t="str">
+        <f>TEXT(J58,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S58" s="4">
+        <f>IF(C58=C57,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T58" s="4">
+        <f>IF(C58=C59,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U58" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U58" s="5">
-        <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="V58" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W58" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X58" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y58" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -7235,10 +6407,10 @@
         <v>20000000000</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F59" s="3">
         <v>44866</v>
@@ -7246,72 +6418,58 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K59" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J59" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L59" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M59" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N59" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O59" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;V59,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;R59,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P59" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q59" s="5" t="e">
+      <c r="O59" s="4" t="e">
         <f>VLOOKUP(C59,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R59" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T59">
+      <c r="P59" s="5" t="e">
+        <f>IF(EXACT(O59,E59),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q59" s="4">
+        <f>ROW(A59)</f>
+        <v>59</v>
+      </c>
+      <c r="R59" s="4" t="str">
+        <f>TEXT(J59,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S59" s="4">
+        <f>IF(C59=C58,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T59" s="4">
+        <f>IF(C59=C60,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U59" s="5">
-        <f t="shared" si="23"/>
-        <v>59</v>
-      </c>
-      <c r="V59" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W59" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X59" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y59" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -7321,10 +6479,10 @@
         <v>20000000000</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F60" s="3">
         <v>44866</v>
@@ -7332,72 +6490,58 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K60" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J60" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L60" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M60" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N60" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O60" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;V60,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;R60,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P60" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q60" s="5" t="e">
+      <c r="O60" s="4" t="e">
         <f>VLOOKUP(C60,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R60" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T60">
+      <c r="P60" s="5" t="e">
+        <f>IF(EXACT(O60,E60),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q60" s="4">
+        <f>ROW(A60)</f>
+        <v>60</v>
+      </c>
+      <c r="R60" s="4" t="str">
+        <f>TEXT(J60,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S60" s="4">
+        <f>IF(C60=C59,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T60" s="4">
+        <f>IF(C60=C61,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U60" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U60" s="5">
-        <f t="shared" si="23"/>
-        <v>60</v>
-      </c>
-      <c r="V60" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W60" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X60" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y60" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -7407,10 +6551,10 @@
         <v>20000000000</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F61" s="3">
         <v>44866</v>
@@ -7418,72 +6562,58 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K61" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J61" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L61" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M61" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N61" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O61" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;V61,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;R61,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P61" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q61" s="5" t="e">
+      <c r="O61" s="4" t="e">
         <f>VLOOKUP(C61,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R61" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T61">
+      <c r="P61" s="5" t="e">
+        <f>IF(EXACT(O61,E61),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q61" s="4">
+        <f>ROW(A61)</f>
+        <v>61</v>
+      </c>
+      <c r="R61" s="4" t="str">
+        <f>TEXT(J61,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S61" s="4">
+        <f>IF(C61=C60,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T61" s="4">
+        <f>IF(C61=C62,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U61" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U61" s="5">
-        <f t="shared" si="23"/>
-        <v>61</v>
-      </c>
-      <c r="V61" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W61" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X61" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y61" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -7493,10 +6623,10 @@
         <v>20000000000</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F62" s="3">
         <v>44866</v>
@@ -7504,72 +6634,58 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K62" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J62" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L62" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M62" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N62" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O62" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;V62,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;R62,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P62" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q62" s="5" t="e">
+      <c r="O62" s="4" t="e">
         <f>VLOOKUP(C62,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R62" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T62">
+      <c r="P62" s="5" t="e">
+        <f>IF(EXACT(O62,E62),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q62" s="4">
+        <f>ROW(A62)</f>
+        <v>62</v>
+      </c>
+      <c r="R62" s="4" t="str">
+        <f>TEXT(J62,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S62" s="4">
+        <f>IF(C62=C61,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T62" s="4">
+        <f>IF(C62=C63,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U62" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U62" s="5">
-        <f t="shared" si="23"/>
-        <v>62</v>
-      </c>
-      <c r="V62" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W62" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X62" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y62" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -7579,10 +6695,10 @@
         <v>20000000000</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F63" s="3">
         <v>44866</v>
@@ -7590,72 +6706,58 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K63" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J63" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L63" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M63" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N63" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O63" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;V63,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;R63,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P63" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q63" s="5" t="e">
+      <c r="O63" s="4" t="e">
         <f>VLOOKUP(C63,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R63" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T63">
+      <c r="P63" s="5" t="e">
+        <f>IF(EXACT(O63,E63),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q63" s="4">
+        <f>ROW(A63)</f>
+        <v>63</v>
+      </c>
+      <c r="R63" s="4" t="str">
+        <f>TEXT(J63,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S63" s="4">
+        <f>IF(C63=C62,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T63" s="4">
+        <f>IF(C63=C64,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U63" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U63" s="5">
-        <f t="shared" si="23"/>
-        <v>63</v>
-      </c>
-      <c r="V63" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W63" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X63" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y63" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -7665,10 +6767,10 @@
         <v>20000000000</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F64" s="3">
         <v>44866</v>
@@ -7676,72 +6778,58 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K64" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J64" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L64" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M64" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N64" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O64" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;V64,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;R64,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P64" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q64" s="5" t="e">
+      <c r="O64" s="4" t="e">
         <f>VLOOKUP(C64,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R64" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S64" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T64">
+      <c r="P64" s="5" t="e">
+        <f>IF(EXACT(O64,E64),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q64" s="4">
+        <f>ROW(A64)</f>
+        <v>64</v>
+      </c>
+      <c r="R64" s="4" t="str">
+        <f>TEXT(J64,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S64" s="4">
+        <f>IF(C64=C63,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T64" s="4">
+        <f>IF(C64=C65,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U64" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U64" s="5">
-        <f t="shared" si="23"/>
-        <v>64</v>
-      </c>
-      <c r="V64" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W64" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X64" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y64" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B65" t="s">
@@ -7751,10 +6839,10 @@
         <v>20000000000</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F65" s="3">
         <v>44866</v>
@@ -7762,72 +6850,58 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K65" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J65" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L65" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M65" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N65" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O65" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;V65,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;R65,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P65" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q65" s="5" t="e">
+      <c r="O65" s="4" t="e">
         <f>VLOOKUP(C65,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R65" s="6" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T65">
+      <c r="P65" s="5" t="e">
+        <f>IF(EXACT(O65,E65),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q65" s="4">
+        <f>ROW(A65)</f>
+        <v>65</v>
+      </c>
+      <c r="R65" s="4" t="str">
+        <f>TEXT(J65,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S65" s="4">
+        <f>IF(C65=C64,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T65" s="4">
+        <f>IF(C65=C66,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U65" s="4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U65" s="5">
-        <f t="shared" si="23"/>
-        <v>65</v>
-      </c>
-      <c r="V65" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W65" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X65" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y65" s="5">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B66" t="s">
@@ -7837,10 +6911,10 @@
         <v>20000000000</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F66" s="3">
         <v>44866</v>
@@ -7848,72 +6922,58 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K66" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J66" s="2">
+        <f t="shared" si="4"/>
+        <v>44866</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="5"/>
+        <v>44895</v>
       </c>
       <c r="L66" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M66" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N66" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O66" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;V66,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;R66,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q66" s="5" t="e">
+      <c r="O66" s="4" t="e">
         <f>VLOOKUP(C66,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R66" s="6" t="e">
-        <f t="shared" ref="R66:R69" si="26">IF(EXACT(Q66,E66),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T66">
+      <c r="P66" s="5" t="e">
+        <f>IF(EXACT(O66,E66),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q66" s="4">
+        <f>ROW(A66)</f>
+        <v>66</v>
+      </c>
+      <c r="R66" s="4" t="str">
+        <f>TEXT(J66,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S66" s="4">
+        <f>IF(C66=C65,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T66" s="4">
+        <f>IF(C66=C67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" ref="U66:U69" si="10">SUM(S66:T66)</f>
         <v>2</v>
       </c>
-      <c r="U66" s="5">
-        <f t="shared" si="23"/>
-        <v>66</v>
-      </c>
-      <c r="V66" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W66" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X66" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y66" s="5">
-        <f t="shared" ref="Y66:Y69" si="27">SUM(W66:X66)</f>
-        <v>2</v>
-      </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -7923,10 +6983,10 @@
         <v>20000000000</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F67" s="3">
         <v>44866</v>
@@ -7934,72 +6994,58 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K67" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J67" s="2">
+        <f t="shared" ref="J67:J69" si="11">F67</f>
+        <v>44866</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" ref="K67:K69" si="12">EOMONTH(F67,0)</f>
+        <v>44895</v>
       </c>
       <c r="L67" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N67" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O67" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;V67,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N67" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;R67,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P67" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q67" s="5" t="e">
+      <c r="O67" s="4" t="e">
         <f>VLOOKUP(C67,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R67" s="6" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T67">
+      <c r="P67" s="5" t="e">
+        <f>IF(EXACT(O67,E67),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q67" s="4">
+        <f>ROW(A67)</f>
+        <v>67</v>
+      </c>
+      <c r="R67" s="4" t="str">
+        <f>TEXT(J67,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S67" s="4">
+        <f>IF(C67=C66,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T67" s="4">
+        <f>IF(C67=C68,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U67" s="4">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U67" s="5">
-        <f t="shared" si="23"/>
-        <v>67</v>
-      </c>
-      <c r="V67" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W67" s="5">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X67" s="5">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y67" s="5">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B68" t="s">
@@ -8009,10 +7055,10 @@
         <v>20000000000</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F68" s="3">
         <v>44866</v>
@@ -8020,72 +7066,58 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K68" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J68" s="2">
+        <f t="shared" si="11"/>
+        <v>44866</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="12"/>
+        <v>44895</v>
       </c>
       <c r="L68" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M68" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N68" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O68" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;V68,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N68" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;R68,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P68" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q68" s="5" t="e">
+      <c r="O68" s="4" t="e">
         <f>VLOOKUP(C68,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R68" s="6" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T68">
+      <c r="P68" s="5" t="e">
+        <f>IF(EXACT(O68,E68),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q68" s="4">
+        <f>ROW(A68)</f>
+        <v>68</v>
+      </c>
+      <c r="R68" s="4" t="str">
+        <f>TEXT(J68,"AAAAMM")</f>
+        <v>202211</v>
+      </c>
+      <c r="S68" s="4">
+        <f t="shared" ref="S68:S69" si="13">IF(C68=C67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T68" s="4">
+        <f t="shared" ref="T68:T69" si="14">IF(C68=C69,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U68" s="4">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U68" s="5">
-        <f t="shared" si="23"/>
-        <v>68</v>
-      </c>
-      <c r="V68" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>202211</v>
-      </c>
-      <c r="W68" s="5">
-        <f t="shared" ref="W68:W69" si="28">IF(C68=C67,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X68" s="5">
-        <f t="shared" ref="X68:X69" si="29">IF(C68=C69,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y68" s="5">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="str">
-        <f t="shared" si="15"/>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -8095,10 +7127,10 @@
         <v>20000000000</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F69" s="3">
         <v>44866</v>
@@ -8106,72 +7138,58 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>01/11/2022</v>
-      </c>
-      <c r="K69" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>30/11/2022</v>
+      <c r="J69" s="2">
+        <f t="shared" si="11"/>
+        <v>44866</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="12"/>
+        <v>44895</v>
       </c>
       <c r="L69" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M69" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
-      <c r="N69" s="2">
-        <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="O69" s="6" t="str">
-        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;V69,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;R69,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="P69" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>00:00:03</v>
-      </c>
-      <c r="Q69" s="5" t="e">
+      <c r="O69" s="4" t="e">
         <f>VLOOKUP(C69,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="R69" s="6" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T69">
-        <v>2</v>
-      </c>
-      <c r="U69" s="5">
-        <f t="shared" si="23"/>
+      <c r="P69" s="5" t="e">
+        <f>IF(EXACT(O69,E69),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q69" s="4">
+        <f>ROW(A69)</f>
         <v>69</v>
       </c>
-      <c r="V69" s="5" t="str">
-        <f t="shared" si="24"/>
+      <c r="R69" s="4" t="str">
+        <f>TEXT(J69,"AAAAMM")</f>
         <v>202211</v>
       </c>
-      <c r="W69" s="5">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="X69" s="5">
-        <f t="shared" si="29"/>
+      <c r="S69" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T69" s="4">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y69" s="5">
-        <f t="shared" si="27"/>
+      <c r="U69" s="4">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V69">
+  <autoFilter ref="A1:U69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>

--- a/Listado Mis Comprobantes 2.0.xlsx
+++ b/Listado Mis Comprobantes 2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga_MC_AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8090BF95-1CC3-41B5-92D7-C921734F0A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF0FC9F-DA7B-4A68-A94C-E8DDB7B44CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2216,7 +2216,8 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.5703125" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16.5703125" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
@@ -2322,11 +2323,11 @@
         <v>44895</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f t="shared" ref="L2:L33" si="1">CONCATENATE(TEXT(A2,"0")," - ","MCE - ",TEXT(J2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <f>CONCATENATE(TEXT(A2,"0")," - ","MCE - ",YEAR(J2),TEXT(MONTH(J2),"00")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - MCE - 202211 - 20000000000 - Cliente</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f t="shared" ref="M2:M33" si="2">CONCATENATE(TEXT(A2,"0")," - ","MCR - ",TEXT(J2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <f>CONCATENATE(TEXT(A2,"0")," - ","MCR - ",YEAR(J2),TEXT(MONTH(J2),"00")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - MCR - 202211 - 20000000000 - Cliente</v>
       </c>
       <c r="N2" s="5" t="str">
@@ -2338,27 +2339,27 @@
         <v>#N/A</v>
       </c>
       <c r="P2" s="5" t="e">
-        <f>IF(EXACT(O2,E2),"ü","x")</f>
+        <f t="shared" ref="P2:P33" si="1">IF(EXACT(O2,E2),"ü","x")</f>
         <v>#N/A</v>
       </c>
       <c r="Q2" s="4">
-        <f>ROW(A2)</f>
+        <f t="shared" ref="Q2:Q33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="R2" s="4" t="str">
-        <f>TEXT(J2,"AAAAMM")</f>
+      <c r="R2" s="2" t="str">
+        <f>YEAR(J2)&amp;TEXT(MONTH(J2),"00")</f>
         <v>202211</v>
       </c>
       <c r="S2" s="4">
-        <f>IF(C2=C1,1,0)</f>
+        <f t="shared" ref="S2:S33" si="3">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
       <c r="T2" s="4">
-        <f>IF(C2=C3,1,0)</f>
+        <f t="shared" ref="T2:T33" si="4">IF(C2=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" ref="U2:U33" si="3">SUM(S2:T2)</f>
+        <f t="shared" ref="U2:U33" si="5">SUM(S2:T2)</f>
         <v>1</v>
       </c>
     </row>
@@ -2387,19 +2388,19 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J66" si="4">F3</f>
+        <f t="shared" ref="J3:J66" si="6">F3</f>
         <v>44866</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K66" si="5">EOMONTH(F3,0)</f>
+        <f t="shared" ref="K3:K66" si="7">EOMONTH(F3,0)</f>
         <v>44895</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L3:L66" si="8">CONCATENATE(TEXT(A3,"0")," - ","MCE - ",YEAR(J3),TEXT(MONTH(J3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - MCE - 202211 - 20000000000 - Cliente</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M3:M66" si="9">CONCATENATE(TEXT(A3,"0")," - ","MCR - ",YEAR(J3),TEXT(MONTH(J3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - MCR - 202211 - 20000000000 - Cliente</v>
       </c>
       <c r="N3" s="5" t="str">
@@ -2411,27 +2412,27 @@
         <v>#N/A</v>
       </c>
       <c r="P3" s="5" t="e">
-        <f>IF(EXACT(O3,E3),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q3" s="4">
-        <f>ROW(A3)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="R3" s="4" t="str">
-        <f>TEXT(J3,"AAAAMM")</f>
+      <c r="R3" s="2" t="str">
+        <f t="shared" ref="R3:R66" si="10">YEAR(J3)&amp;TEXT(MONTH(J3),"00")</f>
         <v>202211</v>
       </c>
       <c r="S3" s="4">
-        <f>IF(C3=C2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T3" s="4">
-        <f>IF(C3=C4,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2459,19 +2460,19 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N4" s="5" t="str">
@@ -2483,27 +2484,27 @@
         <v>#N/A</v>
       </c>
       <c r="P4" s="5" t="e">
-        <f>IF(EXACT(O4,E4),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q4" s="4">
-        <f>ROW(A4)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="R4" s="4" t="str">
-        <f>TEXT(J4,"AAAAMM")</f>
+      <c r="R4" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S4" s="4">
-        <f>IF(C4=C3,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T4" s="4">
-        <f>IF(C4=C5,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2531,19 +2532,19 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N5" s="5" t="str">
@@ -2555,27 +2556,27 @@
         <v>#N/A</v>
       </c>
       <c r="P5" s="5" t="e">
-        <f>IF(EXACT(O5,E5),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q5" s="4">
-        <f>ROW(A5)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R5" s="4" t="str">
-        <f>TEXT(J5,"AAAAMM")</f>
+      <c r="R5" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S5" s="4">
-        <f>IF(C5=C4,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T5" s="4">
-        <f>IF(C5=C6,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2603,19 +2604,19 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N6" s="5" t="str">
@@ -2627,27 +2628,27 @@
         <v>#N/A</v>
       </c>
       <c r="P6" s="5" t="e">
-        <f>IF(EXACT(O6,E6),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q6" s="4">
-        <f>ROW(A6)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="R6" s="4" t="str">
-        <f>TEXT(J6,"AAAAMM")</f>
+      <c r="R6" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S6" s="4">
-        <f>IF(C6=C5,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T6" s="4">
-        <f>IF(C6=C7,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2675,19 +2676,19 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N7" s="5" t="str">
@@ -2699,27 +2700,27 @@
         <v>#N/A</v>
       </c>
       <c r="P7" s="5" t="e">
-        <f>IF(EXACT(O7,E7),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q7" s="4">
-        <f>ROW(A7)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="R7" s="4" t="str">
-        <f>TEXT(J7,"AAAAMM")</f>
+      <c r="R7" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S7" s="4">
-        <f>IF(C7=C6,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T7" s="4">
-        <f>IF(C7=C8,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2747,19 +2748,19 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N8" s="5" t="str">
@@ -2771,27 +2772,27 @@
         <v>#N/A</v>
       </c>
       <c r="P8" s="5" t="e">
-        <f>IF(EXACT(O8,E8),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q8" s="4">
-        <f>ROW(A8)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="R8" s="4" t="str">
-        <f>TEXT(J8,"AAAAMM")</f>
+      <c r="R8" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S8" s="4">
-        <f>IF(C8=C7,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T8" s="4">
-        <f>IF(C8=C9,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2819,19 +2820,19 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N9" s="5" t="str">
@@ -2843,27 +2844,27 @@
         <v>#N/A</v>
       </c>
       <c r="P9" s="5" t="e">
-        <f>IF(EXACT(O9,E9),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q9" s="4">
-        <f>ROW(A9)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="R9" s="4" t="str">
-        <f>TEXT(J9,"AAAAMM")</f>
+      <c r="R9" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S9" s="4">
-        <f>IF(C9=C8,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T9" s="4">
-        <f>IF(C9=C10,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2891,19 +2892,19 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N10" s="5" t="str">
@@ -2915,27 +2916,27 @@
         <v>#N/A</v>
       </c>
       <c r="P10" s="5" t="e">
-        <f>IF(EXACT(O10,E10),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q10" s="4">
-        <f>ROW(A10)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="R10" s="4" t="str">
-        <f>TEXT(J10,"AAAAMM")</f>
+      <c r="R10" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S10" s="4">
-        <f>IF(C10=C9,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T10" s="4">
-        <f>IF(C10=C11,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2963,19 +2964,19 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N11" s="5" t="str">
@@ -2987,27 +2988,27 @@
         <v>#N/A</v>
       </c>
       <c r="P11" s="5" t="e">
-        <f>IF(EXACT(O11,E11),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q11" s="4">
-        <f>ROW(A11)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="R11" s="4" t="str">
-        <f>TEXT(J11,"AAAAMM")</f>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S11" s="4">
-        <f>IF(C11=C10,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T11" s="4">
-        <f>IF(C11=C12,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3035,19 +3036,19 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N12" s="5" t="str">
@@ -3059,27 +3060,27 @@
         <v>#N/A</v>
       </c>
       <c r="P12" s="5" t="e">
-        <f>IF(EXACT(O12,E12),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q12" s="4">
-        <f>ROW(A12)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="R12" s="4" t="str">
-        <f>TEXT(J12,"AAAAMM")</f>
+      <c r="R12" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S12" s="4">
-        <f>IF(C12=C11,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T12" s="4">
-        <f>IF(C12=C13,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3107,19 +3108,19 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N13" s="5" t="str">
@@ -3131,27 +3132,27 @@
         <v>#N/A</v>
       </c>
       <c r="P13" s="5" t="e">
-        <f>IF(EXACT(O13,E13),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q13" s="4">
-        <f>ROW(A13)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="R13" s="4" t="str">
-        <f>TEXT(J13,"AAAAMM")</f>
+      <c r="R13" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S13" s="4">
-        <f>IF(C13=C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T13" s="4">
-        <f>IF(C13=C14,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3179,19 +3180,19 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N14" s="5" t="str">
@@ -3203,27 +3204,27 @@
         <v>#N/A</v>
       </c>
       <c r="P14" s="5" t="e">
-        <f>IF(EXACT(O14,E14),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q14" s="4">
-        <f>ROW(A14)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="R14" s="4" t="str">
-        <f>TEXT(J14,"AAAAMM")</f>
+      <c r="R14" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S14" s="4">
-        <f>IF(C14=C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T14" s="4">
-        <f>IF(C14=C15,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3251,19 +3252,19 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N15" s="5" t="str">
@@ -3275,27 +3276,27 @@
         <v>#N/A</v>
       </c>
       <c r="P15" s="5" t="e">
-        <f>IF(EXACT(O15,E15),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="4">
-        <f>ROW(A15)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="R15" s="4" t="str">
-        <f>TEXT(J15,"AAAAMM")</f>
+      <c r="R15" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S15" s="4">
-        <f>IF(C15=C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T15" s="4">
-        <f>IF(C15=C16,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3323,19 +3324,19 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N16" s="5" t="str">
@@ -3347,27 +3348,27 @@
         <v>#N/A</v>
       </c>
       <c r="P16" s="5" t="e">
-        <f>IF(EXACT(O16,E16),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q16" s="4">
-        <f>ROW(A16)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="R16" s="4" t="str">
-        <f>TEXT(J16,"AAAAMM")</f>
+      <c r="R16" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S16" s="4">
-        <f>IF(C16=C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T16" s="4">
-        <f>IF(C16=C17,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3395,19 +3396,19 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N17" s="5" t="str">
@@ -3419,27 +3420,27 @@
         <v>#N/A</v>
       </c>
       <c r="P17" s="5" t="e">
-        <f>IF(EXACT(O17,E17),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="4">
-        <f>ROW(A17)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="R17" s="4" t="str">
-        <f>TEXT(J17,"AAAAMM")</f>
+      <c r="R17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S17" s="4">
-        <f>IF(C17=C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T17" s="4">
-        <f>IF(C17=C18,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3467,19 +3468,19 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N18" s="5" t="str">
@@ -3491,27 +3492,27 @@
         <v>#N/A</v>
       </c>
       <c r="P18" s="5" t="e">
-        <f>IF(EXACT(O18,E18),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q18" s="4">
-        <f>ROW(A18)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="R18" s="4" t="str">
-        <f>TEXT(J18,"AAAAMM")</f>
+      <c r="R18" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S18" s="4">
-        <f>IF(C18=C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T18" s="4">
-        <f>IF(C18=C19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3539,19 +3540,19 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N19" s="5" t="str">
@@ -3563,27 +3564,27 @@
         <v>#N/A</v>
       </c>
       <c r="P19" s="5" t="e">
-        <f>IF(EXACT(O19,E19),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q19" s="4">
-        <f>ROW(A19)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="R19" s="4" t="str">
-        <f>TEXT(J19,"AAAAMM")</f>
+      <c r="R19" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S19" s="4">
-        <f>IF(C19=C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T19" s="4">
-        <f>IF(C19=C20,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3611,19 +3612,19 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N20" s="5" t="str">
@@ -3635,27 +3636,27 @@
         <v>#N/A</v>
       </c>
       <c r="P20" s="5" t="e">
-        <f>IF(EXACT(O20,E20),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q20" s="4">
-        <f>ROW(A20)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="R20" s="4" t="str">
-        <f>TEXT(J20,"AAAAMM")</f>
+      <c r="R20" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S20" s="4">
-        <f>IF(C20=C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T20" s="4">
-        <f>IF(C20=C21,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3683,19 +3684,19 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N21" s="5" t="str">
@@ -3707,27 +3708,27 @@
         <v>#N/A</v>
       </c>
       <c r="P21" s="5" t="e">
-        <f>IF(EXACT(O21,E21),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q21" s="4">
-        <f>ROW(A21)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="R21" s="4" t="str">
-        <f>TEXT(J21,"AAAAMM")</f>
+      <c r="R21" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S21" s="4">
-        <f>IF(C21=C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T21" s="4">
-        <f>IF(C21=C22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3755,19 +3756,19 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N22" s="5" t="str">
@@ -3779,27 +3780,27 @@
         <v>#N/A</v>
       </c>
       <c r="P22" s="5" t="e">
-        <f>IF(EXACT(O22,E22),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q22" s="4">
-        <f>ROW(A22)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="R22" s="4" t="str">
-        <f>TEXT(J22,"AAAAMM")</f>
+      <c r="R22" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S22" s="4">
-        <f>IF(C22=C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T22" s="4">
-        <f>IF(C22=C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3827,19 +3828,19 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N23" s="5" t="str">
@@ -3851,27 +3852,27 @@
         <v>#N/A</v>
       </c>
       <c r="P23" s="5" t="e">
-        <f>IF(EXACT(O23,E23),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q23" s="4">
-        <f>ROW(A23)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="R23" s="4" t="str">
-        <f>TEXT(J23,"AAAAMM")</f>
+      <c r="R23" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S23" s="4">
-        <f>IF(C23=C22,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T23" s="4">
-        <f>IF(C23=C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3899,19 +3900,19 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L24" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N24" s="5" t="str">
@@ -3923,27 +3924,27 @@
         <v>#N/A</v>
       </c>
       <c r="P24" s="5" t="e">
-        <f>IF(EXACT(O24,E24),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q24" s="4">
-        <f>ROW(A24)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="R24" s="4" t="str">
-        <f>TEXT(J24,"AAAAMM")</f>
+      <c r="R24" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S24" s="4">
-        <f>IF(C24=C23,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T24" s="4">
-        <f>IF(C24=C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3971,19 +3972,19 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L25" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N25" s="5" t="str">
@@ -3995,27 +3996,27 @@
         <v>#N/A</v>
       </c>
       <c r="P25" s="5" t="e">
-        <f>IF(EXACT(O25,E25),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q25" s="4">
-        <f>ROW(A25)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="R25" s="4" t="str">
-        <f>TEXT(J25,"AAAAMM")</f>
+      <c r="R25" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S25" s="4">
-        <f>IF(C25=C24,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T25" s="4">
-        <f>IF(C25=C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4043,19 +4044,19 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N26" s="5" t="str">
@@ -4067,27 +4068,27 @@
         <v>#N/A</v>
       </c>
       <c r="P26" s="5" t="e">
-        <f>IF(EXACT(O26,E26),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q26" s="4">
-        <f>ROW(A26)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="R26" s="4" t="str">
-        <f>TEXT(J26,"AAAAMM")</f>
+      <c r="R26" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S26" s="4">
-        <f>IF(C26=C25,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T26" s="4">
-        <f>IF(C26=C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4115,19 +4116,19 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L27" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N27" s="5" t="str">
@@ -4139,27 +4140,27 @@
         <v>#N/A</v>
       </c>
       <c r="P27" s="5" t="e">
-        <f>IF(EXACT(O27,E27),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q27" s="4">
-        <f>ROW(A27)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R27" s="4" t="str">
-        <f>TEXT(J27,"AAAAMM")</f>
+      <c r="R27" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S27" s="4">
-        <f>IF(C27=C26,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T27" s="4">
-        <f>IF(C27=C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4187,19 +4188,19 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L28" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N28" s="5" t="str">
@@ -4211,27 +4212,27 @@
         <v>#N/A</v>
       </c>
       <c r="P28" s="5" t="e">
-        <f>IF(EXACT(O28,E28),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q28" s="4">
-        <f>ROW(A28)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="R28" s="4" t="str">
-        <f>TEXT(J28,"AAAAMM")</f>
+      <c r="R28" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S28" s="4">
-        <f>IF(C28=C27,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T28" s="4">
-        <f>IF(C28=C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4259,19 +4260,19 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L29" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N29" s="5" t="str">
@@ -4283,27 +4284,27 @@
         <v>#N/A</v>
       </c>
       <c r="P29" s="5" t="e">
-        <f>IF(EXACT(O29,E29),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q29" s="4">
-        <f>ROW(A29)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R29" s="4" t="str">
-        <f>TEXT(J29,"AAAAMM")</f>
+      <c r="R29" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S29" s="4">
-        <f>IF(C29=C28,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T29" s="4">
-        <f>IF(C29=C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4331,19 +4332,19 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N30" s="5" t="str">
@@ -4355,27 +4356,27 @@
         <v>#N/A</v>
       </c>
       <c r="P30" s="5" t="e">
-        <f>IF(EXACT(O30,E30),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q30" s="4">
-        <f>ROW(A30)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="R30" s="4" t="str">
-        <f>TEXT(J30,"AAAAMM")</f>
+      <c r="R30" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S30" s="4">
-        <f>IF(C30=C29,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T30" s="4">
-        <f>IF(C30=C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4403,19 +4404,19 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L31" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N31" s="5" t="str">
@@ -4427,27 +4428,27 @@
         <v>#N/A</v>
       </c>
       <c r="P31" s="5" t="e">
-        <f>IF(EXACT(O31,E31),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q31" s="4">
-        <f>ROW(A31)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="R31" s="4" t="str">
-        <f>TEXT(J31,"AAAAMM")</f>
+      <c r="R31" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S31" s="4">
-        <f>IF(C31=C30,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T31" s="4">
-        <f>IF(C31=C32,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4475,19 +4476,19 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L32" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N32" s="5" t="str">
@@ -4499,27 +4500,27 @@
         <v>#N/A</v>
       </c>
       <c r="P32" s="5" t="e">
-        <f>IF(EXACT(O32,E32),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q32" s="4">
-        <f>ROW(A32)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="R32" s="4" t="str">
-        <f>TEXT(J32,"AAAAMM")</f>
+      <c r="R32" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S32" s="4">
-        <f>IF(C32=C31,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T32" s="4">
-        <f>IF(C32=C33,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4547,19 +4548,19 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L33" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N33" s="5" t="str">
@@ -4571,33 +4572,33 @@
         <v>#N/A</v>
       </c>
       <c r="P33" s="5" t="e">
-        <f>IF(EXACT(O33,E33),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q33" s="4">
-        <f>ROW(A33)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="R33" s="4" t="str">
-        <f>TEXT(J33,"AAAAMM")</f>
+      <c r="R33" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S33" s="4">
-        <f>IF(C33=C32,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T33" s="4">
-        <f>IF(C33=C34,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="6">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="11">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="s">
@@ -4619,19 +4620,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L34" s="2" t="str">
-        <f t="shared" ref="L34:L69" si="7">CONCATENATE(TEXT(A34,"0")," - ","MCE - ",TEXT(J34,"AAAAMM")," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M34" s="2" t="str">
-        <f t="shared" ref="M34:M69" si="8">CONCATENATE(TEXT(A34,"0")," - ","MCR - ",TEXT(J34,"AAAAMM")," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N34" s="5" t="str">
@@ -4643,33 +4644,33 @@
         <v>#N/A</v>
       </c>
       <c r="P34" s="5" t="e">
-        <f>IF(EXACT(O34,E34),"ü","x")</f>
+        <f t="shared" ref="P34:P65" si="12">IF(EXACT(O34,E34),"ü","x")</f>
         <v>#N/A</v>
       </c>
       <c r="Q34" s="4">
-        <f>ROW(A34)</f>
+        <f t="shared" ref="Q34:Q69" si="13">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="R34" s="4" t="str">
-        <f>TEXT(J34,"AAAAMM")</f>
+      <c r="R34" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S34" s="4">
-        <f>IF(C34=C33,1,0)</f>
+        <f t="shared" ref="S34:S67" si="14">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="T34" s="4">
-        <f>IF(C34=C35,1,0)</f>
+        <f t="shared" ref="T34:T67" si="15">IF(C34=C35,1,0)</f>
         <v>1</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:U65" si="9">SUM(S34:T34)</f>
+        <f t="shared" ref="U34:U65" si="16">SUM(S34:T34)</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B35" t="s">
@@ -4691,19 +4692,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L35" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M35" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N35" s="5" t="str">
@@ -4715,33 +4716,33 @@
         <v>#N/A</v>
       </c>
       <c r="P35" s="5" t="e">
-        <f>IF(EXACT(O35,E35),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q35" s="4">
-        <f>ROW(A35)</f>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
-      <c r="R35" s="4" t="str">
-        <f>TEXT(J35,"AAAAMM")</f>
+      <c r="R35" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S35" s="4">
-        <f>IF(C35=C34,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T35" s="4">
-        <f>IF(C35=C36,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B36" t="s">
@@ -4763,19 +4764,19 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L36" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M36" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N36" s="5" t="str">
@@ -4787,33 +4788,33 @@
         <v>#N/A</v>
       </c>
       <c r="P36" s="5" t="e">
-        <f>IF(EXACT(O36,E36),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q36" s="4">
-        <f>ROW(A36)</f>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
-      <c r="R36" s="4" t="str">
-        <f>TEXT(J36,"AAAAMM")</f>
+      <c r="R36" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S36" s="4">
-        <f>IF(C36=C35,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T36" s="4">
-        <f>IF(C36=C37,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -4835,19 +4836,19 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L37" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M37" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N37" s="5" t="str">
@@ -4859,33 +4860,33 @@
         <v>#N/A</v>
       </c>
       <c r="P37" s="5" t="e">
-        <f>IF(EXACT(O37,E37),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q37" s="4">
-        <f>ROW(A37)</f>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
-      <c r="R37" s="4" t="str">
-        <f>TEXT(J37,"AAAAMM")</f>
+      <c r="R37" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S37" s="4">
-        <f>IF(C37=C36,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T37" s="4">
-        <f>IF(C37=C38,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B38" t="s">
@@ -4907,19 +4908,19 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L38" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M38" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N38" s="5" t="str">
@@ -4931,33 +4932,33 @@
         <v>#N/A</v>
       </c>
       <c r="P38" s="5" t="e">
-        <f>IF(EXACT(O38,E38),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q38" s="4">
-        <f>ROW(A38)</f>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
-      <c r="R38" s="4" t="str">
-        <f>TEXT(J38,"AAAAMM")</f>
+      <c r="R38" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S38" s="4">
-        <f>IF(C38=C37,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T38" s="4">
-        <f>IF(C38=C39,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B39" t="s">
@@ -4979,19 +4980,19 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L39" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M39" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N39" s="5" t="str">
@@ -5003,33 +5004,33 @@
         <v>#N/A</v>
       </c>
       <c r="P39" s="5" t="e">
-        <f>IF(EXACT(O39,E39),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q39" s="4">
-        <f>ROW(A39)</f>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="R39" s="4" t="str">
-        <f>TEXT(J39,"AAAAMM")</f>
+      <c r="R39" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S39" s="4">
-        <f>IF(C39=C38,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T39" s="4">
-        <f>IF(C39=C40,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -5051,19 +5052,19 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L40" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M40" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N40" s="5" t="str">
@@ -5075,33 +5076,33 @@
         <v>#N/A</v>
       </c>
       <c r="P40" s="5" t="e">
-        <f>IF(EXACT(O40,E40),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q40" s="4">
-        <f>ROW(A40)</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="R40" s="4" t="str">
-        <f>TEXT(J40,"AAAAMM")</f>
+      <c r="R40" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S40" s="4">
-        <f>IF(C40=C39,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T40" s="4">
-        <f>IF(C40=C41,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B41" t="s">
@@ -5123,19 +5124,19 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L41" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M41" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N41" s="5" t="str">
@@ -5147,33 +5148,33 @@
         <v>#N/A</v>
       </c>
       <c r="P41" s="5" t="e">
-        <f>IF(EXACT(O41,E41),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q41" s="4">
-        <f>ROW(A41)</f>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-      <c r="R41" s="4" t="str">
-        <f>TEXT(J41,"AAAAMM")</f>
+      <c r="R41" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S41" s="4">
-        <f>IF(C41=C40,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T41" s="4">
-        <f>IF(C41=C42,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -5195,19 +5196,19 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L42" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M42" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N42" s="5" t="str">
@@ -5219,33 +5220,33 @@
         <v>#N/A</v>
       </c>
       <c r="P42" s="5" t="e">
-        <f>IF(EXACT(O42,E42),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q42" s="4">
-        <f>ROW(A42)</f>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-      <c r="R42" s="4" t="str">
-        <f>TEXT(J42,"AAAAMM")</f>
+      <c r="R42" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S42" s="4">
-        <f>IF(C42=C41,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T42" s="4">
-        <f>IF(C42=C43,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -5267,19 +5268,19 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L43" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M43" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N43" s="5" t="str">
@@ -5291,33 +5292,33 @@
         <v>#N/A</v>
       </c>
       <c r="P43" s="5" t="e">
-        <f>IF(EXACT(O43,E43),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q43" s="4">
-        <f>ROW(A43)</f>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
-      <c r="R43" s="4" t="str">
-        <f>TEXT(J43,"AAAAMM")</f>
+      <c r="R43" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S43" s="4">
-        <f>IF(C43=C42,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T43" s="4">
-        <f>IF(C43=C44,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B44" t="s">
@@ -5339,19 +5340,19 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L44" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M44" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N44" s="5" t="str">
@@ -5363,33 +5364,33 @@
         <v>#N/A</v>
       </c>
       <c r="P44" s="5" t="e">
-        <f>IF(EXACT(O44,E44),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q44" s="4">
-        <f>ROW(A44)</f>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
-      <c r="R44" s="4" t="str">
-        <f>TEXT(J44,"AAAAMM")</f>
+      <c r="R44" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S44" s="4">
-        <f>IF(C44=C43,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T44" s="4">
-        <f>IF(C44=C45,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B45" t="s">
@@ -5411,19 +5412,19 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L45" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M45" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N45" s="5" t="str">
@@ -5435,33 +5436,33 @@
         <v>#N/A</v>
       </c>
       <c r="P45" s="5" t="e">
-        <f>IF(EXACT(O45,E45),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q45" s="4">
-        <f>ROW(A45)</f>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
-      <c r="R45" s="4" t="str">
-        <f>TEXT(J45,"AAAAMM")</f>
+      <c r="R45" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S45" s="4">
-        <f>IF(C45=C44,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T45" s="4">
-        <f>IF(C45=C46,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B46" t="s">
@@ -5483,19 +5484,19 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L46" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M46" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N46" s="5" t="str">
@@ -5507,33 +5508,33 @@
         <v>#N/A</v>
       </c>
       <c r="P46" s="5" t="e">
-        <f>IF(EXACT(O46,E46),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q46" s="4">
-        <f>ROW(A46)</f>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
-      <c r="R46" s="4" t="str">
-        <f>TEXT(J46,"AAAAMM")</f>
+      <c r="R46" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S46" s="4">
-        <f>IF(C46=C45,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T46" s="4">
-        <f>IF(C46=C47,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B47" t="s">
@@ -5555,19 +5556,19 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L47" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M47" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N47" s="5" t="str">
@@ -5579,33 +5580,33 @@
         <v>#N/A</v>
       </c>
       <c r="P47" s="5" t="e">
-        <f>IF(EXACT(O47,E47),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q47" s="4">
-        <f>ROW(A47)</f>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
-      <c r="R47" s="4" t="str">
-        <f>TEXT(J47,"AAAAMM")</f>
+      <c r="R47" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S47" s="4">
-        <f>IF(C47=C46,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T47" s="4">
-        <f>IF(C47=C48,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -5627,19 +5628,19 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L48" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M48" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N48" s="5" t="str">
@@ -5651,33 +5652,33 @@
         <v>#N/A</v>
       </c>
       <c r="P48" s="5" t="e">
-        <f>IF(EXACT(O48,E48),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q48" s="4">
-        <f>ROW(A48)</f>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
-      <c r="R48" s="4" t="str">
-        <f>TEXT(J48,"AAAAMM")</f>
+      <c r="R48" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S48" s="4">
-        <f>IF(C48=C47,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T48" s="4">
-        <f>IF(C48=C49,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -5699,19 +5700,19 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L49" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M49" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N49" s="5" t="str">
@@ -5723,33 +5724,33 @@
         <v>#N/A</v>
       </c>
       <c r="P49" s="5" t="e">
-        <f>IF(EXACT(O49,E49),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q49" s="4">
-        <f>ROW(A49)</f>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
-      <c r="R49" s="4" t="str">
-        <f>TEXT(J49,"AAAAMM")</f>
+      <c r="R49" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S49" s="4">
-        <f>IF(C49=C48,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T49" s="4">
-        <f>IF(C49=C50,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -5771,19 +5772,19 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L50" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M50" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N50" s="5" t="str">
@@ -5795,33 +5796,33 @@
         <v>#N/A</v>
       </c>
       <c r="P50" s="5" t="e">
-        <f>IF(EXACT(O50,E50),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q50" s="4">
-        <f>ROW(A50)</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="R50" s="4" t="str">
-        <f>TEXT(J50,"AAAAMM")</f>
+      <c r="R50" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S50" s="4">
-        <f>IF(C50=C49,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T50" s="4">
-        <f>IF(C50=C51,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -5843,19 +5844,19 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L51" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M51" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N51" s="5" t="str">
@@ -5867,33 +5868,33 @@
         <v>#N/A</v>
       </c>
       <c r="P51" s="5" t="e">
-        <f>IF(EXACT(O51,E51),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q51" s="4">
-        <f>ROW(A51)</f>
+        <f t="shared" si="13"/>
         <v>51</v>
       </c>
-      <c r="R51" s="4" t="str">
-        <f>TEXT(J51,"AAAAMM")</f>
+      <c r="R51" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S51" s="4">
-        <f>IF(C51=C50,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T51" s="4">
-        <f>IF(C51=C52,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B52" t="s">
@@ -5915,19 +5916,19 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L52" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M52" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N52" s="5" t="str">
@@ -5939,33 +5940,33 @@
         <v>#N/A</v>
       </c>
       <c r="P52" s="5" t="e">
-        <f>IF(EXACT(O52,E52),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q52" s="4">
-        <f>ROW(A52)</f>
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
-      <c r="R52" s="4" t="str">
-        <f>TEXT(J52,"AAAAMM")</f>
+      <c r="R52" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S52" s="4">
-        <f>IF(C52=C51,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T52" s="4">
-        <f>IF(C52=C53,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -5987,19 +5988,19 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L53" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M53" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N53" s="5" t="str">
@@ -6011,33 +6012,33 @@
         <v>#N/A</v>
       </c>
       <c r="P53" s="5" t="e">
-        <f>IF(EXACT(O53,E53),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q53" s="4">
-        <f>ROW(A53)</f>
+        <f t="shared" si="13"/>
         <v>53</v>
       </c>
-      <c r="R53" s="4" t="str">
-        <f>TEXT(J53,"AAAAMM")</f>
+      <c r="R53" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S53" s="4">
-        <f>IF(C53=C52,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T53" s="4">
-        <f>IF(C53=C54,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B54" t="s">
@@ -6059,19 +6060,19 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L54" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M54" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N54" s="5" t="str">
@@ -6083,33 +6084,33 @@
         <v>#N/A</v>
       </c>
       <c r="P54" s="5" t="e">
-        <f>IF(EXACT(O54,E54),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q54" s="4">
-        <f>ROW(A54)</f>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
-      <c r="R54" s="4" t="str">
-        <f>TEXT(J54,"AAAAMM")</f>
+      <c r="R54" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S54" s="4">
-        <f>IF(C54=C53,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T54" s="4">
-        <f>IF(C54=C55,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B55" t="s">
@@ -6131,19 +6132,19 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L55" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M55" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N55" s="5" t="str">
@@ -6155,33 +6156,33 @@
         <v>#N/A</v>
       </c>
       <c r="P55" s="5" t="e">
-        <f>IF(EXACT(O55,E55),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q55" s="4">
-        <f>ROW(A55)</f>
+        <f t="shared" si="13"/>
         <v>55</v>
       </c>
-      <c r="R55" s="4" t="str">
-        <f>TEXT(J55,"AAAAMM")</f>
+      <c r="R55" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S55" s="4">
-        <f>IF(C55=C54,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T55" s="4">
-        <f>IF(C55=C56,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B56" t="s">
@@ -6203,19 +6204,19 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L56" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M56" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N56" s="5" t="str">
@@ -6227,33 +6228,33 @@
         <v>#N/A</v>
       </c>
       <c r="P56" s="5" t="e">
-        <f>IF(EXACT(O56,E56),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q56" s="4">
-        <f>ROW(A56)</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="R56" s="4" t="str">
-        <f>TEXT(J56,"AAAAMM")</f>
+      <c r="R56" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S56" s="4">
-        <f>IF(C56=C55,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T56" s="4">
-        <f>IF(C56=C57,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B57" t="s">
@@ -6275,19 +6276,19 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L57" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M57" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N57" s="5" t="str">
@@ -6299,33 +6300,33 @@
         <v>#N/A</v>
       </c>
       <c r="P57" s="5" t="e">
-        <f>IF(EXACT(O57,E57),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q57" s="4">
-        <f>ROW(A57)</f>
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
-      <c r="R57" s="4" t="str">
-        <f>TEXT(J57,"AAAAMM")</f>
+      <c r="R57" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S57" s="4">
-        <f>IF(C57=C56,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T57" s="4">
-        <f>IF(C57=C58,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B58" t="s">
@@ -6347,19 +6348,19 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L58" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M58" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N58" s="5" t="str">
@@ -6371,33 +6372,33 @@
         <v>#N/A</v>
       </c>
       <c r="P58" s="5" t="e">
-        <f>IF(EXACT(O58,E58),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q58" s="4">
-        <f>ROW(A58)</f>
+        <f t="shared" si="13"/>
         <v>58</v>
       </c>
-      <c r="R58" s="4" t="str">
-        <f>TEXT(J58,"AAAAMM")</f>
+      <c r="R58" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S58" s="4">
-        <f>IF(C58=C57,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T58" s="4">
-        <f>IF(C58=C59,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -6419,19 +6420,19 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L59" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M59" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N59" s="5" t="str">
@@ -6443,33 +6444,33 @@
         <v>#N/A</v>
       </c>
       <c r="P59" s="5" t="e">
-        <f>IF(EXACT(O59,E59),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q59" s="4">
-        <f>ROW(A59)</f>
+        <f t="shared" si="13"/>
         <v>59</v>
       </c>
-      <c r="R59" s="4" t="str">
-        <f>TEXT(J59,"AAAAMM")</f>
+      <c r="R59" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S59" s="4">
-        <f>IF(C59=C58,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T59" s="4">
-        <f>IF(C59=C60,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -6491,19 +6492,19 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L60" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M60" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N60" s="5" t="str">
@@ -6515,33 +6516,33 @@
         <v>#N/A</v>
       </c>
       <c r="P60" s="5" t="e">
-        <f>IF(EXACT(O60,E60),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q60" s="4">
-        <f>ROW(A60)</f>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="R60" s="4" t="str">
-        <f>TEXT(J60,"AAAAMM")</f>
+      <c r="R60" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S60" s="4">
-        <f>IF(C60=C59,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T60" s="4">
-        <f>IF(C60=C61,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -6563,19 +6564,19 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L61" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M61" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N61" s="5" t="str">
@@ -6587,33 +6588,33 @@
         <v>#N/A</v>
       </c>
       <c r="P61" s="5" t="e">
-        <f>IF(EXACT(O61,E61),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q61" s="4">
-        <f>ROW(A61)</f>
+        <f t="shared" si="13"/>
         <v>61</v>
       </c>
-      <c r="R61" s="4" t="str">
-        <f>TEXT(J61,"AAAAMM")</f>
+      <c r="R61" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S61" s="4">
-        <f>IF(C61=C60,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T61" s="4">
-        <f>IF(C61=C62,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -6635,19 +6636,19 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L62" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M62" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N62" s="5" t="str">
@@ -6659,33 +6660,33 @@
         <v>#N/A</v>
       </c>
       <c r="P62" s="5" t="e">
-        <f>IF(EXACT(O62,E62),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q62" s="4">
-        <f>ROW(A62)</f>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
-      <c r="R62" s="4" t="str">
-        <f>TEXT(J62,"AAAAMM")</f>
+      <c r="R62" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S62" s="4">
-        <f>IF(C62=C61,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T62" s="4">
-        <f>IF(C62=C63,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -6707,19 +6708,19 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L63" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M63" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N63" s="5" t="str">
@@ -6731,33 +6732,33 @@
         <v>#N/A</v>
       </c>
       <c r="P63" s="5" t="e">
-        <f>IF(EXACT(O63,E63),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q63" s="4">
-        <f>ROW(A63)</f>
+        <f t="shared" si="13"/>
         <v>63</v>
       </c>
-      <c r="R63" s="4" t="str">
-        <f>TEXT(J63,"AAAAMM")</f>
+      <c r="R63" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S63" s="4">
-        <f>IF(C63=C62,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T63" s="4">
-        <f>IF(C63=C64,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -6779,19 +6780,19 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L64" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M64" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N64" s="5" t="str">
@@ -6803,33 +6804,33 @@
         <v>#N/A</v>
       </c>
       <c r="P64" s="5" t="e">
-        <f>IF(EXACT(O64,E64),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q64" s="4">
-        <f>ROW(A64)</f>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
-      <c r="R64" s="4" t="str">
-        <f>TEXT(J64,"AAAAMM")</f>
+      <c r="R64" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S64" s="4">
-        <f>IF(C64=C63,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T64" s="4">
-        <f>IF(C64=C65,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B65" t="s">
@@ -6851,19 +6852,19 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L65" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M65" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N65" s="5" t="str">
@@ -6875,33 +6876,33 @@
         <v>#N/A</v>
       </c>
       <c r="P65" s="5" t="e">
-        <f>IF(EXACT(O65,E65),"ü","x")</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="Q65" s="4">
-        <f>ROW(A65)</f>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
-      <c r="R65" s="4" t="str">
-        <f>TEXT(J65,"AAAAMM")</f>
+      <c r="R65" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S65" s="4">
-        <f>IF(C65=C64,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T65" s="4">
-        <f>IF(C65=C66,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B66" t="s">
@@ -6923,19 +6924,19 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44866</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44895</v>
       </c>
       <c r="L66" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M66" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N66" s="5" t="str">
@@ -6947,33 +6948,33 @@
         <v>#N/A</v>
       </c>
       <c r="P66" s="5" t="e">
-        <f>IF(EXACT(O66,E66),"ü","x")</f>
+        <f t="shared" ref="P66:P97" si="17">IF(EXACT(O66,E66),"ü","x")</f>
         <v>#N/A</v>
       </c>
       <c r="Q66" s="4">
-        <f>ROW(A66)</f>
+        <f t="shared" si="13"/>
         <v>66</v>
       </c>
-      <c r="R66" s="4" t="str">
-        <f>TEXT(J66,"AAAAMM")</f>
+      <c r="R66" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>202211</v>
       </c>
       <c r="S66" s="4">
-        <f>IF(C66=C65,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T66" s="4">
-        <f>IF(C66=C67,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" ref="U66:U69" si="10">SUM(S66:T66)</f>
+        <f t="shared" ref="U66:U69" si="18">SUM(S66:T66)</f>
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -6995,19 +6996,19 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="2">
-        <f t="shared" ref="J67:J69" si="11">F67</f>
+        <f t="shared" ref="J67:J69" si="19">F67</f>
         <v>44866</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" ref="K67:K69" si="12">EOMONTH(F67,0)</f>
+        <f t="shared" ref="K67:K69" si="20">EOMONTH(F67,0)</f>
         <v>44895</v>
       </c>
       <c r="L67" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L67:L69" si="21">CONCATENATE(TEXT(A67,"0")," - ","MCE - ",YEAR(J67),TEXT(MONTH(J67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="M67:M69" si="22">CONCATENATE(TEXT(A67,"0")," - ","MCR - ",YEAR(J67),TEXT(MONTH(J67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N67" s="5" t="str">
@@ -7019,33 +7020,33 @@
         <v>#N/A</v>
       </c>
       <c r="P67" s="5" t="e">
-        <f>IF(EXACT(O67,E67),"ü","x")</f>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="Q67" s="4">
-        <f>ROW(A67)</f>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
-      <c r="R67" s="4" t="str">
-        <f>TEXT(J67,"AAAAMM")</f>
+      <c r="R67" s="2" t="str">
+        <f t="shared" ref="R67:R69" si="23">YEAR(J67)&amp;TEXT(MONTH(J67),"00")</f>
         <v>202211</v>
       </c>
       <c r="S67" s="4">
-        <f>IF(C67=C66,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T67" s="4">
-        <f>IF(C67=C68,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B68" t="s">
@@ -7067,19 +7068,19 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>44866</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>44895</v>
       </c>
       <c r="L68" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M68" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N68" s="5" t="str">
@@ -7091,33 +7092,33 @@
         <v>#N/A</v>
       </c>
       <c r="P68" s="5" t="e">
-        <f>IF(EXACT(O68,E68),"ü","x")</f>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="Q68" s="4">
-        <f>ROW(A68)</f>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="R68" s="4" t="str">
-        <f>TEXT(J68,"AAAAMM")</f>
+      <c r="R68" s="2" t="str">
+        <f t="shared" si="23"/>
         <v>202211</v>
       </c>
       <c r="S68" s="4">
-        <f t="shared" ref="S68:S69" si="13">IF(C68=C67,1,0)</f>
+        <f t="shared" ref="S68:S69" si="24">IF(C68=C67,1,0)</f>
         <v>1</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" ref="T68:T69" si="14">IF(C68=C69,1,0)</f>
+        <f t="shared" ref="T68:T69" si="25">IF(C68=C69,1,0)</f>
         <v>1</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -7139,19 +7140,19 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>44866</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>44895</v>
       </c>
       <c r="L69" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M69" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N69" s="5" t="str">
@@ -7163,27 +7164,27 @@
         <v>#N/A</v>
       </c>
       <c r="P69" s="5" t="e">
-        <f>IF(EXACT(O69,E69),"ü","x")</f>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="Q69" s="4">
-        <f>ROW(A69)</f>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
-      <c r="R69" s="4" t="str">
-        <f>TEXT(J69,"AAAAMM")</f>
+      <c r="R69" s="2" t="str">
+        <f t="shared" si="23"/>
         <v>202211</v>
       </c>
       <c r="S69" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>

--- a/Listado Mis Comprobantes 2.0.xlsx
+++ b/Listado Mis Comprobantes 2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga_MC_AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF0FC9F-DA7B-4A68-A94C-E8DDB7B44CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF36BB0-20A8-48AC-99C0-BBD08DACC9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,7 +708,7 @@
             <v>20416948926</v>
           </cell>
           <cell r="L11" t="str">
-            <v>Iñakibeitia91</v>
+            <v>Beitia2022</v>
           </cell>
         </row>
         <row r="12">
@@ -730,7 +730,7 @@
             <v>20246008109</v>
           </cell>
           <cell r="L13" t="str">
-            <v>L@rrygrb209</v>
+            <v>L@rrygrb210</v>
           </cell>
         </row>
         <row r="14">
@@ -752,7 +752,7 @@
             <v>30650940667</v>
           </cell>
           <cell r="L15" t="str">
-            <v>Martinb204</v>
+            <v>Martinb202</v>
           </cell>
         </row>
         <row r="16">
@@ -763,7 +763,7 @@
             <v>20147130202</v>
           </cell>
           <cell r="L16" t="str">
-            <v>Martinb204</v>
+            <v>Martinb202</v>
           </cell>
         </row>
         <row r="17">
@@ -774,7 +774,7 @@
             <v>27148268105</v>
           </cell>
           <cell r="L17" t="str">
-            <v>Gracielac275</v>
+            <v>Gracielac276</v>
           </cell>
         </row>
         <row r="18">
@@ -796,7 +796,7 @@
             <v>30707912223</v>
           </cell>
           <cell r="L19" t="str">
-            <v>Gabriela2022</v>
+            <v>Gabriela2023</v>
           </cell>
         </row>
         <row r="20">
@@ -818,7 +818,7 @@
             <v>20303980378</v>
           </cell>
           <cell r="L21" t="str">
-            <v>Sinclair.208</v>
+            <v>Sinclair.209</v>
           </cell>
         </row>
         <row r="22">
@@ -840,7 +840,7 @@
             <v>30672372697</v>
           </cell>
           <cell r="L23" t="str">
-            <v>Carlos2111</v>
+            <v>Carlos1510</v>
           </cell>
         </row>
         <row r="24">
@@ -884,7 +884,7 @@
             <v>27171709925</v>
           </cell>
           <cell r="L27" t="str">
-            <v>Coronasm275</v>
+            <v>Coronasm276</v>
           </cell>
         </row>
         <row r="28">
@@ -906,7 +906,7 @@
             <v>20168291680</v>
           </cell>
           <cell r="L29" t="str">
-            <v>Luisc30001</v>
+            <v>Luisc30002</v>
           </cell>
         </row>
         <row r="30">
@@ -972,7 +972,7 @@
             <v>30709431834</v>
           </cell>
           <cell r="L35" t="str">
-            <v>Marcelo202</v>
+            <v>Marcelo203</v>
           </cell>
         </row>
         <row r="36">
@@ -1005,7 +1005,7 @@
             <v>20149466356</v>
           </cell>
           <cell r="L38" t="str">
-            <v>REEnriquez207</v>
+            <v>REEnriquez208</v>
           </cell>
         </row>
         <row r="39">
@@ -1016,7 +1016,7 @@
             <v>20169933031</v>
           </cell>
           <cell r="L39" t="str">
-            <v>Estudio2021</v>
+            <v>Estudio2022</v>
           </cell>
         </row>
         <row r="40">
@@ -1027,7 +1027,7 @@
             <v>33653520439</v>
           </cell>
           <cell r="L40" t="str">
-            <v>Jcmayol2021</v>
+            <v>Jcmayol2022</v>
           </cell>
         </row>
         <row r="41">
@@ -1060,7 +1060,7 @@
             <v>20168291834</v>
           </cell>
           <cell r="L43" t="str">
-            <v>TOfi04041965</v>
+            <v>TOfi04041966</v>
           </cell>
         </row>
         <row r="44">
@@ -1071,7 +1071,7 @@
             <v>20133762761</v>
           </cell>
           <cell r="L44" t="str">
-            <v>Cferreyra59</v>
+            <v>Cferreyra60</v>
           </cell>
         </row>
         <row r="45">
@@ -1093,7 +1093,7 @@
             <v>23342751644</v>
           </cell>
           <cell r="L46" t="str">
-            <v>VFerreyra89</v>
+            <v>CVFerreyra89</v>
           </cell>
         </row>
         <row r="47">
@@ -1104,7 +1104,7 @@
             <v>20170394845</v>
           </cell>
           <cell r="L47" t="str">
-            <v>Mferreyra64</v>
+            <v>MJferreyra64</v>
           </cell>
         </row>
         <row r="48">
@@ -1170,7 +1170,7 @@
             <v>30710404131</v>
           </cell>
           <cell r="L53" t="str">
-            <v>REEnriquez207</v>
+            <v>REEnriquez208</v>
           </cell>
         </row>
         <row r="54">
@@ -1208,178 +1208,178 @@
         </row>
         <row r="57">
           <cell r="J57">
-            <v>27364071359</v>
+            <v>24056449082</v>
           </cell>
           <cell r="K57">
-            <v>27364071359</v>
+            <v>24056449082</v>
           </cell>
           <cell r="L57" t="str">
-            <v>MelissaH1103</v>
+            <v>Johnny2023</v>
           </cell>
         </row>
         <row r="58">
           <cell r="J58">
-            <v>20149466739</v>
+            <v>27364071359</v>
           </cell>
           <cell r="K58">
-            <v>20149466739</v>
+            <v>27364071359</v>
           </cell>
           <cell r="L58" t="str">
-            <v>Ricardo212</v>
+            <v>MelissaH1104</v>
           </cell>
         </row>
         <row r="59">
           <cell r="J59">
-            <v>20175255819</v>
+            <v>20149466739</v>
           </cell>
           <cell r="K59">
-            <v>33712529909</v>
+            <v>20149466739</v>
           </cell>
           <cell r="L59" t="str">
-            <v>Crispin2022</v>
+            <v>Ricardo212</v>
           </cell>
         </row>
         <row r="60">
           <cell r="J60">
-            <v>20174123072</v>
+            <v>20175255819</v>
           </cell>
           <cell r="K60">
-            <v>20174123072</v>
+            <v>33712529909</v>
           </cell>
           <cell r="L60" t="str">
-            <v>Carlos2111</v>
+            <v>Crispin2022</v>
           </cell>
         </row>
         <row r="61">
           <cell r="J61">
-            <v>20408973598</v>
+            <v>20174123072</v>
           </cell>
           <cell r="K61">
-            <v>20408973598</v>
+            <v>20174123072</v>
           </cell>
           <cell r="L61" t="str">
-            <v>Matiasinsa209</v>
+            <v>Carlos1510</v>
           </cell>
         </row>
         <row r="62">
           <cell r="J62">
-            <v>23377046129</v>
+            <v>20408973598</v>
           </cell>
           <cell r="K62">
-            <v>23377046129</v>
+            <v>20408973598</v>
           </cell>
           <cell r="L62" t="str">
-            <v>Nicolas240</v>
+            <v>Matiasinsa209</v>
           </cell>
         </row>
         <row r="63">
           <cell r="J63">
-            <v>20100325048</v>
+            <v>23377046129</v>
           </cell>
           <cell r="K63">
-            <v>20100325048</v>
+            <v>23377046129</v>
           </cell>
           <cell r="L63" t="str">
-            <v>Jouliae1356</v>
+            <v>Nicolas240</v>
           </cell>
         </row>
         <row r="64">
           <cell r="J64">
-            <v>20175255819</v>
+            <v>20100325048</v>
           </cell>
           <cell r="K64">
-            <v>33712370829</v>
+            <v>20100325048</v>
           </cell>
           <cell r="L64" t="str">
-            <v>Crispin2022</v>
+            <v>Jouliae1356</v>
           </cell>
         </row>
         <row r="65">
           <cell r="J65">
-            <v>27045207388</v>
+            <v>20175255819</v>
           </cell>
           <cell r="K65">
-            <v>27045207388</v>
+            <v>33712370829</v>
           </cell>
           <cell r="L65" t="str">
-            <v>Anamaria2021</v>
+            <v>Crispin2022</v>
           </cell>
         </row>
         <row r="66">
           <cell r="J66">
-            <v>27222731416</v>
+            <v>27045207388</v>
           </cell>
           <cell r="K66">
-            <v>27222731416</v>
+            <v>27045207388</v>
           </cell>
           <cell r="L66" t="str">
-            <v>Nonona2022</v>
+            <v>Anamaria2022</v>
           </cell>
         </row>
         <row r="67">
           <cell r="J67">
-            <v>27058846916</v>
+            <v>27222731416</v>
           </cell>
           <cell r="K67">
-            <v>27058846916</v>
+            <v>27222731416</v>
           </cell>
           <cell r="L67" t="str">
-            <v>Lazcozh277</v>
+            <v>Nonona2022</v>
           </cell>
         </row>
         <row r="68">
           <cell r="J68">
-            <v>23385665709</v>
+            <v>27058846916</v>
           </cell>
           <cell r="K68">
-            <v>23385665709</v>
+            <v>27058846916</v>
           </cell>
           <cell r="L68" t="str">
-            <v>Dallas5058</v>
+            <v>Lazcozh277</v>
           </cell>
         </row>
         <row r="69">
           <cell r="J69">
-            <v>23120538209</v>
+            <v>23385665709</v>
           </cell>
           <cell r="K69">
-            <v>23120538209</v>
+            <v>23385665709</v>
           </cell>
           <cell r="L69" t="str">
-            <v>Pliniolin239</v>
+            <v>Dallas5058</v>
           </cell>
         </row>
         <row r="70">
           <cell r="J70">
-            <v>27173878309</v>
+            <v>23120538209</v>
           </cell>
           <cell r="K70">
-            <v>27173878309</v>
+            <v>23120538209</v>
           </cell>
           <cell r="L70" t="str">
-            <v>Lionettoc280</v>
+            <v>Pliniolin240</v>
           </cell>
         </row>
         <row r="71">
           <cell r="J71">
-            <v>20203385049</v>
+            <v>27173878309</v>
           </cell>
           <cell r="K71">
-            <v>20203385049</v>
+            <v>27173878309</v>
           </cell>
           <cell r="L71" t="str">
-            <v>Posadas4601</v>
+            <v>Lionettoc280</v>
           </cell>
         </row>
         <row r="72">
           <cell r="J72">
-            <v>23173121539</v>
+            <v>20203385049</v>
           </cell>
           <cell r="K72">
-            <v>23173121539</v>
+            <v>20203385049</v>
           </cell>
           <cell r="L72" t="str">
-            <v>Posadas4602</v>
+            <v>Posadas4601</v>
           </cell>
         </row>
         <row r="73">
@@ -1395,541 +1395,563 @@
         </row>
         <row r="74">
           <cell r="J74">
-            <v>23246015139</v>
+            <v>23173121539</v>
           </cell>
           <cell r="K74">
-            <v>23246015139</v>
+            <v>23173121539</v>
           </cell>
           <cell r="L74" t="str">
-            <v>Posadas4919</v>
+            <v>Posadas4602</v>
           </cell>
         </row>
         <row r="75">
           <cell r="J75">
-            <v>27163651918</v>
+            <v>23246015139</v>
           </cell>
           <cell r="K75">
-            <v>27163651918</v>
+            <v>23246015139</v>
           </cell>
           <cell r="L75" t="str">
-            <v>Martina2783</v>
+            <v>Posadas4919</v>
           </cell>
         </row>
         <row r="76">
           <cell r="J76">
-            <v>20168296011</v>
+            <v>27163651918</v>
           </cell>
           <cell r="K76">
-            <v>20168296011</v>
+            <v>27163651918</v>
           </cell>
           <cell r="L76" t="str">
-            <v>Jcmayol2021</v>
+            <v>Martina2783</v>
           </cell>
         </row>
         <row r="77">
           <cell r="J77">
-            <v>20203383666</v>
+            <v>20168296011</v>
           </cell>
           <cell r="K77">
-            <v>20203383666</v>
+            <v>20168296011</v>
           </cell>
           <cell r="L77" t="str">
-            <v>Rmayol2021</v>
+            <v>Jcmayol2022</v>
           </cell>
         </row>
         <row r="78">
           <cell r="J78">
-            <v>20133762761</v>
+            <v>20203383666</v>
           </cell>
           <cell r="K78">
-            <v>30657146850</v>
+            <v>20203383666</v>
           </cell>
           <cell r="L78" t="str">
-            <v>Cferreyra59</v>
+            <v>Rmayol2022</v>
           </cell>
         </row>
         <row r="79">
           <cell r="J79">
-            <v>27128520851</v>
+            <v>20133762761</v>
           </cell>
           <cell r="K79">
-            <v>27128520851</v>
+            <v>30657146850</v>
           </cell>
           <cell r="L79" t="str">
-            <v>Molaspatricia272</v>
+            <v>Cferreyra60</v>
           </cell>
         </row>
         <row r="80">
           <cell r="J80">
-            <v>20077065637</v>
+            <v>27128520851</v>
           </cell>
           <cell r="K80">
-            <v>20077065637</v>
+            <v>27128520851</v>
           </cell>
           <cell r="L80" t="str">
-            <v>PEnsaanibal207</v>
+            <v>Molaspatricia273</v>
           </cell>
         </row>
         <row r="81">
           <cell r="J81">
-            <v>20343667966</v>
+            <v>20077065637</v>
           </cell>
           <cell r="K81">
-            <v>20343667966</v>
+            <v>20077065637</v>
           </cell>
           <cell r="L81" t="str">
-            <v>bruno206</v>
+            <v>PEnsaanibal208</v>
           </cell>
         </row>
         <row r="82">
           <cell r="J82">
-            <v>20075878495</v>
+            <v>20343667966</v>
           </cell>
           <cell r="K82">
-            <v>20075878495</v>
+            <v>20343667966</v>
           </cell>
           <cell r="L82" t="str">
-            <v>Roberto205</v>
+            <v>bruno206</v>
           </cell>
         </row>
         <row r="83">
           <cell r="J83">
-            <v>20334250327</v>
+            <v>20075878495</v>
           </cell>
           <cell r="K83">
-            <v>20334250327</v>
+            <v>20075878495</v>
           </cell>
           <cell r="L83" t="str">
-            <v>Pensalu208</v>
+            <v>Roberto205</v>
           </cell>
         </row>
         <row r="84">
           <cell r="J84">
-            <v>27354872183</v>
+            <v>20334250327</v>
           </cell>
           <cell r="K84">
-            <v>27354872183</v>
+            <v>20334250327</v>
           </cell>
           <cell r="L84" t="str">
-            <v>Peugenia273</v>
+            <v>Pensalu208</v>
           </cell>
         </row>
         <row r="85">
           <cell r="J85">
-            <v>20085452291</v>
+            <v>27354872183</v>
           </cell>
           <cell r="K85">
-            <v>20085452291</v>
+            <v>27354872183</v>
           </cell>
           <cell r="L85" t="str">
-            <v>Oscarp2022</v>
+            <v>Peugenia275</v>
           </cell>
         </row>
         <row r="86">
           <cell r="J86">
-            <v>20334250327</v>
+            <v>20085452291</v>
           </cell>
           <cell r="K86">
-            <v>30716503816</v>
+            <v>20085452291</v>
           </cell>
           <cell r="L86" t="str">
-            <v>Pensalu208</v>
+            <v>Oscarp2022</v>
           </cell>
         </row>
         <row r="87">
           <cell r="J87">
-            <v>27176756751</v>
-          </cell>
-          <cell r="K87" t="e">
-            <v>#VALUE!</v>
+            <v>20334250327</v>
+          </cell>
+          <cell r="K87">
+            <v>30716503816</v>
           </cell>
           <cell r="L87" t="str">
-            <v>aTHENUCHI06</v>
+            <v>Pensalu208</v>
           </cell>
         </row>
         <row r="88">
           <cell r="J88">
-            <v>20172521771</v>
-          </cell>
-          <cell r="K88">
-            <v>20172521771</v>
+            <v>27176756751</v>
+          </cell>
+          <cell r="K88" t="e">
+            <v>#VALUE!</v>
           </cell>
           <cell r="L88" t="str">
-            <v>Pereyra2022</v>
+            <v>aTHENUCHI06</v>
           </cell>
         </row>
         <row r="89">
           <cell r="J89">
-            <v>20115533003</v>
+            <v>20172521771</v>
           </cell>
           <cell r="K89">
-            <v>20115533003</v>
+            <v>20172521771</v>
           </cell>
           <cell r="L89" t="str">
-            <v>Jorgefer2021</v>
+            <v>Pereyra2022</v>
           </cell>
         </row>
         <row r="90">
           <cell r="J90">
-            <v>27169311027</v>
+            <v>20115533003</v>
           </cell>
           <cell r="K90">
-            <v>27169311027</v>
+            <v>20115533003</v>
           </cell>
           <cell r="L90" t="str">
-            <v>Piasentinia277</v>
+            <v>Jorgefer2021</v>
           </cell>
         </row>
         <row r="91">
           <cell r="J91">
-            <v>27176756751</v>
+            <v>27169311027</v>
           </cell>
           <cell r="K91">
-            <v>27176756751</v>
+            <v>27169311027</v>
           </cell>
           <cell r="L91" t="str">
-            <v>aTHENUCHI06</v>
+            <v>Piasentinia277</v>
           </cell>
         </row>
         <row r="92">
           <cell r="J92">
-            <v>20100325048</v>
+            <v>27176756751</v>
           </cell>
           <cell r="K92">
-            <v>30708370122</v>
+            <v>27176756751</v>
           </cell>
           <cell r="L92" t="str">
-            <v>Jouliae1356</v>
+            <v>aTHENUCHI06</v>
           </cell>
         </row>
         <row r="93">
           <cell r="J93">
-            <v>20109908852</v>
+            <v>20100325048</v>
           </cell>
           <cell r="K93">
-            <v>30687910636</v>
+            <v>30708370122</v>
           </cell>
           <cell r="L93" t="str">
-            <v>Robertob2330</v>
+            <v>Jouliae1356</v>
           </cell>
         </row>
         <row r="94">
           <cell r="J94">
-            <v>20168291931</v>
+            <v>20109908852</v>
           </cell>
           <cell r="K94">
-            <v>30709206695</v>
+            <v>30687910636</v>
           </cell>
           <cell r="L94" t="str">
-            <v>apipeAPIPE789</v>
+            <v>RobertoB2330</v>
           </cell>
         </row>
         <row r="95">
           <cell r="J95">
-            <v>20309592159</v>
+            <v>20168291931</v>
           </cell>
           <cell r="K95">
-            <v>20309592159</v>
+            <v>30709206695</v>
           </cell>
           <cell r="L95" t="str">
-            <v>Rieraariel209</v>
+            <v>apipeAPIPE789</v>
           </cell>
         </row>
         <row r="96">
           <cell r="J96">
-            <v>20121182832</v>
+            <v>20309592159</v>
           </cell>
           <cell r="K96">
-            <v>20121182832</v>
+            <v>20309592159</v>
           </cell>
           <cell r="L96" t="str">
-            <v>RieraManuel202</v>
+            <v>Rieraariel209</v>
           </cell>
         </row>
         <row r="97">
           <cell r="J97">
-            <v>20173120282</v>
+            <v>20121182832</v>
           </cell>
           <cell r="K97">
-            <v>20173120282</v>
+            <v>20121182832</v>
           </cell>
           <cell r="L97" t="str">
-            <v>Marcelo2021</v>
+            <v>RieraManuel2023</v>
           </cell>
         </row>
         <row r="98">
           <cell r="J98">
-            <v>27217236547</v>
+            <v>20173120282</v>
           </cell>
           <cell r="K98">
-            <v>27217236547</v>
+            <v>20173120282</v>
           </cell>
           <cell r="L98" t="str">
-            <v>Florencia2000</v>
+            <v>Marcelo2021</v>
           </cell>
         </row>
         <row r="99">
           <cell r="J99">
-            <v>20116452023</v>
+            <v>27217236547</v>
           </cell>
           <cell r="K99">
-            <v>30510926583</v>
+            <v>27217236547</v>
           </cell>
           <cell r="L99" t="str">
-            <v>Ljrc421992</v>
+            <v>Florencia2000</v>
           </cell>
         </row>
         <row r="100">
           <cell r="J100">
-            <v>23351897074</v>
+            <v>20116452023</v>
           </cell>
           <cell r="K100">
-            <v>23351897074</v>
+            <v>30510926583</v>
           </cell>
           <cell r="L100" t="str">
-            <v>Lucila2022</v>
+            <v>Ljrc421992</v>
           </cell>
         </row>
         <row r="101">
           <cell r="J101">
-            <v>27109797257</v>
+            <v>23351897074</v>
           </cell>
           <cell r="K101">
-            <v>27109797257</v>
+            <v>23351897074</v>
           </cell>
           <cell r="L101" t="str">
-            <v>Olgascotto279</v>
+            <v>Lucila2022</v>
           </cell>
         </row>
         <row r="102">
           <cell r="J102">
-            <v>27068286323</v>
+            <v>27109797257</v>
           </cell>
           <cell r="K102">
-            <v>27068286323</v>
+            <v>27109797257</v>
           </cell>
           <cell r="L102" t="str">
-            <v>Sesmero2022</v>
+            <v>Olgascotto279</v>
           </cell>
         </row>
         <row r="103">
           <cell r="J103">
-            <v>27067089680</v>
+            <v>27068286323</v>
           </cell>
           <cell r="K103">
-            <v>27067089680</v>
+            <v>27068286323</v>
           </cell>
           <cell r="L103" t="str">
-            <v>Tsesmero271</v>
+            <v>Sesmero2023</v>
           </cell>
         </row>
         <row r="104">
           <cell r="J104">
-            <v>23149462074</v>
+            <v>27067089680</v>
           </cell>
           <cell r="K104">
-            <v>23149462074</v>
+            <v>27067089680</v>
           </cell>
           <cell r="L104" t="str">
-            <v>Gabriela2022</v>
+            <v>Tsesmero272</v>
           </cell>
         </row>
         <row r="105">
           <cell r="J105">
-            <v>23248265159</v>
+            <v>23149462074</v>
           </cell>
           <cell r="K105">
-            <v>23248265159</v>
+            <v>23149462074</v>
           </cell>
           <cell r="L105" t="str">
-            <v>Sebastian10</v>
+            <v>Gabriela2023</v>
           </cell>
         </row>
         <row r="106">
           <cell r="J106">
-            <v>23242946669</v>
+            <v>23248265159</v>
           </cell>
           <cell r="K106">
-            <v>23242946669</v>
+            <v>23248265159</v>
           </cell>
           <cell r="L106" t="str">
-            <v>Miguelsoto666</v>
+            <v>Sebastian10</v>
           </cell>
         </row>
         <row r="107">
           <cell r="J107">
-            <v>27201932268</v>
+            <v>23242946669</v>
           </cell>
           <cell r="K107">
-            <v>27201932268</v>
+            <v>23242946669</v>
           </cell>
           <cell r="L107" t="str">
-            <v>Samanta1035</v>
+            <v>Miguelsoto667</v>
           </cell>
         </row>
         <row r="108">
           <cell r="J108">
-            <v>27201178776</v>
+            <v>27201932268</v>
           </cell>
           <cell r="K108">
-            <v>27201178776</v>
+            <v>27201932268</v>
           </cell>
           <cell r="L108" t="str">
-            <v>Monicaszy22</v>
+            <v>Samanta1035</v>
           </cell>
         </row>
         <row r="109">
           <cell r="J109">
-            <v>27348916942</v>
+            <v>27201178776</v>
           </cell>
           <cell r="K109">
-            <v>27348916942</v>
+            <v>27201178776</v>
           </cell>
           <cell r="L109" t="str">
-            <v>karen580</v>
+            <v>Monicaszy11</v>
           </cell>
         </row>
         <row r="110">
           <cell r="J110">
-            <v>20149462601</v>
+            <v>27348916942</v>
           </cell>
           <cell r="K110">
-            <v>20149462601</v>
+            <v>27348916942</v>
           </cell>
           <cell r="L110" t="str">
-            <v>Marcelo202</v>
+            <v>karen580</v>
           </cell>
         </row>
         <row r="111">
           <cell r="J111">
-            <v>20074827455</v>
+            <v>20149462601</v>
           </cell>
           <cell r="K111">
-            <v>20074827455</v>
+            <v>20149462601</v>
           </cell>
           <cell r="L111" t="str">
-            <v>Ricardo102</v>
+            <v>Marcelo203</v>
           </cell>
         </row>
         <row r="112">
           <cell r="J112">
-            <v>20130056637</v>
+            <v>20074827455</v>
           </cell>
           <cell r="K112">
-            <v>20130056637</v>
+            <v>20074827455</v>
           </cell>
           <cell r="L112" t="str">
-            <v>Tabbiae207</v>
+            <v>Ricardo103</v>
           </cell>
         </row>
         <row r="113">
           <cell r="J113">
-            <v>20133762761</v>
+            <v>20130056637</v>
           </cell>
           <cell r="K113">
-            <v>30715577743</v>
+            <v>20130056637</v>
           </cell>
           <cell r="L113" t="str">
-            <v>Cferreyra59</v>
+            <v>Tabbiae208</v>
           </cell>
         </row>
         <row r="114">
           <cell r="J114">
-            <v>27236873744</v>
+            <v>20133762761</v>
           </cell>
           <cell r="K114">
-            <v>27236873744</v>
+            <v>30715577743</v>
           </cell>
           <cell r="L114" t="str">
-            <v>Sotomalena0818</v>
+            <v>Cferreyra60</v>
           </cell>
         </row>
         <row r="115">
           <cell r="J115">
-            <v>20051985967</v>
+            <v>27236873744</v>
           </cell>
           <cell r="K115">
-            <v>20051985967</v>
+            <v>27236873744</v>
           </cell>
           <cell r="L115" t="str">
-            <v>Andres5967</v>
+            <v>Sotomalena0818</v>
           </cell>
         </row>
         <row r="116">
           <cell r="J116">
-            <v>20230966738</v>
+            <v>20051985967</v>
           </cell>
           <cell r="K116">
-            <v>20230966738</v>
+            <v>20051985967</v>
           </cell>
           <cell r="L116" t="str">
-            <v>Durrutia4440</v>
+            <v>Andres5967</v>
           </cell>
         </row>
         <row r="117">
           <cell r="J117">
-            <v>27116976620</v>
+            <v>20230966738</v>
           </cell>
           <cell r="K117">
-            <v>27116976620</v>
+            <v>20230966738</v>
           </cell>
           <cell r="L117" t="str">
-            <v>Miriamu272</v>
+            <v>Durrutia4441</v>
           </cell>
         </row>
         <row r="118">
           <cell r="J118">
-            <v>20044483441</v>
-          </cell>
-          <cell r="K118" t="e">
-            <v>#VALUE!</v>
+            <v>27116976620</v>
+          </cell>
+          <cell r="K118">
+            <v>27116976620</v>
           </cell>
           <cell r="L118" t="str">
-            <v>Calafate2022</v>
+            <v>Miriamu272</v>
           </cell>
         </row>
         <row r="119">
           <cell r="J119">
-            <v>20315731330</v>
-          </cell>
-          <cell r="K119">
-            <v>20315731330</v>
+            <v>20044483441</v>
+          </cell>
+          <cell r="K119" t="e">
+            <v>#VALUE!</v>
           </cell>
           <cell r="L119" t="str">
-            <v>AngelGV200</v>
+            <v>Calafate2022</v>
           </cell>
         </row>
         <row r="120">
           <cell r="J120">
-            <v>20110780525</v>
+            <v>20315731330</v>
           </cell>
           <cell r="K120">
-            <v>20110780525</v>
+            <v>20315731330</v>
           </cell>
           <cell r="L120" t="str">
-            <v>vare205</v>
+            <v>AngelGV200</v>
           </cell>
         </row>
         <row r="121">
           <cell r="J121">
-            <v>20301650087</v>
+            <v>20110780525</v>
           </cell>
           <cell r="K121">
-            <v>20301650087</v>
+            <v>20110780525</v>
           </cell>
           <cell r="L121" t="str">
-            <v>VarenizaLeo208</v>
+            <v>vare205</v>
           </cell>
         </row>
         <row r="122">
           <cell r="J122">
+            <v>20301650087</v>
+          </cell>
+          <cell r="K122">
+            <v>20301650087</v>
+          </cell>
+          <cell r="L122" t="str">
+            <v>VarenizaLeo208</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="J123">
             <v>20334250327</v>
           </cell>
-          <cell r="K122">
+          <cell r="K123">
             <v>30715795864</v>
           </cell>
-          <cell r="L122" t="str">
+          <cell r="L123" t="str">
             <v>Pensalu208</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="J124">
+            <v>27142090959</v>
+          </cell>
+          <cell r="K124">
+            <v>27142090959</v>
+          </cell>
+          <cell r="L124" t="str">
+            <v>Trapito5058</v>
           </cell>
         </row>
       </sheetData>
@@ -2206,7 +2228,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,16 +2356,16 @@
         <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;R2,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O2" s="4" t="e">
-        <f>VLOOKUP(C2,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P2" s="5" t="e">
-        <f t="shared" ref="P2:P33" si="1">IF(EXACT(O2,E2),"ü","x")</f>
-        <v>#N/A</v>
+      <c r="O2" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C2,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P2" s="5" t="str">
+        <f>IF(EXACT(O2,E2),"ü","x")</f>
+        <v>x</v>
       </c>
       <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q33" si="2">ROW(A2)</f>
+        <f t="shared" ref="Q2:Q33" si="1">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="R2" s="2" t="str">
@@ -2351,15 +2373,15 @@
         <v>202211</v>
       </c>
       <c r="S2" s="4">
-        <f t="shared" ref="S2:S33" si="3">IF(C2=C1,1,0)</f>
+        <f t="shared" ref="S2:S33" si="2">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="4">IF(C2=C3,1,0)</f>
+        <f t="shared" ref="T2:T33" si="3">IF(C2=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" ref="U2:U33" si="5">SUM(S2:T2)</f>
+        <f t="shared" ref="U2:U33" si="4">SUM(S2:T2)</f>
         <v>1</v>
       </c>
     </row>
@@ -2388,35 +2410,35 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J66" si="6">F3</f>
+        <f t="shared" ref="J3:J66" si="5">F3</f>
         <v>44866</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K66" si="7">EOMONTH(F3,0)</f>
+        <f t="shared" ref="K3:K66" si="6">EOMONTH(F3,0)</f>
         <v>44895</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L66" si="8">CONCATENATE(TEXT(A3,"0")," - ","MCE - ",YEAR(J3),TEXT(MONTH(J3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="L3:L66" si="7">CONCATENATE(TEXT(A3,"0")," - ","MCE - ",YEAR(J3),TEXT(MONTH(J3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - MCE - 202211 - 20000000000 - Cliente</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M66" si="9">CONCATENATE(TEXT(A3,"0")," - ","MCR - ",YEAR(J3),TEXT(MONTH(J3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="M3:M66" si="8">CONCATENATE(TEXT(A3,"0")," - ","MCR - ",YEAR(J3),TEXT(MONTH(J3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - MCR - 202211 - 20000000000 - Cliente</v>
       </c>
       <c r="N3" s="5" t="str">
         <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;R3,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O3" s="4" t="e">
-        <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P3" s="5" t="e">
+      <c r="O3" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C3,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P3" s="5" t="str">
+        <f t="shared" ref="P3:P66" si="9">IF(EXACT(O3,E3),"ü","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" s="4">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="R3" s="2" t="str">
@@ -2424,15 +2446,15 @@
         <v>202211</v>
       </c>
       <c r="S3" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U3" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2460,35 +2482,35 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K4" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L4" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L4" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M4" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M4" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N4" s="5" t="str">
         <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;R4,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O4" s="4" t="e">
-        <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P4" s="5" t="e">
+      <c r="O4" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C4,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P4" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q4" s="4">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R4" s="2" t="str">
@@ -2496,15 +2518,15 @@
         <v>202211</v>
       </c>
       <c r="S4" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U4" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2532,35 +2554,35 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K5" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L5" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L5" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M5" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M5" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N5" s="5" t="str">
         <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;R5,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="4" t="e">
-        <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P5" s="5" t="e">
+      <c r="O5" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C5,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P5" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R5" s="2" t="str">
@@ -2568,15 +2590,15 @@
         <v>202211</v>
       </c>
       <c r="S5" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2604,35 +2626,35 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K6" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L6" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L6" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M6" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M6" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N6" s="5" t="str">
         <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;R6,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O6" s="4" t="e">
-        <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P6" s="5" t="e">
+      <c r="O6" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C6,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R6" s="2" t="str">
@@ -2640,15 +2662,15 @@
         <v>202211</v>
       </c>
       <c r="S6" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2676,35 +2698,35 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L7" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L7" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M7" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M7" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N7" s="5" t="str">
         <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;R7,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O7" s="4" t="e">
-        <f>VLOOKUP(C7,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P7" s="5" t="e">
+      <c r="O7" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C7,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P7" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R7" s="2" t="str">
@@ -2712,15 +2734,15 @@
         <v>202211</v>
       </c>
       <c r="S7" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2748,35 +2770,35 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K8" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L8" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L8" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M8" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M8" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N8" s="5" t="str">
         <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;R8,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O8" s="4" t="e">
-        <f>VLOOKUP(C8,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P8" s="5" t="e">
+      <c r="O8" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C8,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P8" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="R8" s="2" t="str">
@@ -2784,15 +2806,15 @@
         <v>202211</v>
       </c>
       <c r="S8" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2820,35 +2842,35 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K9" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L9" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L9" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M9" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M9" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N9" s="5" t="str">
         <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;R9,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O9" s="4" t="e">
-        <f>VLOOKUP(C9,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P9" s="5" t="e">
+      <c r="O9" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C9,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="R9" s="2" t="str">
@@ -2856,15 +2878,15 @@
         <v>202211</v>
       </c>
       <c r="S9" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2892,35 +2914,35 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K10" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L10" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L10" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M10" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M10" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N10" s="5" t="str">
         <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;R10,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O10" s="4" t="e">
-        <f>VLOOKUP(C10,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P10" s="5" t="e">
+      <c r="O10" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C10,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R10" s="2" t="str">
@@ -2928,15 +2950,15 @@
         <v>202211</v>
       </c>
       <c r="S10" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T10" s="4">
+      <c r="U10" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2964,35 +2986,35 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K11" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L11" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L11" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M11" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M11" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N11" s="5" t="str">
         <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;R11,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O11" s="4" t="e">
-        <f>VLOOKUP(C11,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P11" s="5" t="e">
+      <c r="O11" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C11,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P11" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="R11" s="2" t="str">
@@ -3000,15 +3022,15 @@
         <v>202211</v>
       </c>
       <c r="S11" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T11" s="4">
+      <c r="U11" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U11" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3036,35 +3058,35 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K12" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L12" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L12" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M12" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M12" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N12" s="5" t="str">
         <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;R12,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O12" s="4" t="e">
-        <f>VLOOKUP(C12,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="5" t="e">
+      <c r="O12" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C12,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P12" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="R12" s="2" t="str">
@@ -3072,15 +3094,15 @@
         <v>202211</v>
       </c>
       <c r="S12" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3108,35 +3130,35 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K13" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L13" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L13" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M13" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M13" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N13" s="5" t="str">
         <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;R13,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O13" s="4" t="e">
-        <f>VLOOKUP(C13,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P13" s="5" t="e">
+      <c r="O13" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C13,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q13" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="R13" s="2" t="str">
@@ -3144,15 +3166,15 @@
         <v>202211</v>
       </c>
       <c r="S13" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U13" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3180,35 +3202,35 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K14" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L14" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L14" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M14" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M14" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N14" s="5" t="str">
         <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;R14,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O14" s="4" t="e">
-        <f>VLOOKUP(C14,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="5" t="e">
+      <c r="O14" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C14,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P14" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q14" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="R14" s="2" t="str">
@@ -3216,15 +3238,15 @@
         <v>202211</v>
       </c>
       <c r="S14" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3252,35 +3274,35 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K15" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L15" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L15" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M15" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M15" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N15" s="5" t="str">
         <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;R15,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O15" s="4" t="e">
-        <f>VLOOKUP(C15,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="5" t="e">
+      <c r="O15" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C15,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q15" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R15" s="2" t="str">
@@ -3288,15 +3310,15 @@
         <v>202211</v>
       </c>
       <c r="S15" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T15" s="4">
+      <c r="U15" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3324,35 +3346,35 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K16" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L16" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L16" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M16" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M16" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N16" s="5" t="str">
         <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;R16,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O16" s="4" t="e">
-        <f>VLOOKUP(C16,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P16" s="5" t="e">
+      <c r="O16" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C16,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P16" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q16" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="R16" s="2" t="str">
@@ -3360,15 +3382,15 @@
         <v>202211</v>
       </c>
       <c r="S16" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T16" s="4">
+      <c r="U16" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U16" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3396,35 +3418,35 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K17" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L17" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L17" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M17" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M17" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N17" s="5" t="str">
         <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;R17,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O17" s="4" t="e">
-        <f>VLOOKUP(C17,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="5" t="e">
+      <c r="O17" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C17,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q17" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="R17" s="2" t="str">
@@ -3432,15 +3454,15 @@
         <v>202211</v>
       </c>
       <c r="S17" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U17" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3468,35 +3490,35 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K18" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L18" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L18" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M18" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M18" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N18" s="5" t="str">
         <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;R18,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O18" s="4" t="e">
-        <f>VLOOKUP(C18,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="5" t="e">
+      <c r="O18" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C18,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q18" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="R18" s="2" t="str">
@@ -3504,15 +3526,15 @@
         <v>202211</v>
       </c>
       <c r="S18" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U18" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3540,35 +3562,35 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K19" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L19" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L19" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M19" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M19" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N19" s="5" t="str">
         <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;R19,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O19" s="4" t="e">
-        <f>VLOOKUP(C19,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="5" t="e">
+      <c r="O19" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C19,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q19" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="R19" s="2" t="str">
@@ -3576,15 +3598,15 @@
         <v>202211</v>
       </c>
       <c r="S19" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U19" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3612,35 +3634,35 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K20" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L20" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L20" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M20" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M20" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N20" s="5" t="str">
         <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;R20,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O20" s="4" t="e">
-        <f>VLOOKUP(C20,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="5" t="e">
+      <c r="O20" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C20,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P20" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q20" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="R20" s="2" t="str">
@@ -3648,15 +3670,15 @@
         <v>202211</v>
       </c>
       <c r="S20" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T20" s="4">
+      <c r="U20" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U20" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3684,35 +3706,35 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K21" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L21" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L21" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M21" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M21" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N21" s="5" t="str">
         <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;R21,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O21" s="4" t="e">
-        <f>VLOOKUP(C21,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" s="5" t="e">
+      <c r="O21" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C21,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P21" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q21" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="R21" s="2" t="str">
@@ -3720,15 +3742,15 @@
         <v>202211</v>
       </c>
       <c r="S21" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T21" s="4">
+      <c r="U21" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U21" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3756,35 +3778,35 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K22" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L22" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L22" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M22" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M22" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N22" s="5" t="str">
         <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;R22,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O22" s="4" t="e">
-        <f>VLOOKUP(C22,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" s="5" t="e">
+      <c r="O22" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C22,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P22" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q22" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="R22" s="2" t="str">
@@ -3792,15 +3814,15 @@
         <v>202211</v>
       </c>
       <c r="S22" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U22" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3828,35 +3850,35 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K23" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L23" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L23" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M23" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M23" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N23" s="5" t="str">
         <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;R23,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O23" s="4" t="e">
-        <f>VLOOKUP(C23,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" s="5" t="e">
+      <c r="O23" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C23,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P23" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q23" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="R23" s="2" t="str">
@@ -3864,15 +3886,15 @@
         <v>202211</v>
       </c>
       <c r="S23" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T23" s="4">
+      <c r="U23" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U23" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3900,35 +3922,35 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K24" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K24" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L24" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L24" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M24" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M24" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N24" s="5" t="str">
         <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;R24,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O24" s="4" t="e">
-        <f>VLOOKUP(C24,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P24" s="5" t="e">
+      <c r="O24" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C24,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P24" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q24" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="R24" s="2" t="str">
@@ -3936,15 +3958,15 @@
         <v>202211</v>
       </c>
       <c r="S24" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T24" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T24" s="4">
+      <c r="U24" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U24" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3972,35 +3994,35 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K25" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K25" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L25" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L25" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M25" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M25" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N25" s="5" t="str">
         <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;R25,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O25" s="4" t="e">
-        <f>VLOOKUP(C25,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" s="5" t="e">
+      <c r="O25" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C25,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P25" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q25" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="R25" s="2" t="str">
@@ -4008,15 +4030,15 @@
         <v>202211</v>
       </c>
       <c r="S25" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T25" s="4">
+      <c r="U25" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U25" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4044,35 +4066,35 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K26" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K26" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L26" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L26" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M26" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M26" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N26" s="5" t="str">
         <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;R26,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O26" s="4" t="e">
-        <f>VLOOKUP(C26,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P26" s="5" t="e">
+      <c r="O26" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C26,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P26" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q26" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="R26" s="2" t="str">
@@ -4080,15 +4102,15 @@
         <v>202211</v>
       </c>
       <c r="S26" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T26" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T26" s="4">
+      <c r="U26" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U26" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4116,35 +4138,35 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K27" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K27" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L27" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L27" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M27" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M27" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N27" s="5" t="str">
         <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;R27,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O27" s="4" t="e">
-        <f>VLOOKUP(C27,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P27" s="5" t="e">
+      <c r="O27" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C27,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P27" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q27" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="R27" s="2" t="str">
@@ -4152,15 +4174,15 @@
         <v>202211</v>
       </c>
       <c r="S27" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T27" s="4">
+      <c r="U27" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U27" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4188,35 +4210,35 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K28" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K28" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L28" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L28" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M28" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M28" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N28" s="5" t="str">
         <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;R28,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O28" s="4" t="e">
-        <f>VLOOKUP(C28,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P28" s="5" t="e">
+      <c r="O28" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C28,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P28" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="R28" s="2" t="str">
@@ -4224,15 +4246,15 @@
         <v>202211</v>
       </c>
       <c r="S28" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T28" s="4">
+      <c r="U28" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U28" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4260,35 +4282,35 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K29" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K29" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L29" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L29" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M29" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M29" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N29" s="5" t="str">
         <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;R29,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O29" s="4" t="e">
-        <f>VLOOKUP(C29,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P29" s="5" t="e">
+      <c r="O29" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C29,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q29" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" s="4">
-        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="R29" s="2" t="str">
@@ -4296,15 +4318,15 @@
         <v>202211</v>
       </c>
       <c r="S29" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T29" s="4">
+      <c r="U29" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U29" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4332,35 +4354,35 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K30" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L30" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L30" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M30" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M30" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N30" s="5" t="str">
         <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;R30,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O30" s="4" t="e">
-        <f>VLOOKUP(C30,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P30" s="5" t="e">
+      <c r="O30" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C30,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P30" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q30" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" s="4">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="R30" s="2" t="str">
@@ -4368,15 +4390,15 @@
         <v>202211</v>
       </c>
       <c r="S30" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T30" s="4">
+      <c r="U30" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U30" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4404,35 +4426,35 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K31" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K31" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L31" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L31" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M31" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M31" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N31" s="5" t="str">
         <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;R31,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O31" s="4" t="e">
-        <f>VLOOKUP(C31,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P31" s="5" t="e">
+      <c r="O31" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C31,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P31" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q31" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q31" s="4">
-        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="R31" s="2" t="str">
@@ -4440,15 +4462,15 @@
         <v>202211</v>
       </c>
       <c r="S31" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T31" s="4">
+      <c r="U31" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U31" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4476,35 +4498,35 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K32" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K32" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L32" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L32" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M32" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M32" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N32" s="5" t="str">
         <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;R32,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O32" s="4" t="e">
-        <f>VLOOKUP(C32,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P32" s="5" t="e">
+      <c r="O32" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C32,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P32" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q32" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q32" s="4">
-        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="R32" s="2" t="str">
@@ -4512,15 +4534,15 @@
         <v>202211</v>
       </c>
       <c r="S32" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T32" s="4">
+      <c r="U32" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U32" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4548,35 +4570,35 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K33" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K33" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L33" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L33" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M33" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M33" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N33" s="5" t="str">
         <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;R33,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O33" s="4" t="e">
-        <f>VLOOKUP(C33,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P33" s="5" t="e">
+      <c r="O33" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C33,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P33" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q33" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" s="4">
-        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="R33" s="2" t="str">
@@ -4584,15 +4606,15 @@
         <v>202211</v>
       </c>
       <c r="S33" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T33" s="4">
+      <c r="U33" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U33" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4620,35 +4642,35 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K34" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K34" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L34" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L34" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M34" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M34" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N34" s="5" t="str">
         <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;R34,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O34" s="4" t="e">
-        <f>VLOOKUP(C34,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P34" s="5" t="e">
-        <f t="shared" ref="P34:P65" si="12">IF(EXACT(O34,E34),"ü","x")</f>
-        <v>#N/A</v>
+      <c r="O34" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C34,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P34" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q69" si="13">ROW(A34)</f>
+        <f t="shared" ref="Q34:Q69" si="12">ROW(A34)</f>
         <v>34</v>
       </c>
       <c r="R34" s="2" t="str">
@@ -4656,15 +4678,15 @@
         <v>202211</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" ref="S34:S67" si="14">IF(C34=C33,1,0)</f>
+        <f t="shared" ref="S34:S67" si="13">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" ref="T34:T67" si="15">IF(C34=C35,1,0)</f>
+        <f t="shared" ref="T34:T67" si="14">IF(C34=C35,1,0)</f>
         <v>1</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:U65" si="16">SUM(S34:T34)</f>
+        <f t="shared" ref="U34:U65" si="15">SUM(S34:T34)</f>
         <v>2</v>
       </c>
     </row>
@@ -4692,35 +4714,35 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K35" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K35" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L35" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L35" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M35" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M35" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N35" s="5" t="str">
         <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;R35,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O35" s="4" t="e">
-        <f>VLOOKUP(C35,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P35" s="5" t="e">
+      <c r="O35" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C35,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P35" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q35" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q35" s="4">
-        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="R35" s="2" t="str">
@@ -4728,15 +4750,15 @@
         <v>202211</v>
       </c>
       <c r="S35" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T35" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T35" s="4">
+      <c r="U35" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U35" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -4764,35 +4786,35 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K36" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K36" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L36" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L36" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M36" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M36" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N36" s="5" t="str">
         <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;R36,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O36" s="4" t="e">
-        <f>VLOOKUP(C36,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P36" s="5" t="e">
+      <c r="O36" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C36,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P36" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q36" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q36" s="4">
-        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="R36" s="2" t="str">
@@ -4800,15 +4822,15 @@
         <v>202211</v>
       </c>
       <c r="S36" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T36" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T36" s="4">
+      <c r="U36" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U36" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -4836,35 +4858,35 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K37" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K37" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L37" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L37" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M37" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M37" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N37" s="5" t="str">
         <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;R37,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O37" s="4" t="e">
-        <f>VLOOKUP(C37,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P37" s="5" t="e">
+      <c r="O37" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C37,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P37" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q37" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q37" s="4">
-        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="R37" s="2" t="str">
@@ -4872,15 +4894,15 @@
         <v>202211</v>
       </c>
       <c r="S37" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T37" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T37" s="4">
+      <c r="U37" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U37" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -4908,35 +4930,35 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K38" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L38" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L38" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M38" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M38" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N38" s="5" t="str">
         <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;R38,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O38" s="4" t="e">
-        <f>VLOOKUP(C38,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P38" s="5" t="e">
+      <c r="O38" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C38,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P38" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q38" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" s="4">
-        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="R38" s="2" t="str">
@@ -4944,15 +4966,15 @@
         <v>202211</v>
       </c>
       <c r="S38" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T38" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T38" s="4">
+      <c r="U38" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U38" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -4980,35 +5002,35 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K39" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K39" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L39" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L39" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M39" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M39" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N39" s="5" t="str">
         <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;R39,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O39" s="4" t="e">
-        <f>VLOOKUP(C39,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P39" s="5" t="e">
+      <c r="O39" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C39,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P39" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q39" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" s="4">
-        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="R39" s="2" t="str">
@@ -5016,15 +5038,15 @@
         <v>202211</v>
       </c>
       <c r="S39" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T39" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T39" s="4">
+      <c r="U39" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U39" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5052,35 +5074,35 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K40" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K40" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L40" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L40" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M40" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M40" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N40" s="5" t="str">
         <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;R40,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O40" s="4" t="e">
-        <f>VLOOKUP(C40,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P40" s="5" t="e">
+      <c r="O40" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C40,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P40" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q40" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q40" s="4">
-        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="R40" s="2" t="str">
@@ -5088,15 +5110,15 @@
         <v>202211</v>
       </c>
       <c r="S40" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T40" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T40" s="4">
+      <c r="U40" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U40" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5124,35 +5146,35 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K41" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K41" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L41" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L41" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M41" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M41" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N41" s="5" t="str">
         <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;R41,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O41" s="4" t="e">
-        <f>VLOOKUP(C41,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P41" s="5" t="e">
+      <c r="O41" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C41,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P41" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q41" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q41" s="4">
-        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="R41" s="2" t="str">
@@ -5160,15 +5182,15 @@
         <v>202211</v>
       </c>
       <c r="S41" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T41" s="4">
+      <c r="U41" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U41" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5196,35 +5218,35 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K42" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K42" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L42" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L42" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M42" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M42" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N42" s="5" t="str">
         <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;R42,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O42" s="4" t="e">
-        <f>VLOOKUP(C42,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P42" s="5" t="e">
+      <c r="O42" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C42,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P42" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q42" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q42" s="4">
-        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="R42" s="2" t="str">
@@ -5232,15 +5254,15 @@
         <v>202211</v>
       </c>
       <c r="S42" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T42" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T42" s="4">
+      <c r="U42" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U42" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5268,35 +5290,35 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K43" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K43" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L43" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L43" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M43" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M43" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N43" s="5" t="str">
         <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;R43,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O43" s="4" t="e">
-        <f>VLOOKUP(C43,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P43" s="5" t="e">
+      <c r="O43" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C43,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P43" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q43" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q43" s="4">
-        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="R43" s="2" t="str">
@@ -5304,15 +5326,15 @@
         <v>202211</v>
       </c>
       <c r="S43" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T43" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T43" s="4">
+      <c r="U43" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U43" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5340,35 +5362,35 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K44" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K44" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L44" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L44" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M44" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M44" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N44" s="5" t="str">
         <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;R44,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O44" s="4" t="e">
-        <f>VLOOKUP(C44,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P44" s="5" t="e">
+      <c r="O44" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C44,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P44" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q44" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q44" s="4">
-        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="R44" s="2" t="str">
@@ -5376,15 +5398,15 @@
         <v>202211</v>
       </c>
       <c r="S44" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T44" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T44" s="4">
+      <c r="U44" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U44" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5412,35 +5434,35 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K45" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K45" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L45" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L45" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M45" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M45" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N45" s="5" t="str">
         <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;R45,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O45" s="4" t="e">
-        <f>VLOOKUP(C45,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P45" s="5" t="e">
+      <c r="O45" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C45,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P45" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q45" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q45" s="4">
-        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="R45" s="2" t="str">
@@ -5448,15 +5470,15 @@
         <v>202211</v>
       </c>
       <c r="S45" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T45" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T45" s="4">
+      <c r="U45" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U45" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5484,35 +5506,35 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K46" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K46" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L46" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L46" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M46" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M46" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N46" s="5" t="str">
         <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;R46,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O46" s="4" t="e">
-        <f>VLOOKUP(C46,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P46" s="5" t="e">
+      <c r="O46" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C46,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P46" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q46" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q46" s="4">
-        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="R46" s="2" t="str">
@@ -5520,15 +5542,15 @@
         <v>202211</v>
       </c>
       <c r="S46" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T46" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T46" s="4">
+      <c r="U46" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U46" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5556,35 +5578,35 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K47" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K47" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L47" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L47" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M47" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M47" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N47" s="5" t="str">
         <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;R47,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O47" s="4" t="e">
-        <f>VLOOKUP(C47,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P47" s="5" t="e">
+      <c r="O47" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C47,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P47" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q47" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q47" s="4">
-        <f t="shared" si="13"/>
         <v>47</v>
       </c>
       <c r="R47" s="2" t="str">
@@ -5592,15 +5614,15 @@
         <v>202211</v>
       </c>
       <c r="S47" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T47" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T47" s="4">
+      <c r="U47" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U47" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5628,35 +5650,35 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K48" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K48" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L48" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L48" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M48" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M48" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N48" s="5" t="str">
         <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;R48,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O48" s="4" t="e">
-        <f>VLOOKUP(C48,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P48" s="5" t="e">
+      <c r="O48" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C48,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P48" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q48" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q48" s="4">
-        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="R48" s="2" t="str">
@@ -5664,15 +5686,15 @@
         <v>202211</v>
       </c>
       <c r="S48" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T48" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T48" s="4">
+      <c r="U48" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U48" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5700,35 +5722,35 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K49" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K49" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L49" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L49" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M49" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M49" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N49" s="5" t="str">
         <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;R49,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O49" s="4" t="e">
-        <f>VLOOKUP(C49,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P49" s="5" t="e">
+      <c r="O49" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C49,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P49" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q49" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q49" s="4">
-        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="R49" s="2" t="str">
@@ -5736,15 +5758,15 @@
         <v>202211</v>
       </c>
       <c r="S49" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T49" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T49" s="4">
+      <c r="U49" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U49" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5772,35 +5794,35 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K50" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K50" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L50" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L50" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M50" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M50" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N50" s="5" t="str">
         <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;R50,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O50" s="4" t="e">
-        <f>VLOOKUP(C50,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P50" s="5" t="e">
+      <c r="O50" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C50,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P50" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q50" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q50" s="4">
-        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="R50" s="2" t="str">
@@ -5808,15 +5830,15 @@
         <v>202211</v>
       </c>
       <c r="S50" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T50" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T50" s="4">
+      <c r="U50" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U50" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5844,35 +5866,35 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K51" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K51" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L51" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L51" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M51" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M51" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N51" s="5" t="str">
         <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;R51,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O51" s="4" t="e">
-        <f>VLOOKUP(C51,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P51" s="5" t="e">
+      <c r="O51" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C51,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P51" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q51" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q51" s="4">
-        <f t="shared" si="13"/>
         <v>51</v>
       </c>
       <c r="R51" s="2" t="str">
@@ -5880,15 +5902,15 @@
         <v>202211</v>
       </c>
       <c r="S51" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T51" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T51" s="4">
+      <c r="U51" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U51" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5916,35 +5938,35 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K52" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K52" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L52" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L52" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M52" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M52" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N52" s="5" t="str">
         <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;R52,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O52" s="4" t="e">
-        <f>VLOOKUP(C52,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P52" s="5" t="e">
+      <c r="O52" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C52,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P52" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q52" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q52" s="4">
-        <f t="shared" si="13"/>
         <v>52</v>
       </c>
       <c r="R52" s="2" t="str">
@@ -5952,15 +5974,15 @@
         <v>202211</v>
       </c>
       <c r="S52" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T52" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T52" s="4">
+      <c r="U52" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U52" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -5988,35 +6010,35 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K53" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K53" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L53" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L53" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M53" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M53" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N53" s="5" t="str">
         <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;R53,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O53" s="4" t="e">
-        <f>VLOOKUP(C53,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P53" s="5" t="e">
+      <c r="O53" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C53,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P53" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q53" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q53" s="4">
-        <f t="shared" si="13"/>
         <v>53</v>
       </c>
       <c r="R53" s="2" t="str">
@@ -6024,15 +6046,15 @@
         <v>202211</v>
       </c>
       <c r="S53" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T53" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T53" s="4">
+      <c r="U53" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U53" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6060,35 +6082,35 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K54" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K54" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L54" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L54" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M54" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M54" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N54" s="5" t="str">
         <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;R54,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O54" s="4" t="e">
-        <f>VLOOKUP(C54,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P54" s="5" t="e">
+      <c r="O54" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C54,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P54" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q54" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q54" s="4">
-        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="R54" s="2" t="str">
@@ -6096,15 +6118,15 @@
         <v>202211</v>
       </c>
       <c r="S54" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T54" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T54" s="4">
+      <c r="U54" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U54" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6132,35 +6154,35 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K55" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K55" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L55" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L55" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M55" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M55" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N55" s="5" t="str">
         <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;R55,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O55" s="4" t="e">
-        <f>VLOOKUP(C55,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P55" s="5" t="e">
+      <c r="O55" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C55,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P55" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q55" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q55" s="4">
-        <f t="shared" si="13"/>
         <v>55</v>
       </c>
       <c r="R55" s="2" t="str">
@@ -6168,15 +6190,15 @@
         <v>202211</v>
       </c>
       <c r="S55" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T55" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T55" s="4">
+      <c r="U55" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U55" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6204,35 +6226,35 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K56" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K56" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L56" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L56" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M56" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M56" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N56" s="5" t="str">
         <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;R56,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O56" s="4" t="e">
-        <f>VLOOKUP(C56,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P56" s="5" t="e">
+      <c r="O56" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C56,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P56" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q56" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q56" s="4">
-        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="R56" s="2" t="str">
@@ -6240,15 +6262,15 @@
         <v>202211</v>
       </c>
       <c r="S56" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T56" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T56" s="4">
+      <c r="U56" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U56" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6276,35 +6298,35 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K57" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K57" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L57" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L57" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M57" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M57" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N57" s="5" t="str">
         <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;R57,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O57" s="4" t="e">
-        <f>VLOOKUP(C57,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P57" s="5" t="e">
+      <c r="O57" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C57,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P57" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q57" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q57" s="4">
-        <f t="shared" si="13"/>
         <v>57</v>
       </c>
       <c r="R57" s="2" t="str">
@@ -6312,15 +6334,15 @@
         <v>202211</v>
       </c>
       <c r="S57" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T57" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T57" s="4">
+      <c r="U57" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U57" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6348,35 +6370,35 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K58" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K58" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L58" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L58" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M58" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M58" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N58" s="5" t="str">
         <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;R58,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O58" s="4" t="e">
-        <f>VLOOKUP(C58,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P58" s="5" t="e">
+      <c r="O58" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C58,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P58" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q58" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q58" s="4">
-        <f t="shared" si="13"/>
         <v>58</v>
       </c>
       <c r="R58" s="2" t="str">
@@ -6384,15 +6406,15 @@
         <v>202211</v>
       </c>
       <c r="S58" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T58" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T58" s="4">
+      <c r="U58" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U58" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6420,35 +6442,35 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K59" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K59" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L59" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L59" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M59" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M59" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N59" s="5" t="str">
         <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;R59,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O59" s="4" t="e">
-        <f>VLOOKUP(C59,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P59" s="5" t="e">
+      <c r="O59" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C59,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P59" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q59" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q59" s="4">
-        <f t="shared" si="13"/>
         <v>59</v>
       </c>
       <c r="R59" s="2" t="str">
@@ -6456,15 +6478,15 @@
         <v>202211</v>
       </c>
       <c r="S59" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T59" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T59" s="4">
+      <c r="U59" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U59" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6492,35 +6514,35 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K60" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K60" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L60" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L60" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M60" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M60" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N60" s="5" t="str">
         <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;R60,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O60" s="4" t="e">
-        <f>VLOOKUP(C60,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P60" s="5" t="e">
+      <c r="O60" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C60,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P60" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q60" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q60" s="4">
-        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="R60" s="2" t="str">
@@ -6528,15 +6550,15 @@
         <v>202211</v>
       </c>
       <c r="S60" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T60" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T60" s="4">
+      <c r="U60" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U60" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6564,35 +6586,35 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K61" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K61" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L61" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L61" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M61" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M61" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N61" s="5" t="str">
         <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;R61,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O61" s="4" t="e">
-        <f>VLOOKUP(C61,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P61" s="5" t="e">
+      <c r="O61" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C61,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P61" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q61" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q61" s="4">
-        <f t="shared" si="13"/>
         <v>61</v>
       </c>
       <c r="R61" s="2" t="str">
@@ -6600,15 +6622,15 @@
         <v>202211</v>
       </c>
       <c r="S61" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T61" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T61" s="4">
+      <c r="U61" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U61" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6636,35 +6658,35 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K62" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K62" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L62" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L62" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M62" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M62" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N62" s="5" t="str">
         <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;R62,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O62" s="4" t="e">
-        <f>VLOOKUP(C62,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P62" s="5" t="e">
+      <c r="O62" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C62,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P62" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q62" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q62" s="4">
-        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="R62" s="2" t="str">
@@ -6672,15 +6694,15 @@
         <v>202211</v>
       </c>
       <c r="S62" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T62" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T62" s="4">
+      <c r="U62" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U62" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6708,35 +6730,35 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K63" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K63" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L63" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L63" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M63" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M63" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N63" s="5" t="str">
         <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;R63,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O63" s="4" t="e">
-        <f>VLOOKUP(C63,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P63" s="5" t="e">
+      <c r="O63" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C63,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P63" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q63" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q63" s="4">
-        <f t="shared" si="13"/>
         <v>63</v>
       </c>
       <c r="R63" s="2" t="str">
@@ -6744,15 +6766,15 @@
         <v>202211</v>
       </c>
       <c r="S63" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T63" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T63" s="4">
+      <c r="U63" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U63" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6780,35 +6802,35 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K64" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K64" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L64" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L64" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M64" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M64" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N64" s="5" t="str">
         <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;R64,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O64" s="4" t="e">
-        <f>VLOOKUP(C64,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P64" s="5" t="e">
+      <c r="O64" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C64,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P64" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q64" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q64" s="4">
-        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="R64" s="2" t="str">
@@ -6816,15 +6838,15 @@
         <v>202211</v>
       </c>
       <c r="S64" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T64" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T64" s="4">
+      <c r="U64" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U64" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6852,35 +6874,35 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K65" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K65" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L65" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L65" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M65" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M65" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N65" s="5" t="str">
         <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;R65,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O65" s="4" t="e">
-        <f>VLOOKUP(C65,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P65" s="5" t="e">
+      <c r="O65" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C65,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P65" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="Q65" s="4">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q65" s="4">
-        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="R65" s="2" t="str">
@@ -6888,15 +6910,15 @@
         <v>202211</v>
       </c>
       <c r="S65" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T65" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T65" s="4">
+      <c r="U65" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U65" s="4">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -6924,35 +6946,35 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="2">
+        <f t="shared" si="5"/>
+        <v>44866</v>
+      </c>
+      <c r="K66" s="2">
         <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="K66" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L66" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>44895</v>
-      </c>
-      <c r="L66" s="2" t="str">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M66" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M66" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N66" s="5" t="str">
         <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;R66,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O66" s="4" t="e">
-        <f>VLOOKUP(C66,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P66" s="5" t="e">
-        <f t="shared" ref="P66:P97" si="17">IF(EXACT(O66,E66),"ü","x")</f>
-        <v>#N/A</v>
+      <c r="O66" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C66,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P66" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>x</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
       <c r="R66" s="2" t="str">
@@ -6960,15 +6982,15 @@
         <v>202211</v>
       </c>
       <c r="S66" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T66" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T66" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="U66" s="4">
-        <f t="shared" ref="U66:U69" si="18">SUM(S66:T66)</f>
+        <f t="shared" ref="U66:U69" si="16">SUM(S66:T66)</f>
         <v>2</v>
       </c>
     </row>
@@ -6996,51 +7018,51 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="2">
-        <f t="shared" ref="J67:J69" si="19">F67</f>
+        <f t="shared" ref="J67:J69" si="17">F67</f>
         <v>44866</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" ref="K67:K69" si="20">EOMONTH(F67,0)</f>
+        <f t="shared" ref="K67:K69" si="18">EOMONTH(F67,0)</f>
         <v>44895</v>
       </c>
       <c r="L67" s="2" t="str">
-        <f t="shared" ref="L67:L69" si="21">CONCATENATE(TEXT(A67,"0")," - ","MCE - ",YEAR(J67),TEXT(MONTH(J67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="L67:L69" si="19">CONCATENATE(TEXT(A67,"0")," - ","MCE - ",YEAR(J67),TEXT(MONTH(J67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f t="shared" ref="M67:M69" si="22">CONCATENATE(TEXT(A67,"0")," - ","MCR - ",YEAR(J67),TEXT(MONTH(J67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="M67:M69" si="20">CONCATENATE(TEXT(A67,"0")," - ","MCR - ",YEAR(J67),TEXT(MONTH(J67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N67" s="5" t="str">
         <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;R67,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O67" s="4" t="e">
-        <f>VLOOKUP(C67,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P67" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="O67" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C67,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P67" s="5" t="str">
+        <f t="shared" ref="P67:P69" si="21">IF(EXACT(O67,E67),"ü","x")</f>
+        <v>x</v>
       </c>
       <c r="Q67" s="4">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="R67" s="2" t="str">
+        <f t="shared" ref="R67:R69" si="22">YEAR(J67)&amp;TEXT(MONTH(J67),"00")</f>
+        <v>202211</v>
+      </c>
+      <c r="S67" s="4">
         <f t="shared" si="13"/>
-        <v>67</v>
-      </c>
-      <c r="R67" s="2" t="str">
-        <f t="shared" ref="R67:R69" si="23">YEAR(J67)&amp;TEXT(MONTH(J67),"00")</f>
-        <v>202211</v>
-      </c>
-      <c r="S67" s="4">
+        <v>1</v>
+      </c>
+      <c r="T67" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T67" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="U67" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -7068,51 +7090,51 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="2">
+        <f t="shared" si="17"/>
+        <v>44866</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="18"/>
+        <v>44895</v>
+      </c>
+      <c r="L68" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>44866</v>
-      </c>
-      <c r="K68" s="2">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M68" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="L68" s="2" t="str">
-        <f t="shared" si="21"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M68" s="2" t="str">
-        <f t="shared" si="22"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N68" s="5" t="str">
         <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;R68,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O68" s="4" t="e">
-        <f>VLOOKUP(C68,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P68" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="O68" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C68,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P68" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>x</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="R68" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>202211</v>
       </c>
       <c r="S68" s="4">
-        <f t="shared" ref="S68:S69" si="24">IF(C68=C67,1,0)</f>
+        <f t="shared" ref="S68:S69" si="23">IF(C68=C67,1,0)</f>
         <v>1</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" ref="T68:T69" si="25">IF(C68=C69,1,0)</f>
+        <f t="shared" ref="T68:T69" si="24">IF(C68=C69,1,0)</f>
         <v>1</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -7140,51 +7162,51 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="2">
+        <f t="shared" si="17"/>
+        <v>44866</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="18"/>
+        <v>44895</v>
+      </c>
+      <c r="L69" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>44866</v>
-      </c>
-      <c r="K69" s="2">
+        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
+      </c>
+      <c r="M69" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>44895</v>
-      </c>
-      <c r="L69" s="2" t="str">
-        <f t="shared" si="21"/>
-        <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M69" s="2" t="str">
-        <f t="shared" si="22"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N69" s="5" t="str">
         <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;R69,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O69" s="4" t="e">
-        <f>VLOOKUP(C69,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P69" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="O69" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C69,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P69" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>x</v>
       </c>
       <c r="Q69" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="R69" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>202211</v>
+      </c>
+      <c r="S69" s="4">
         <f t="shared" si="23"/>
-        <v>202211</v>
-      </c>
-      <c r="S69" s="4">
+        <v>1</v>
+      </c>
+      <c r="T69" s="4">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="T69" s="4">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>

--- a/Listado Mis Comprobantes 2.0.xlsx
+++ b/Listado Mis Comprobantes 2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga_MC_AFIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga_MC_AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF36BB0-20A8-48AC-99C0-BBD08DACC9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B79193-BC32-4478-A067-141BF1B6B7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$U$69</definedName>
@@ -40,8 +39,94 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Agustín Bustos</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DF466533-012A-4A95-A6F7-842F7AC84370}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CUIT del representado, con -
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{73599282-B966-46C6-B01C-9D3319C044B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se puede armar con un concatenado entre la Raiz y datos de los clientes. Por ejemplo:
+D:\Cliente\Cliente1\Mis Comprobantes\Periodo\
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{AA46A539-645D-4BA9-A78F-2D4601E3AB95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Si no se guarda el archivo en la ubicación o nombre definido Cambiar por NO
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="24">
   <si>
     <t>Nro</t>
   </si>
@@ -62,9 +147,6 @@
   </si>
   <si>
     <t>MCR</t>
-  </si>
-  <si>
-    <t>Desde (No Formula)</t>
   </si>
   <si>
     <t>Importar</t>
@@ -111,12 +193,18 @@
   <si>
     <t>Ubicación Descarga</t>
   </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +230,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -177,13 +278,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,1373 +694,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2" t="str">
-            <v>CUIT AFIP</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>CUIT Contrib</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>Clave</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>27061302838</v>
-          </cell>
-          <cell r="K3">
-            <v>27061302838</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>Acostadelia101</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>23183086499</v>
-          </cell>
-          <cell r="K4">
-            <v>30709419567</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>Horacio310</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>20203385197</v>
-          </cell>
-          <cell r="K5">
-            <v>20203385197</v>
-          </cell>
-          <cell r="L5" t="str">
-            <v>JCAmarilla2272</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>20170395167</v>
-          </cell>
-          <cell r="K6">
-            <v>30592932446</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>Hugohope209</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>20114794083</v>
-          </cell>
-          <cell r="K7">
-            <v>30708553715</v>
-          </cell>
-          <cell r="L7" t="str">
-            <v>Victordf2022</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>20208992032</v>
-          </cell>
-          <cell r="K8">
-            <v>20208992032</v>
-          </cell>
-          <cell r="L8" t="str">
-            <v>ASTgerardo22</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K9">
-            <v>20175255819</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>23183086499</v>
-          </cell>
-          <cell r="K10">
-            <v>23183086499</v>
-          </cell>
-          <cell r="L10" t="str">
-            <v>Horacio310</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>20416948926</v>
-          </cell>
-          <cell r="K11">
-            <v>20416948926</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>Beitia2022</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>20398190727</v>
-          </cell>
-          <cell r="K12">
-            <v>20398190727</v>
-          </cell>
-          <cell r="L12" t="str">
-            <v>Unaibeitia207</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>20246008109</v>
-          </cell>
-          <cell r="K13">
-            <v>20246008109</v>
-          </cell>
-          <cell r="L13" t="str">
-            <v>L@rrygrb210</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>20168291281</v>
-          </cell>
-          <cell r="K14">
-            <v>20168291281</v>
-          </cell>
-          <cell r="L14" t="str">
-            <v>busTos1964</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>20147130202</v>
-          </cell>
-          <cell r="K15">
-            <v>30650940667</v>
-          </cell>
-          <cell r="L15" t="str">
-            <v>Martinb202</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16">
-            <v>20147130202</v>
-          </cell>
-          <cell r="K16">
-            <v>20147130202</v>
-          </cell>
-          <cell r="L16" t="str">
-            <v>Martinb202</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17">
-            <v>27148268105</v>
-          </cell>
-          <cell r="K17">
-            <v>27148268105</v>
-          </cell>
-          <cell r="L17" t="str">
-            <v>Gracielac276</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18">
-            <v>27261827366</v>
-          </cell>
-          <cell r="K18">
-            <v>27261827366</v>
-          </cell>
-          <cell r="L18" t="str">
-            <v>CarballoG12</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19">
-            <v>23149462074</v>
-          </cell>
-          <cell r="K19">
-            <v>30707912223</v>
-          </cell>
-          <cell r="L19" t="str">
-            <v>Gabriela2023</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="J20">
-            <v>20082750488</v>
-          </cell>
-          <cell r="K20">
-            <v>20082750488</v>
-          </cell>
-          <cell r="L20" t="str">
-            <v>CastroC210</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="J21">
-            <v>20303980378</v>
-          </cell>
-          <cell r="K21">
-            <v>20303980378</v>
-          </cell>
-          <cell r="L21" t="str">
-            <v>Sinclair.209</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="J22">
-            <v>20277690323</v>
-          </cell>
-          <cell r="K22">
-            <v>20277690323</v>
-          </cell>
-          <cell r="L22" t="str">
-            <v>Julian79</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23">
-            <v>20174123072</v>
-          </cell>
-          <cell r="K23">
-            <v>30672372697</v>
-          </cell>
-          <cell r="L23" t="str">
-            <v>Carlos1510</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24">
-            <v>27222731416</v>
-          </cell>
-          <cell r="K24">
-            <v>30712026797</v>
-          </cell>
-          <cell r="L24" t="str">
-            <v>Nonona2022</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="J25">
-            <v>23351897074</v>
-          </cell>
-          <cell r="K25">
-            <v>30715085409</v>
-          </cell>
-          <cell r="L25" t="str">
-            <v>Lucila2022</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="J26">
-            <v>27109797257</v>
-          </cell>
-          <cell r="K26">
-            <v>30717059111</v>
-          </cell>
-          <cell r="L26" t="str">
-            <v>Olgascotto279</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="J27">
-            <v>27171709925</v>
-          </cell>
-          <cell r="K27">
-            <v>27171709925</v>
-          </cell>
-          <cell r="L27" t="str">
-            <v>Coronasm276</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28">
-            <v>20208993462</v>
-          </cell>
-          <cell r="K28">
-            <v>20208993462</v>
-          </cell>
-          <cell r="L28" t="str">
-            <v>corrales46</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29">
-            <v>20168291680</v>
-          </cell>
-          <cell r="K29">
-            <v>20168291680</v>
-          </cell>
-          <cell r="L29" t="str">
-            <v>Luisc30002</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30">
-            <v>20114794083</v>
-          </cell>
-          <cell r="K30">
-            <v>30672355393</v>
-          </cell>
-          <cell r="L30" t="str">
-            <v>Victordf2022</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31">
-            <v>27055761685</v>
-          </cell>
-          <cell r="K31">
-            <v>27055761685</v>
-          </cell>
-          <cell r="L31" t="str">
-            <v>AngelaC275</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32">
-            <v>23267800499</v>
-          </cell>
-          <cell r="K32">
-            <v>23267800499</v>
-          </cell>
-          <cell r="L32" t="str">
-            <v>diego10</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33">
-            <v>23051636864</v>
-          </cell>
-          <cell r="K33">
-            <v>23051636864</v>
-          </cell>
-          <cell r="L33" t="str">
-            <v>LUCILA10</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34">
-            <v>27201178776</v>
-          </cell>
-          <cell r="K34">
-            <v>30717537153</v>
-          </cell>
-          <cell r="L34" t="str">
-            <v>Monicaszy11</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35">
-            <v>20149462601</v>
-          </cell>
-          <cell r="K35">
-            <v>30709431834</v>
-          </cell>
-          <cell r="L35" t="str">
-            <v>Marcelo203</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K36">
-            <v>30568711420</v>
-          </cell>
-          <cell r="L36" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37">
-            <v>20361947674</v>
-          </cell>
-          <cell r="K37">
-            <v>20361947674</v>
-          </cell>
-          <cell r="L37" t="str">
-            <v>Cesare2021</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38">
-            <v>20149466356</v>
-          </cell>
-          <cell r="K38">
-            <v>20149466356</v>
-          </cell>
-          <cell r="L38" t="str">
-            <v>REEnriquez208</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39">
-            <v>20169933031</v>
-          </cell>
-          <cell r="K39">
-            <v>20169933031</v>
-          </cell>
-          <cell r="L39" t="str">
-            <v>Estudio2022</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40">
-            <v>20168296011</v>
-          </cell>
-          <cell r="K40">
-            <v>33653520439</v>
-          </cell>
-          <cell r="L40" t="str">
-            <v>Jcmayol2022</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41">
-            <v>20170395167</v>
-          </cell>
-          <cell r="K41">
-            <v>30672356381</v>
-          </cell>
-          <cell r="L41" t="str">
-            <v>Hugohope209</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="J42">
-            <v>27182653972</v>
-          </cell>
-          <cell r="K42">
-            <v>27182653972</v>
-          </cell>
-          <cell r="L42" t="str">
-            <v>Chabuca273</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43">
-            <v>20168291834</v>
-          </cell>
-          <cell r="K43">
-            <v>20168291834</v>
-          </cell>
-          <cell r="L43" t="str">
-            <v>TOfi04041966</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44">
-            <v>20133762761</v>
-          </cell>
-          <cell r="K44">
-            <v>20133762761</v>
-          </cell>
-          <cell r="L44" t="str">
-            <v>Cferreyra60</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45">
-            <v>20327623967</v>
-          </cell>
-          <cell r="K45">
-            <v>20327623967</v>
-          </cell>
-          <cell r="L45" t="str">
-            <v>Candresferreyra86</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46">
-            <v>23342751644</v>
-          </cell>
-          <cell r="K46">
-            <v>23342751644</v>
-          </cell>
-          <cell r="L46" t="str">
-            <v>CVFerreyra89</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47">
-            <v>20170394845</v>
-          </cell>
-          <cell r="K47">
-            <v>20170394845</v>
-          </cell>
-          <cell r="L47" t="str">
-            <v>MJferreyra64</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48">
-            <v>23173121539</v>
-          </cell>
-          <cell r="K48">
-            <v>30715347926</v>
-          </cell>
-          <cell r="L48" t="str">
-            <v>Posadas4601</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K49">
-            <v>30708878762</v>
-          </cell>
-          <cell r="L49" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K50">
-            <v>30708626348</v>
-          </cell>
-          <cell r="L50" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K51">
-            <v>30701299538</v>
-          </cell>
-          <cell r="L51" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="J52">
-            <v>20203387882</v>
-          </cell>
-          <cell r="K52">
-            <v>20203387882</v>
-          </cell>
-          <cell r="L52" t="str">
-            <v>FREAZA01</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="J53">
-            <v>20149466356</v>
-          </cell>
-          <cell r="K53">
-            <v>30710404131</v>
-          </cell>
-          <cell r="L53" t="str">
-            <v>REEnriquez208</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="J54">
-            <v>27111482476</v>
-          </cell>
-          <cell r="K54">
-            <v>27111482476</v>
-          </cell>
-          <cell r="L54" t="str">
-            <v>DORA2716</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="J55">
-            <v>20170395167</v>
-          </cell>
-          <cell r="K55">
-            <v>20170395167</v>
-          </cell>
-          <cell r="L55" t="str">
-            <v>Hugohope209</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56">
-            <v>27343669262</v>
-          </cell>
-          <cell r="K56">
-            <v>27343669262</v>
-          </cell>
-          <cell r="L56" t="str">
-            <v>Jessica2022</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="J57">
-            <v>24056449082</v>
-          </cell>
-          <cell r="K57">
-            <v>24056449082</v>
-          </cell>
-          <cell r="L57" t="str">
-            <v>Johnny2023</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="J58">
-            <v>27364071359</v>
-          </cell>
-          <cell r="K58">
-            <v>27364071359</v>
-          </cell>
-          <cell r="L58" t="str">
-            <v>MelissaH1104</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59">
-            <v>20149466739</v>
-          </cell>
-          <cell r="K59">
-            <v>20149466739</v>
-          </cell>
-          <cell r="L59" t="str">
-            <v>Ricardo212</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="J60">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K60">
-            <v>33712529909</v>
-          </cell>
-          <cell r="L60" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61">
-            <v>20174123072</v>
-          </cell>
-          <cell r="K61">
-            <v>20174123072</v>
-          </cell>
-          <cell r="L61" t="str">
-            <v>Carlos1510</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62">
-            <v>20408973598</v>
-          </cell>
-          <cell r="K62">
-            <v>20408973598</v>
-          </cell>
-          <cell r="L62" t="str">
-            <v>Matiasinsa209</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="J63">
-            <v>23377046129</v>
-          </cell>
-          <cell r="K63">
-            <v>23377046129</v>
-          </cell>
-          <cell r="L63" t="str">
-            <v>Nicolas240</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="J64">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K64">
-            <v>20100325048</v>
-          </cell>
-          <cell r="L64" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="J65">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K65">
-            <v>33712370829</v>
-          </cell>
-          <cell r="L65" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="J66">
-            <v>27045207388</v>
-          </cell>
-          <cell r="K66">
-            <v>27045207388</v>
-          </cell>
-          <cell r="L66" t="str">
-            <v>Anamaria2022</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="J67">
-            <v>27222731416</v>
-          </cell>
-          <cell r="K67">
-            <v>27222731416</v>
-          </cell>
-          <cell r="L67" t="str">
-            <v>Nonona2022</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="J68">
-            <v>27058846916</v>
-          </cell>
-          <cell r="K68">
-            <v>27058846916</v>
-          </cell>
-          <cell r="L68" t="str">
-            <v>Lazcozh277</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="J69">
-            <v>23385665709</v>
-          </cell>
-          <cell r="K69">
-            <v>23385665709</v>
-          </cell>
-          <cell r="L69" t="str">
-            <v>Dallas5058</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="J70">
-            <v>23120538209</v>
-          </cell>
-          <cell r="K70">
-            <v>23120538209</v>
-          </cell>
-          <cell r="L70" t="str">
-            <v>Pliniolin240</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="J71">
-            <v>27173878309</v>
-          </cell>
-          <cell r="K71">
-            <v>27173878309</v>
-          </cell>
-          <cell r="L71" t="str">
-            <v>Lionettoc280</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="J72">
-            <v>20203385049</v>
-          </cell>
-          <cell r="K72">
-            <v>20203385049</v>
-          </cell>
-          <cell r="L72" t="str">
-            <v>Posadas4601</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="J73">
-            <v>23173121539</v>
-          </cell>
-          <cell r="K73">
-            <v>23173121539</v>
-          </cell>
-          <cell r="L73" t="str">
-            <v>Posadas4602</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="J74">
-            <v>23173121539</v>
-          </cell>
-          <cell r="K74">
-            <v>23173121539</v>
-          </cell>
-          <cell r="L74" t="str">
-            <v>Posadas4602</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="J75">
-            <v>23246015139</v>
-          </cell>
-          <cell r="K75">
-            <v>23246015139</v>
-          </cell>
-          <cell r="L75" t="str">
-            <v>Posadas4919</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="J76">
-            <v>27163651918</v>
-          </cell>
-          <cell r="K76">
-            <v>27163651918</v>
-          </cell>
-          <cell r="L76" t="str">
-            <v>Martina2783</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="J77">
-            <v>20168296011</v>
-          </cell>
-          <cell r="K77">
-            <v>20168296011</v>
-          </cell>
-          <cell r="L77" t="str">
-            <v>Jcmayol2022</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="J78">
-            <v>20203383666</v>
-          </cell>
-          <cell r="K78">
-            <v>20203383666</v>
-          </cell>
-          <cell r="L78" t="str">
-            <v>Rmayol2022</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="J79">
-            <v>20133762761</v>
-          </cell>
-          <cell r="K79">
-            <v>30657146850</v>
-          </cell>
-          <cell r="L79" t="str">
-            <v>Cferreyra60</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="J80">
-            <v>27128520851</v>
-          </cell>
-          <cell r="K80">
-            <v>27128520851</v>
-          </cell>
-          <cell r="L80" t="str">
-            <v>Molaspatricia273</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="J81">
-            <v>20077065637</v>
-          </cell>
-          <cell r="K81">
-            <v>20077065637</v>
-          </cell>
-          <cell r="L81" t="str">
-            <v>PEnsaanibal208</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="J82">
-            <v>20343667966</v>
-          </cell>
-          <cell r="K82">
-            <v>20343667966</v>
-          </cell>
-          <cell r="L82" t="str">
-            <v>bruno206</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="J83">
-            <v>20075878495</v>
-          </cell>
-          <cell r="K83">
-            <v>20075878495</v>
-          </cell>
-          <cell r="L83" t="str">
-            <v>Roberto205</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="J84">
-            <v>20334250327</v>
-          </cell>
-          <cell r="K84">
-            <v>20334250327</v>
-          </cell>
-          <cell r="L84" t="str">
-            <v>Pensalu208</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="J85">
-            <v>27354872183</v>
-          </cell>
-          <cell r="K85">
-            <v>27354872183</v>
-          </cell>
-          <cell r="L85" t="str">
-            <v>Peugenia275</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="J86">
-            <v>20085452291</v>
-          </cell>
-          <cell r="K86">
-            <v>20085452291</v>
-          </cell>
-          <cell r="L86" t="str">
-            <v>Oscarp2022</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="J87">
-            <v>20334250327</v>
-          </cell>
-          <cell r="K87">
-            <v>30716503816</v>
-          </cell>
-          <cell r="L87" t="str">
-            <v>Pensalu208</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="J88">
-            <v>27176756751</v>
-          </cell>
-          <cell r="K88" t="e">
-            <v>#VALUE!</v>
-          </cell>
-          <cell r="L88" t="str">
-            <v>aTHENUCHI06</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="J89">
-            <v>20172521771</v>
-          </cell>
-          <cell r="K89">
-            <v>20172521771</v>
-          </cell>
-          <cell r="L89" t="str">
-            <v>Pereyra2022</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="J90">
-            <v>20115533003</v>
-          </cell>
-          <cell r="K90">
-            <v>20115533003</v>
-          </cell>
-          <cell r="L90" t="str">
-            <v>Jorgefer2021</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="J91">
-            <v>27169311027</v>
-          </cell>
-          <cell r="K91">
-            <v>27169311027</v>
-          </cell>
-          <cell r="L91" t="str">
-            <v>Piasentinia277</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="J92">
-            <v>27176756751</v>
-          </cell>
-          <cell r="K92">
-            <v>27176756751</v>
-          </cell>
-          <cell r="L92" t="str">
-            <v>aTHENUCHI06</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="J93">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K93">
-            <v>30708370122</v>
-          </cell>
-          <cell r="L93" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="J94">
-            <v>20109908852</v>
-          </cell>
-          <cell r="K94">
-            <v>30687910636</v>
-          </cell>
-          <cell r="L94" t="str">
-            <v>RobertoB2330</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="J95">
-            <v>20168291931</v>
-          </cell>
-          <cell r="K95">
-            <v>30709206695</v>
-          </cell>
-          <cell r="L95" t="str">
-            <v>apipeAPIPE789</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="J96">
-            <v>20309592159</v>
-          </cell>
-          <cell r="K96">
-            <v>20309592159</v>
-          </cell>
-          <cell r="L96" t="str">
-            <v>Rieraariel209</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="J97">
-            <v>20121182832</v>
-          </cell>
-          <cell r="K97">
-            <v>20121182832</v>
-          </cell>
-          <cell r="L97" t="str">
-            <v>RieraManuel2023</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="J98">
-            <v>20173120282</v>
-          </cell>
-          <cell r="K98">
-            <v>20173120282</v>
-          </cell>
-          <cell r="L98" t="str">
-            <v>Marcelo2021</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="J99">
-            <v>27217236547</v>
-          </cell>
-          <cell r="K99">
-            <v>27217236547</v>
-          </cell>
-          <cell r="L99" t="str">
-            <v>Florencia2000</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="J100">
-            <v>20116452023</v>
-          </cell>
-          <cell r="K100">
-            <v>30510926583</v>
-          </cell>
-          <cell r="L100" t="str">
-            <v>Ljrc421992</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="J101">
-            <v>23351897074</v>
-          </cell>
-          <cell r="K101">
-            <v>23351897074</v>
-          </cell>
-          <cell r="L101" t="str">
-            <v>Lucila2022</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="J102">
-            <v>27109797257</v>
-          </cell>
-          <cell r="K102">
-            <v>27109797257</v>
-          </cell>
-          <cell r="L102" t="str">
-            <v>Olgascotto279</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="J103">
-            <v>27068286323</v>
-          </cell>
-          <cell r="K103">
-            <v>27068286323</v>
-          </cell>
-          <cell r="L103" t="str">
-            <v>Sesmero2023</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="J104">
-            <v>27067089680</v>
-          </cell>
-          <cell r="K104">
-            <v>27067089680</v>
-          </cell>
-          <cell r="L104" t="str">
-            <v>Tsesmero272</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="J105">
-            <v>23149462074</v>
-          </cell>
-          <cell r="K105">
-            <v>23149462074</v>
-          </cell>
-          <cell r="L105" t="str">
-            <v>Gabriela2023</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="J106">
-            <v>23248265159</v>
-          </cell>
-          <cell r="K106">
-            <v>23248265159</v>
-          </cell>
-          <cell r="L106" t="str">
-            <v>Sebastian10</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="J107">
-            <v>23242946669</v>
-          </cell>
-          <cell r="K107">
-            <v>23242946669</v>
-          </cell>
-          <cell r="L107" t="str">
-            <v>Miguelsoto667</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="J108">
-            <v>27201932268</v>
-          </cell>
-          <cell r="K108">
-            <v>27201932268</v>
-          </cell>
-          <cell r="L108" t="str">
-            <v>Samanta1035</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="J109">
-            <v>27201178776</v>
-          </cell>
-          <cell r="K109">
-            <v>27201178776</v>
-          </cell>
-          <cell r="L109" t="str">
-            <v>Monicaszy11</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="J110">
-            <v>27348916942</v>
-          </cell>
-          <cell r="K110">
-            <v>27348916942</v>
-          </cell>
-          <cell r="L110" t="str">
-            <v>karen580</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="J111">
-            <v>20149462601</v>
-          </cell>
-          <cell r="K111">
-            <v>20149462601</v>
-          </cell>
-          <cell r="L111" t="str">
-            <v>Marcelo203</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="J112">
-            <v>20074827455</v>
-          </cell>
-          <cell r="K112">
-            <v>20074827455</v>
-          </cell>
-          <cell r="L112" t="str">
-            <v>Ricardo103</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="J113">
-            <v>20130056637</v>
-          </cell>
-          <cell r="K113">
-            <v>20130056637</v>
-          </cell>
-          <cell r="L113" t="str">
-            <v>Tabbiae208</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="J114">
-            <v>20133762761</v>
-          </cell>
-          <cell r="K114">
-            <v>30715577743</v>
-          </cell>
-          <cell r="L114" t="str">
-            <v>Cferreyra60</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="J115">
-            <v>27236873744</v>
-          </cell>
-          <cell r="K115">
-            <v>27236873744</v>
-          </cell>
-          <cell r="L115" t="str">
-            <v>Sotomalena0818</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="J116">
-            <v>20051985967</v>
-          </cell>
-          <cell r="K116">
-            <v>20051985967</v>
-          </cell>
-          <cell r="L116" t="str">
-            <v>Andres5967</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="J117">
-            <v>20230966738</v>
-          </cell>
-          <cell r="K117">
-            <v>20230966738</v>
-          </cell>
-          <cell r="L117" t="str">
-            <v>Durrutia4441</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="J118">
-            <v>27116976620</v>
-          </cell>
-          <cell r="K118">
-            <v>27116976620</v>
-          </cell>
-          <cell r="L118" t="str">
-            <v>Miriamu272</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="J119">
-            <v>20044483441</v>
-          </cell>
-          <cell r="K119" t="e">
-            <v>#VALUE!</v>
-          </cell>
-          <cell r="L119" t="str">
-            <v>Calafate2022</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="J120">
-            <v>20315731330</v>
-          </cell>
-          <cell r="K120">
-            <v>20315731330</v>
-          </cell>
-          <cell r="L120" t="str">
-            <v>AngelGV200</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="J121">
-            <v>20110780525</v>
-          </cell>
-          <cell r="K121">
-            <v>20110780525</v>
-          </cell>
-          <cell r="L121" t="str">
-            <v>vare205</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="J122">
-            <v>20301650087</v>
-          </cell>
-          <cell r="K122">
-            <v>20301650087</v>
-          </cell>
-          <cell r="L122" t="str">
-            <v>VarenizaLeo208</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="J123">
-            <v>20334250327</v>
-          </cell>
-          <cell r="K123">
-            <v>30715795864</v>
-          </cell>
-          <cell r="L123" t="str">
-            <v>Pensalu208</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="J124">
-            <v>27142090959</v>
-          </cell>
-          <cell r="K124">
-            <v>27142090959</v>
-          </cell>
-          <cell r="L124" t="str">
-            <v>Trapito5058</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2223,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2238,8 +975,8 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16.5703125" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
@@ -2255,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2267,13 +1004,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -2288,28 +1025,28 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2328,44 +1065,40 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2">
-        <f>F2</f>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6">
         <v>44866</v>
       </c>
       <c r="K2" s="2">
-        <f>EOMONTH(F2,0)</f>
+        <f>EOMONTH(J2,0)</f>
         <v>44895</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ","MCE - ",YEAR(J2),TEXT(MONTH(J2),"00")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <f>CONCATENATE(TEXT(A2,"0")," - ","MCE - ",R2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - MCE - 202211 - 20000000000 - Cliente</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ","MCR - ",YEAR(J2),TEXT(MONTH(J2),"00")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <f>CONCATENATE(TEXT(A2,"0")," - ","MCR - ",R2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - MCR - 202211 - 20000000000 - Cliente</v>
       </c>
       <c r="N2" s="5" t="str">
         <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;R2,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O2" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C2,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O2" s="4"/>
       <c r="P2" s="5" t="str">
         <f>IF(EXACT(O2,E2),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q33" si="1">ROW(A2)</f>
+        <f>ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="R2" s="2" t="str">
@@ -2373,15 +1106,15 @@
         <v>202211</v>
       </c>
       <c r="S2" s="4">
-        <f t="shared" ref="S2:S33" si="2">IF(C2=C1,1,0)</f>
+        <f>IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="3">IF(C2=C3,1,0)</f>
+        <f>IF(C2=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" ref="U2:U33" si="4">SUM(S2:T2)</f>
+        <f t="shared" ref="U2:U33" si="1">SUM(S2:T2)</f>
         <v>1</v>
       </c>
     </row>
@@ -2401,60 +1134,56 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J66" si="5">F3</f>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="6">
         <v>44866</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K66" si="6">EOMONTH(F3,0)</f>
+        <f t="shared" ref="K3:K66" si="2">EOMONTH(J3,0)</f>
         <v>44895</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L66" si="7">CONCATENATE(TEXT(A3,"0")," - ","MCE - ",YEAR(J3),TEXT(MONTH(J3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="L3:L66" si="3">CONCATENATE(TEXT(A3,"0")," - ","MCE - ",R3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - MCE - 202211 - 20000000000 - Cliente</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M66" si="8">CONCATENATE(TEXT(A3,"0")," - ","MCR - ",YEAR(J3),TEXT(MONTH(J3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="M3:M66" si="4">CONCATENATE(TEXT(A3,"0")," - ","MCR - ",R3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - MCR - 202211 - 20000000000 - Cliente</v>
       </c>
       <c r="N3" s="5" t="str">
         <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;R3,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O3" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C3,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O3" s="4"/>
       <c r="P3" s="5" t="str">
-        <f t="shared" ref="P3:P66" si="9">IF(EXACT(O3,E3),"ü","x")</f>
+        <f>IF(EXACT(O3,E3),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q3" s="4">
+        <f>ROW(A3)</f>
+        <v>3</v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f t="shared" ref="R3:R66" si="5">YEAR(J3)&amp;TEXT(MONTH(J3),"00")</f>
+        <v>202211</v>
+      </c>
+      <c r="S3" s="4">
+        <f>IF(C3=C2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
+        <f>IF(C3=C4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R3" s="2" t="str">
-        <f t="shared" ref="R3:R66" si="10">YEAR(J3)&amp;TEXT(MONTH(J3),"00")</f>
-        <v>202211</v>
-      </c>
-      <c r="S3" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T3" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U3" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2470,63 +1199,59 @@
         <v>20000000000</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2">
-        <f t="shared" si="5"/>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="6">
         <v>44866</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L4" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N4" s="5" t="str">
         <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;R4,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O4" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C4,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O4" s="4"/>
       <c r="P4" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O4,E4),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q4" s="4">
+        <f>ROW(A4)</f>
+        <v>4</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S4" s="4">
+        <f>IF(C4=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
+        <f>IF(C4=C5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S4" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U4" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2542,63 +1267,59 @@
         <v>20000000000</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2">
-        <f t="shared" si="5"/>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="6">
         <v>44866</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L5" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N5" s="5" t="str">
         <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;R5,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C5,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O5" s="4"/>
       <c r="P5" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O5,E5),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q5" s="4">
+        <f>ROW(A5)</f>
+        <v>5</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S5" s="4">
+        <f>IF(C5=C4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <f>IF(C5=C6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2614,63 +1335,59 @@
         <v>20000000000</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2">
-        <f t="shared" si="5"/>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6">
         <v>44866</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L6" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N6" s="5" t="str">
         <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;R6,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O6" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C6,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O6" s="4"/>
       <c r="P6" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O6,E6),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q6" s="4">
+        <f>ROW(A6)</f>
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S6" s="4">
+        <f>IF(C6=C5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <f>IF(C6=C7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2686,63 +1403,59 @@
         <v>20000000000</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2">
-        <f t="shared" si="5"/>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="6">
         <v>44866</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L7" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N7" s="5" t="str">
         <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;R7,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O7" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C7,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O7" s="4"/>
       <c r="P7" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O7,E7),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q7" s="4">
+        <f>ROW(A7)</f>
+        <v>7</v>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S7" s="4">
+        <f>IF(C7=C6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <f>IF(C7=C8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="R7" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2758,63 +1471,59 @@
         <v>20000000000</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2">
-        <f t="shared" si="5"/>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="6">
         <v>44866</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L8" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N8" s="5" t="str">
         <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;R8,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O8" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C8,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O8" s="4"/>
       <c r="P8" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O8,E8),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q8" s="4">
+        <f>ROW(A8)</f>
+        <v>8</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S8" s="4">
+        <f>IF(C8=C7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <f>IF(C8=C9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="R8" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2830,63 +1539,59 @@
         <v>20000000000</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2">
-        <f t="shared" si="5"/>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="6">
         <v>44866</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L9" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N9" s="5" t="str">
         <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;R9,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O9" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C9,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O9" s="4"/>
       <c r="P9" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O9,E9),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q9" s="4">
+        <f>ROW(A9)</f>
+        <v>9</v>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S9" s="4">
+        <f>IF(C9=C8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <f>IF(C9=C10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R9" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2902,63 +1607,59 @@
         <v>20000000000</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2">
-        <f t="shared" si="5"/>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="6">
         <v>44866</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N10" s="5" t="str">
         <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;R10,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O10" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C10,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O10" s="4"/>
       <c r="P10" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O10,E10),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q10" s="4">
+        <f>ROW(A10)</f>
+        <v>10</v>
+      </c>
+      <c r="R10" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S10" s="4">
+        <f>IF(C10=C9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
+        <f>IF(C10=C11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="R10" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2974,63 +1675,59 @@
         <v>20000000000</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2">
-        <f t="shared" si="5"/>
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="6">
         <v>44866</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N11" s="5" t="str">
         <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;R11,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O11" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C11,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O11" s="4"/>
       <c r="P11" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O11,E11),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q11" s="4">
+        <f>ROW(A11)</f>
+        <v>11</v>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S11" s="4">
+        <f>IF(C11=C10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
+        <f>IF(C11=C12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="R11" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T11" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U11" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3046,63 +1743,59 @@
         <v>20000000000</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2">
-        <f t="shared" si="5"/>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="6">
         <v>44866</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N12" s="5" t="str">
         <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;R12,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O12" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C12,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O12" s="4"/>
       <c r="P12" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O12,E12),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q12" s="4">
+        <f>ROW(A12)</f>
+        <v>12</v>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S12" s="4">
+        <f>IF(C12=C11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <f>IF(C12=C13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="R12" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3118,63 +1811,59 @@
         <v>20000000000</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2">
-        <f t="shared" si="5"/>
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="6">
         <v>44866</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N13" s="5" t="str">
         <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;R13,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O13" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C13,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O13" s="4"/>
       <c r="P13" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O13,E13),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q13" s="4">
+        <f>ROW(A13)</f>
+        <v>13</v>
+      </c>
+      <c r="R13" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S13" s="4">
+        <f>IF(C13=C12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <f>IF(C13=C14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="R13" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T13" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U13" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3190,63 +1879,59 @@
         <v>20000000000</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="2">
-        <f t="shared" si="5"/>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="6">
         <v>44866</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N14" s="5" t="str">
         <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;R14,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O14" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C14,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O14" s="4"/>
       <c r="P14" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O14,E14),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q14" s="4">
+        <f>ROW(A14)</f>
+        <v>14</v>
+      </c>
+      <c r="R14" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S14" s="4">
+        <f>IF(C14=C13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <f>IF(C14=C15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="R14" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3262,63 +1947,59 @@
         <v>20000000000</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2">
-        <f t="shared" si="5"/>
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="6">
         <v>44866</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L15" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N15" s="5" t="str">
         <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;R15,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O15" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C15,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O15" s="4"/>
       <c r="P15" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O15,E15),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q15" s="4">
+        <f>ROW(A15)</f>
+        <v>15</v>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S15" s="4">
+        <f>IF(C15=C14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
+        <f>IF(C15=C16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="R15" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3334,63 +2015,59 @@
         <v>20000000000</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2">
-        <f t="shared" si="5"/>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="6">
         <v>44866</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L16" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N16" s="5" t="str">
         <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;R16,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O16" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C16,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O16" s="4"/>
       <c r="P16" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O16,E16),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q16" s="4">
+        <f>ROW(A16)</f>
+        <v>16</v>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S16" s="4">
+        <f>IF(C16=C15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <f>IF(C16=C17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="R16" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U16" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3406,63 +2083,59 @@
         <v>20000000000</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="2">
-        <f t="shared" si="5"/>
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="6">
         <v>44866</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N17" s="5" t="str">
         <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;R17,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O17" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C17,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O17" s="4"/>
       <c r="P17" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O17,E17),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q17" s="4">
+        <f>ROW(A17)</f>
+        <v>17</v>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S17" s="4">
+        <f>IF(C17=C16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
+        <f>IF(C17=C18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="R17" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T17" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U17" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3478,63 +2151,59 @@
         <v>20000000000</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="2">
-        <f t="shared" si="5"/>
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="6">
         <v>44866</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L18" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N18" s="5" t="str">
         <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;R18,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O18" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C18,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O18" s="4"/>
       <c r="P18" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O18,E18),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q18" s="4">
+        <f>ROW(A18)</f>
+        <v>18</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S18" s="4">
+        <f>IF(C18=C17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <f>IF(C18=C19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U18" s="4">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="R18" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U18" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3550,63 +2219,59 @@
         <v>20000000000</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="2">
-        <f t="shared" si="5"/>
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="6">
         <v>44866</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N19" s="5" t="str">
         <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;R19,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O19" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C19,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O19" s="4"/>
       <c r="P19" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O19,E19),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q19" s="4">
+        <f>ROW(A19)</f>
+        <v>19</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S19" s="4">
+        <f>IF(C19=C18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <f>IF(C19=C20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="R19" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U19" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3622,63 +2287,59 @@
         <v>20000000000</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="2">
-        <f t="shared" si="5"/>
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="6">
         <v>44866</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N20" s="5" t="str">
         <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;R20,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O20" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C20,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O20" s="4"/>
       <c r="P20" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O20,E20),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q20" s="4">
+        <f>ROW(A20)</f>
+        <v>20</v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S20" s="4">
+        <f>IF(C20=C19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
+        <f>IF(C20=C21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U20" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="R20" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U20" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3694,63 +2355,59 @@
         <v>20000000000</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2">
-        <f t="shared" si="5"/>
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="6">
         <v>44866</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N21" s="5" t="str">
         <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;R21,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O21" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C21,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O21" s="4"/>
       <c r="P21" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O21,E21),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q21" s="4">
+        <f>ROW(A21)</f>
+        <v>21</v>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S21" s="4">
+        <f>IF(C21=C20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
+        <f>IF(C21=C22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="R21" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T21" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U21" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3766,63 +2423,59 @@
         <v>20000000000</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="2">
-        <f t="shared" si="5"/>
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="6">
         <v>44866</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L22" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N22" s="5" t="str">
         <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;R22,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O22" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C22,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O22" s="4"/>
       <c r="P22" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O22,E22),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q22" s="4">
+        <f>ROW(A22)</f>
+        <v>22</v>
+      </c>
+      <c r="R22" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S22" s="4">
+        <f>IF(C22=C21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
+        <f>IF(C22=C23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="4">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="R22" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T22" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U22" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3838,63 +2491,59 @@
         <v>20000000000</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="2">
-        <f t="shared" si="5"/>
+      <c r="I23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="6">
         <v>44866</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L23" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N23" s="5" t="str">
         <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;R23,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O23" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C23,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O23" s="4"/>
       <c r="P23" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O23,E23),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q23" s="4">
+        <f>ROW(A23)</f>
+        <v>23</v>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S23" s="4">
+        <f>IF(C23=C22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
+        <f>IF(C23=C24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="R23" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U23" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3910,63 +2559,59 @@
         <v>20000000000</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2">
-        <f t="shared" si="5"/>
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="6">
         <v>44866</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L24" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N24" s="5" t="str">
         <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;R24,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O24" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C24,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O24" s="4"/>
       <c r="P24" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O24,E24),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q24" s="4">
+        <f>ROW(A24)</f>
+        <v>24</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S24" s="4">
+        <f>IF(C24=C23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T24" s="4">
+        <f>IF(C24=C25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U24" s="4">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R24" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U24" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3982,63 +2627,59 @@
         <v>20000000000</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="2">
-        <f t="shared" si="5"/>
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="6">
         <v>44866</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L25" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N25" s="5" t="str">
         <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;R25,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O25" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C25,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O25" s="4"/>
       <c r="P25" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O25,E25),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q25" s="4">
+        <f>ROW(A25)</f>
+        <v>25</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S25" s="4">
+        <f>IF(C25=C24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
+        <f>IF(C25=C26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="R25" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T25" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U25" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4054,63 +2695,59 @@
         <v>20000000000</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="2">
-        <f t="shared" si="5"/>
+      <c r="I26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="6">
         <v>44866</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L26" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N26" s="5" t="str">
         <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;R26,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O26" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C26,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O26" s="4"/>
       <c r="P26" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O26,E26),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q26" s="4">
+        <f>ROW(A26)</f>
+        <v>26</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S26" s="4">
+        <f>IF(C26=C25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="4">
+        <f>IF(C26=C27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U26" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="R26" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U26" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4126,63 +2763,59 @@
         <v>20000000000</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="2">
-        <f t="shared" si="5"/>
+      <c r="I27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="6">
         <v>44866</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L27" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N27" s="5" t="str">
         <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;R27,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O27" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C27,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O27" s="4"/>
       <c r="P27" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O27,E27),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q27" s="4">
+        <f>ROW(A27)</f>
+        <v>27</v>
+      </c>
+      <c r="R27" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S27" s="4">
+        <f>IF(C27=C26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
+        <f>IF(C27=C28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="R27" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T27" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U27" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4198,63 +2831,59 @@
         <v>20000000000</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="2">
-        <f t="shared" si="5"/>
+      <c r="I28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="6">
         <v>44866</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L28" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M28" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N28" s="5" t="str">
         <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;R28,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O28" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C28,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O28" s="4"/>
       <c r="P28" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O28,E28),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q28" s="4">
+        <f>ROW(A28)</f>
+        <v>28</v>
+      </c>
+      <c r="R28" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S28" s="4">
+        <f>IF(C28=C27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
+        <f>IF(C28=C29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="R28" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T28" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U28" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4270,63 +2899,59 @@
         <v>20000000000</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="2">
-        <f t="shared" si="5"/>
+      <c r="I29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="6">
         <v>44866</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L29" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N29" s="5" t="str">
         <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;R29,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O29" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C29,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O29" s="4"/>
       <c r="P29" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O29,E29),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q29" s="4">
+        <f>ROW(A29)</f>
+        <v>29</v>
+      </c>
+      <c r="R29" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S29" s="4">
+        <f>IF(C29=C28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
+        <f>IF(C29=C30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="R29" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S29" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T29" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U29" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4342,63 +2967,59 @@
         <v>20000000000</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="2">
-        <f t="shared" si="5"/>
+      <c r="I30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="6">
         <v>44866</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L30" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M30" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N30" s="5" t="str">
         <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;R30,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O30" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C30,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O30" s="4"/>
       <c r="P30" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O30,E30),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q30" s="4">
+        <f>ROW(A30)</f>
+        <v>30</v>
+      </c>
+      <c r="R30" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S30" s="4">
+        <f>IF(C30=C29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
+        <f>IF(C30=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U30" s="4">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="R30" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T30" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U30" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4414,63 +3035,59 @@
         <v>20000000000</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="2">
-        <f t="shared" si="5"/>
+      <c r="I31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="6">
         <v>44866</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L31" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M31" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N31" s="5" t="str">
         <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;R31,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O31" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C31,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O31" s="4"/>
       <c r="P31" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O31,E31),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q31" s="4">
+        <f>ROW(A31)</f>
+        <v>31</v>
+      </c>
+      <c r="R31" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S31" s="4">
+        <f>IF(C31=C30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
+        <f>IF(C31=C32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="R31" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S31" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T31" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U31" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4486,63 +3103,59 @@
         <v>20000000000</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="2">
-        <f t="shared" si="5"/>
+      <c r="I32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="6">
         <v>44866</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L32" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M32" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N32" s="5" t="str">
         <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;R32,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O32" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C32,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O32" s="4"/>
       <c r="P32" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O32,E32),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q32" s="4">
+        <f>ROW(A32)</f>
+        <v>32</v>
+      </c>
+      <c r="R32" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S32" s="4">
+        <f>IF(C32=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
+        <f>IF(C32=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U32" s="4">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="R32" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T32" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U32" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4558,69 +3171,65 @@
         <v>20000000000</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="2">
-        <f t="shared" si="5"/>
+      <c r="I33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="6">
         <v>44866</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L33" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M33" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N33" s="5" t="str">
         <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;R33,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O33" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C33,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O33" s="4"/>
       <c r="P33" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O33,E33),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q33" s="4">
+        <f>ROW(A33)</f>
+        <v>33</v>
+      </c>
+      <c r="R33" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202211</v>
+      </c>
+      <c r="S33" s="4">
+        <f>IF(C33=C32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
+        <f>IF(C33=C34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="R33" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>202211</v>
-      </c>
-      <c r="S33" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T33" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U33" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="11">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="6">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="s">
@@ -4630,69 +3239,65 @@
         <v>20000000000</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="2">
-        <f t="shared" si="5"/>
+      <c r="I34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="6">
         <v>44866</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L34" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M34" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N34" s="5" t="str">
         <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;R34,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O34" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C34,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O34" s="4"/>
       <c r="P34" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O34,E34),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q69" si="12">ROW(A34)</f>
+        <f>ROW(A34)</f>
         <v>34</v>
       </c>
       <c r="R34" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" ref="S34:S67" si="13">IF(C34=C33,1,0)</f>
+        <f>IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" ref="T34:T67" si="14">IF(C34=C35,1,0)</f>
+        <f>IF(C34=C35,1,0)</f>
         <v>1</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:U65" si="15">SUM(S34:T34)</f>
+        <f t="shared" ref="U34:U65" si="7">SUM(S34:T34)</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B35" t="s">
@@ -4702,69 +3307,65 @@
         <v>20000000000</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="2">
-        <f t="shared" si="5"/>
+      <c r="I35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="6">
         <v>44866</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L35" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M35" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N35" s="5" t="str">
         <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;R35,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O35" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C35,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O35" s="4"/>
       <c r="P35" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O35,E35),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A35)</f>
         <v>35</v>
       </c>
       <c r="R35" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C35=C34,1,0)</f>
         <v>1</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C35=C36,1,0)</f>
         <v>1</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B36" t="s">
@@ -4774,69 +3375,65 @@
         <v>20000000000</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="2">
-        <f t="shared" si="5"/>
+      <c r="I36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="6">
         <v>44866</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L36" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M36" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N36" s="5" t="str">
         <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;R36,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O36" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C36,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O36" s="4"/>
       <c r="P36" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O36,E36),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A36)</f>
         <v>36</v>
       </c>
       <c r="R36" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C36=C35,1,0)</f>
         <v>1</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C36=C37,1,0)</f>
         <v>1</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -4846,69 +3443,65 @@
         <v>20000000000</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="2">
-        <f t="shared" si="5"/>
+      <c r="I37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="6">
         <v>44866</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L37" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M37" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N37" s="5" t="str">
         <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;R37,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O37" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C37,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O37" s="4"/>
       <c r="P37" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O37,E37),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A37)</f>
         <v>37</v>
       </c>
       <c r="R37" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C37=C36,1,0)</f>
         <v>1</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C37=C38,1,0)</f>
         <v>1</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B38" t="s">
@@ -4918,69 +3511,65 @@
         <v>20000000000</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="2">
-        <f t="shared" si="5"/>
+      <c r="I38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="6">
         <v>44866</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L38" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M38" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N38" s="5" t="str">
         <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;R38,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O38" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C38,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O38" s="4"/>
       <c r="P38" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O38,E38),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A38)</f>
         <v>38</v>
       </c>
       <c r="R38" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C38=C37,1,0)</f>
         <v>1</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C38=C39,1,0)</f>
         <v>1</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B39" t="s">
@@ -4990,69 +3579,65 @@
         <v>20000000000</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="2">
-        <f t="shared" si="5"/>
+      <c r="I39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="6">
         <v>44866</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L39" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M39" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N39" s="5" t="str">
         <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;R39,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O39" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C39,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O39" s="4"/>
       <c r="P39" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O39,E39),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A39)</f>
         <v>39</v>
       </c>
       <c r="R39" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C39=C38,1,0)</f>
         <v>1</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C39=C40,1,0)</f>
         <v>1</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -5062,69 +3647,65 @@
         <v>20000000000</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="2">
-        <f t="shared" si="5"/>
+      <c r="I40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="6">
         <v>44866</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L40" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M40" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N40" s="5" t="str">
         <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;R40,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O40" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C40,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O40" s="4"/>
       <c r="P40" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O40,E40),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q40" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A40)</f>
         <v>40</v>
       </c>
       <c r="R40" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C40=C39,1,0)</f>
         <v>1</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C40=C41,1,0)</f>
         <v>1</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B41" t="s">
@@ -5134,69 +3715,65 @@
         <v>20000000000</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="2">
-        <f t="shared" si="5"/>
+      <c r="I41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="6">
         <v>44866</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L41" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M41" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N41" s="5" t="str">
         <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;R41,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O41" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C41,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O41" s="4"/>
       <c r="P41" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O41,E41),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A41)</f>
         <v>41</v>
       </c>
       <c r="R41" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C41=C40,1,0)</f>
         <v>1</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C41=C42,1,0)</f>
         <v>1</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -5206,69 +3783,65 @@
         <v>20000000000</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="2">
-        <f t="shared" si="5"/>
+      <c r="I42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="6">
         <v>44866</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L42" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M42" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N42" s="5" t="str">
         <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;R42,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O42" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C42,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O42" s="4"/>
       <c r="P42" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O42,E42),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A42)</f>
         <v>42</v>
       </c>
       <c r="R42" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C42=C41,1,0)</f>
         <v>1</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C42=C43,1,0)</f>
         <v>1</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -5278,69 +3851,65 @@
         <v>20000000000</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="2">
-        <f t="shared" si="5"/>
+      <c r="I43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="6">
         <v>44866</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L43" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M43" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N43" s="5" t="str">
         <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;R43,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O43" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C43,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O43" s="4"/>
       <c r="P43" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O43,E43),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q43" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A43)</f>
         <v>43</v>
       </c>
       <c r="R43" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S43" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C43=C42,1,0)</f>
         <v>1</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C43=C44,1,0)</f>
         <v>1</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B44" t="s">
@@ -5350,69 +3919,65 @@
         <v>20000000000</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="2">
-        <f t="shared" si="5"/>
+      <c r="I44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="6">
         <v>44866</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L44" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M44" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N44" s="5" t="str">
         <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;R44,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O44" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C44,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O44" s="4"/>
       <c r="P44" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O44,E44),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q44" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A44)</f>
         <v>44</v>
       </c>
       <c r="R44" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C44=C43,1,0)</f>
         <v>1</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C44=C45,1,0)</f>
         <v>1</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B45" t="s">
@@ -5422,69 +3987,65 @@
         <v>20000000000</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="2">
-        <f t="shared" si="5"/>
+      <c r="I45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="6">
         <v>44866</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L45" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M45" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N45" s="5" t="str">
         <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;R45,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O45" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C45,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O45" s="4"/>
       <c r="P45" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O45,E45),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q45" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A45)</f>
         <v>45</v>
       </c>
       <c r="R45" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C45=C44,1,0)</f>
         <v>1</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C45=C46,1,0)</f>
         <v>1</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B46" t="s">
@@ -5494,69 +4055,65 @@
         <v>20000000000</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="2">
-        <f t="shared" si="5"/>
+      <c r="I46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="6">
         <v>44866</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L46" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M46" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N46" s="5" t="str">
         <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;R46,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O46" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C46,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O46" s="4"/>
       <c r="P46" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O46,E46),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q46" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A46)</f>
         <v>46</v>
       </c>
       <c r="R46" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S46" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C46=C45,1,0)</f>
         <v>1</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C46=C47,1,0)</f>
         <v>1</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B47" t="s">
@@ -5566,69 +4123,65 @@
         <v>20000000000</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="2">
-        <f t="shared" si="5"/>
+      <c r="I47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="6">
         <v>44866</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L47" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M47" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N47" s="5" t="str">
         <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;R47,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O47" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C47,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O47" s="4"/>
       <c r="P47" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O47,E47),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A47)</f>
         <v>47</v>
       </c>
       <c r="R47" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C47=C46,1,0)</f>
         <v>1</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C47=C48,1,0)</f>
         <v>1</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -5638,69 +4191,65 @@
         <v>20000000000</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="2">
-        <f t="shared" si="5"/>
+      <c r="I48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="6">
         <v>44866</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L48" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M48" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N48" s="5" t="str">
         <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;R48,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O48" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C48,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O48" s="4"/>
       <c r="P48" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O48,E48),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q48" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A48)</f>
         <v>48</v>
       </c>
       <c r="R48" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S48" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C48=C47,1,0)</f>
         <v>1</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C48=C49,1,0)</f>
         <v>1</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -5710,69 +4259,65 @@
         <v>20000000000</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="2">
-        <f t="shared" si="5"/>
+      <c r="I49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="6">
         <v>44866</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L49" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M49" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N49" s="5" t="str">
         <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;R49,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O49" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C49,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O49" s="4"/>
       <c r="P49" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O49,E49),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q49" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A49)</f>
         <v>49</v>
       </c>
       <c r="R49" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C49=C48,1,0)</f>
         <v>1</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C49=C50,1,0)</f>
         <v>1</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -5782,69 +4327,65 @@
         <v>20000000000</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="2">
-        <f t="shared" si="5"/>
+      <c r="I50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="6">
         <v>44866</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L50" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M50" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N50" s="5" t="str">
         <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;R50,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O50" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C50,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O50" s="4"/>
       <c r="P50" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O50,E50),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q50" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A50)</f>
         <v>50</v>
       </c>
       <c r="R50" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S50" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C50=C49,1,0)</f>
         <v>1</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C50=C51,1,0)</f>
         <v>1</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -5854,69 +4395,65 @@
         <v>20000000000</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="2">
-        <f t="shared" si="5"/>
+      <c r="I51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="6">
         <v>44866</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L51" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M51" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N51" s="5" t="str">
         <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;R51,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O51" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C51,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O51" s="4"/>
       <c r="P51" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O51,E51),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q51" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A51)</f>
         <v>51</v>
       </c>
       <c r="R51" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S51" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C51=C50,1,0)</f>
         <v>1</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C51=C52,1,0)</f>
         <v>1</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B52" t="s">
@@ -5926,69 +4463,65 @@
         <v>20000000000</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="2">
-        <f t="shared" si="5"/>
+      <c r="I52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="6">
         <v>44866</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L52" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M52" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N52" s="5" t="str">
         <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;R52,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O52" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C52,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O52" s="4"/>
       <c r="P52" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O52,E52),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q52" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A52)</f>
         <v>52</v>
       </c>
       <c r="R52" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S52" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C52=C51,1,0)</f>
         <v>1</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C52=C53,1,0)</f>
         <v>1</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -5998,69 +4531,65 @@
         <v>20000000000</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="2">
-        <f t="shared" si="5"/>
+      <c r="I53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="6">
         <v>44866</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L53" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M53" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N53" s="5" t="str">
         <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;R53,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O53" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C53,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O53" s="4"/>
       <c r="P53" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O53,E53),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q53" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A53)</f>
         <v>53</v>
       </c>
       <c r="R53" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S53" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C53=C52,1,0)</f>
         <v>1</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C53=C54,1,0)</f>
         <v>1</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B54" t="s">
@@ -6070,69 +4599,65 @@
         <v>20000000000</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="2">
-        <f t="shared" si="5"/>
+      <c r="I54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="6">
         <v>44866</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L54" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M54" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N54" s="5" t="str">
         <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;R54,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O54" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C54,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O54" s="4"/>
       <c r="P54" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O54,E54),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q54" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A54)</f>
         <v>54</v>
       </c>
       <c r="R54" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C54=C53,1,0)</f>
         <v>1</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C54=C55,1,0)</f>
         <v>1</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B55" t="s">
@@ -6142,69 +4667,65 @@
         <v>20000000000</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="2">
-        <f t="shared" si="5"/>
+      <c r="I55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="6">
         <v>44866</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L55" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M55" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N55" s="5" t="str">
         <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;R55,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O55" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C55,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O55" s="4"/>
       <c r="P55" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O55,E55),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q55" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A55)</f>
         <v>55</v>
       </c>
       <c r="R55" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C55=C54,1,0)</f>
         <v>1</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C55=C56,1,0)</f>
         <v>1</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B56" t="s">
@@ -6214,69 +4735,65 @@
         <v>20000000000</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="2">
-        <f t="shared" si="5"/>
+      <c r="I56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="6">
         <v>44866</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L56" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M56" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N56" s="5" t="str">
         <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;R56,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O56" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C56,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O56" s="4"/>
       <c r="P56" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O56,E56),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q56" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A56)</f>
         <v>56</v>
       </c>
       <c r="R56" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C56=C55,1,0)</f>
         <v>1</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C56=C57,1,0)</f>
         <v>1</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B57" t="s">
@@ -6286,69 +4803,65 @@
         <v>20000000000</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="2">
-        <f t="shared" si="5"/>
+      <c r="I57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="6">
         <v>44866</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L57" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M57" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N57" s="5" t="str">
         <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;R57,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O57" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C57,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O57" s="4"/>
       <c r="P57" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O57,E57),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q57" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A57)</f>
         <v>57</v>
       </c>
       <c r="R57" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S57" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C57=C56,1,0)</f>
         <v>1</v>
       </c>
       <c r="T57" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C57=C58,1,0)</f>
         <v>1</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B58" t="s">
@@ -6358,69 +4871,65 @@
         <v>20000000000</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="2">
-        <f t="shared" si="5"/>
+      <c r="I58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="6">
         <v>44866</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L58" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M58" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N58" s="5" t="str">
         <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;R58,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O58" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C58,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O58" s="4"/>
       <c r="P58" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O58,E58),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q58" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A58)</f>
         <v>58</v>
       </c>
       <c r="R58" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C58=C57,1,0)</f>
         <v>1</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C58=C59,1,0)</f>
         <v>1</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -6430,69 +4939,65 @@
         <v>20000000000</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="2">
-        <f t="shared" si="5"/>
+      <c r="I59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="6">
         <v>44866</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L59" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M59" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N59" s="5" t="str">
         <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;R59,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O59" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C59,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O59" s="4"/>
       <c r="P59" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O59,E59),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q59" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A59)</f>
         <v>59</v>
       </c>
       <c r="R59" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S59" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C59=C58,1,0)</f>
         <v>1</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C59=C60,1,0)</f>
         <v>1</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -6502,69 +5007,65 @@
         <v>20000000000</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="2">
-        <f t="shared" si="5"/>
+      <c r="I60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="6">
         <v>44866</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L60" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M60" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N60" s="5" t="str">
         <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;R60,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O60" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C60,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O60" s="4"/>
       <c r="P60" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O60,E60),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q60" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A60)</f>
         <v>60</v>
       </c>
       <c r="R60" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S60" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C60=C59,1,0)</f>
         <v>1</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C60=C61,1,0)</f>
         <v>1</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -6574,69 +5075,65 @@
         <v>20000000000</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="2">
-        <f t="shared" si="5"/>
+      <c r="I61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="6">
         <v>44866</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L61" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M61" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N61" s="5" t="str">
         <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;R61,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O61" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C61,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O61" s="4"/>
       <c r="P61" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O61,E61),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q61" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A61)</f>
         <v>61</v>
       </c>
       <c r="R61" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S61" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C61=C60,1,0)</f>
         <v>1</v>
       </c>
       <c r="T61" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C61=C62,1,0)</f>
         <v>1</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -6646,69 +5143,65 @@
         <v>20000000000</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="2">
-        <f t="shared" si="5"/>
+      <c r="I62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="6">
         <v>44866</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L62" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M62" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N62" s="5" t="str">
         <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;R62,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O62" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C62,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O62" s="4"/>
       <c r="P62" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O62,E62),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q62" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A62)</f>
         <v>62</v>
       </c>
       <c r="R62" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S62" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C62=C61,1,0)</f>
         <v>1</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C62=C63,1,0)</f>
         <v>1</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -6718,69 +5211,65 @@
         <v>20000000000</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="2">
-        <f t="shared" si="5"/>
+      <c r="I63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="6">
         <v>44866</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L63" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M63" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N63" s="5" t="str">
         <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;R63,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O63" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C63,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O63" s="4"/>
       <c r="P63" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O63,E63),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q63" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A63)</f>
         <v>63</v>
       </c>
       <c r="R63" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S63" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C63=C62,1,0)</f>
         <v>1</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C63=C64,1,0)</f>
         <v>1</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -6790,69 +5279,65 @@
         <v>20000000000</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="2">
-        <f t="shared" si="5"/>
+      <c r="I64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="6">
         <v>44866</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L64" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M64" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N64" s="5" t="str">
         <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;R64,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O64" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C64,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O64" s="4"/>
       <c r="P64" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O64,E64),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q64" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A64)</f>
         <v>64</v>
       </c>
       <c r="R64" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S64" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C64=C63,1,0)</f>
         <v>1</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C64=C65,1,0)</f>
         <v>1</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B65" t="s">
@@ -6862,69 +5347,65 @@
         <v>20000000000</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="2">
-        <f t="shared" si="5"/>
+      <c r="I65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="6">
         <v>44866</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L65" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M65" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N65" s="5" t="str">
         <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;R65,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O65" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C65,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O65" s="4"/>
       <c r="P65" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O65,E65),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q65" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A65)</f>
         <v>65</v>
       </c>
       <c r="R65" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S65" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C65=C64,1,0)</f>
         <v>1</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C65=C66,1,0)</f>
         <v>1</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B66" t="s">
@@ -6934,69 +5415,65 @@
         <v>20000000000</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="2">
-        <f t="shared" si="5"/>
+      <c r="I66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="6">
         <v>44866</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
       <c r="L66" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M66" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N66" s="5" t="str">
         <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;R66,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O66" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C66,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O66" s="4"/>
       <c r="P66" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(EXACT(O66,E66),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A66)</f>
         <v>66</v>
       </c>
       <c r="R66" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>202211</v>
       </c>
       <c r="S66" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C66=C65,1,0)</f>
         <v>1</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C66=C67,1,0)</f>
         <v>1</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" ref="U66:U69" si="16">SUM(S66:T66)</f>
+        <f t="shared" ref="U66:U69" si="8">SUM(S66:T66)</f>
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -7006,69 +5483,65 @@
         <v>20000000000</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="2">
-        <f t="shared" ref="J67:J69" si="17">F67</f>
+      <c r="I67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="6">
         <v>44866</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" ref="K67:K69" si="18">EOMONTH(F67,0)</f>
+        <f t="shared" ref="K67:K69" si="9">EOMONTH(J67,0)</f>
         <v>44895</v>
       </c>
       <c r="L67" s="2" t="str">
-        <f t="shared" ref="L67:L69" si="19">CONCATENATE(TEXT(A67,"0")," - ","MCE - ",YEAR(J67),TEXT(MONTH(J67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="L67:L69" si="10">CONCATENATE(TEXT(A67,"0")," - ","MCE - ",R67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f t="shared" ref="M67:M69" si="20">CONCATENATE(TEXT(A67,"0")," - ","MCR - ",YEAR(J67),TEXT(MONTH(J67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="M67:M69" si="11">CONCATENATE(TEXT(A67,"0")," - ","MCR - ",R67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N67" s="5" t="str">
         <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;R67,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O67" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C67,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O67" s="4"/>
       <c r="P67" s="5" t="str">
-        <f t="shared" ref="P67:P69" si="21">IF(EXACT(O67,E67),"ü","x")</f>
+        <f>IF(EXACT(O67,E67),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q67" s="4">
-        <f t="shared" si="12"/>
+        <f>ROW(A67)</f>
         <v>67</v>
       </c>
       <c r="R67" s="2" t="str">
-        <f t="shared" ref="R67:R69" si="22">YEAR(J67)&amp;TEXT(MONTH(J67),"00")</f>
+        <f t="shared" ref="R67:R69" si="12">YEAR(J67)&amp;TEXT(MONTH(J67),"00")</f>
         <v>202211</v>
       </c>
       <c r="S67" s="4">
-        <f t="shared" si="13"/>
+        <f>IF(C67=C66,1,0)</f>
         <v>1</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(C67=C68,1,0)</f>
         <v>1</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B68" t="s">
@@ -7078,69 +5551,65 @@
         <v>20000000000</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="2">
-        <f t="shared" si="17"/>
+      <c r="I68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="6">
         <v>44866</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>44895</v>
       </c>
       <c r="L68" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M68" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N68" s="5" t="str">
         <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;R68,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O68" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C68,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O68" s="4"/>
       <c r="P68" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(EXACT(O68,E68),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q68" s="4">
+        <f>ROW(A68)</f>
+        <v>68</v>
+      </c>
+      <c r="R68" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>68</v>
-      </c>
-      <c r="R68" s="2" t="str">
-        <f t="shared" si="22"/>
         <v>202211</v>
       </c>
       <c r="S68" s="4">
-        <f t="shared" ref="S68:S69" si="23">IF(C68=C67,1,0)</f>
+        <f t="shared" ref="S68:S69" si="13">IF(C68=C67,1,0)</f>
         <v>1</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" ref="T68:T69" si="24">IF(C68=C69,1,0)</f>
+        <f t="shared" ref="T68:T69" si="14">IF(C68=C69,1,0)</f>
         <v>1</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -7150,63 +5619,59 @@
         <v>20000000000</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="3">
-        <v>44866</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="2">
-        <f t="shared" si="17"/>
+      <c r="I69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="6">
         <v>44866</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>44895</v>
       </c>
       <c r="L69" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>0 - MCE - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="M69" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0 - MCR - 202211 - 30000000000 - Cliente</v>
       </c>
       <c r="N69" s="5" t="str">
         <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;R69,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O69" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C69,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
+      <c r="O69" s="4"/>
       <c r="P69" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(EXACT(O69,E69),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="Q69" s="4">
+        <f>ROW(A69)</f>
+        <v>69</v>
+      </c>
+      <c r="R69" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>69</v>
-      </c>
-      <c r="R69" s="2" t="str">
-        <f t="shared" si="22"/>
         <v>202211</v>
       </c>
       <c r="S69" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7216,7 +5681,13 @@
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I69" xr:uid="{AF9F05DA-2D74-4331-B174-35FB23A2CC2F}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>